--- a/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -548,9 +556,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -819,6 +824,10 @@
   <si>
     <t>fixed o&amp;m</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -831,7 +840,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1074,11 +1083,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1865,7 +1869,7 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1915,7 +1919,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1972,7 +1976,7 @@
     <xf numFmtId="164" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2011,13 +2015,13 @@
     <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="38" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="37" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2033,20 +2037,20 @@
     <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2057,35 +2061,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="308">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2399,80 +2403,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>444500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2648,7 +2587,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3089,32 +3028,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="68" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="68" customWidth="1"/>
     <col min="2" max="2" width="12" style="32" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="32"/>
+    <col min="3" max="3" width="38.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="66" customFormat="1">
+    <row r="1" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="64"/>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="67" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="67"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
@@ -3123,7 +3062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>85</v>
@@ -3132,7 +3071,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -3141,29 +3080,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="109" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="110"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="111"/>
       <c r="C10" s="112"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="111" t="s">
         <v>88</v>
@@ -3172,33 +3111,33 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="111"/>
       <c r="C12" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="111"/>
       <c r="C13" s="114" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="111"/>
       <c r="C14" s="112" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="111"/>
       <c r="C15" s="112"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="111" t="s">
         <v>93</v>
@@ -3207,49 +3146,49 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="111"/>
       <c r="C17" s="116" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="111"/>
       <c r="C18" s="117" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="111"/>
       <c r="C19" s="118" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="119"/>
       <c r="C20" s="120" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="119"/>
       <c r="C21" s="121" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="119"/>
       <c r="C22" s="122" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="119"/>
       <c r="C23" s="123" t="s">
@@ -3259,41 +3198,36 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -3303,49 +3237,49 @@
       <c r="H1" s="16"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="197" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="199" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="201"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="200"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="203"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="205"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="207"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="17" thickBot="1">
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -3355,7 +3289,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -3366,7 +3300,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="18">
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="80"/>
       <c r="C8" s="24" t="s">
         <v>34</v>
@@ -3387,7 +3321,7 @@
       </c>
       <c r="J8" s="138"/>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="18">
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="40"/>
       <c r="C9" s="23"/>
       <c r="D9" s="70"/>
@@ -3398,7 +3332,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="40"/>
       <c r="C10" s="23" t="s">
         <v>106</v>
@@ -3411,7 +3345,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="40"/>
       <c r="C11" s="74" t="s">
         <v>35</v>
@@ -3427,11 +3361,11 @@
       <c r="G11" s="82"/>
       <c r="H11" s="69"/>
       <c r="I11" s="173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1">
+    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
       <c r="C12" s="74" t="s">
         <v>37</v>
@@ -3451,7 +3385,7 @@
       <c r="J12" s="139"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="73" t="s">
         <v>39</v>
@@ -3471,7 +3405,7 @@
       <c r="J13" s="139"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="34"/>
       <c r="C14" s="75" t="s">
@@ -3492,7 +3426,7 @@
       <c r="J14" s="140"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="34"/>
       <c r="C15" s="75" t="s">
@@ -3513,14 +3447,14 @@
       <c r="J15" s="140"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="34"/>
       <c r="C16" s="75" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="78">
         <f>'Research data'!H7</f>
@@ -3532,19 +3466,19 @@
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16" s="139"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="34"/>
       <c r="C17" s="75" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="78">
         <v>0</v>
@@ -3555,12 +3489,12 @@
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="173" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J17" s="139"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1">
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
       <c r="C18" s="75" t="s">
         <v>46</v>
@@ -3581,7 +3515,7 @@
       </c>
       <c r="J18" s="139"/>
     </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1">
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
       <c r="C19" s="75" t="s">
         <v>62</v>
@@ -3602,7 +3536,7 @@
       </c>
       <c r="J19" s="139"/>
     </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1">
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
       <c r="C20" s="75" t="s">
         <v>47</v>
@@ -3624,7 +3558,7 @@
       </c>
       <c r="J20" s="139"/>
     </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="34"/>
       <c r="C21" s="75" t="s">
         <v>48</v>
@@ -3645,7 +3579,7 @@
       </c>
       <c r="J21" s="139"/>
     </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1">
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
       <c r="C22" s="75" t="s">
         <v>49</v>
@@ -3666,7 +3600,7 @@
       </c>
       <c r="J22" s="139"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="34"/>
       <c r="C23" s="144"/>
       <c r="D23" s="145"/>
@@ -3677,7 +3611,7 @@
       <c r="I23" s="32"/>
       <c r="J23" s="139"/>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="34"/>
       <c r="C24" s="23" t="s">
         <v>110</v>
@@ -3690,7 +3624,7 @@
       <c r="I24" s="32"/>
       <c r="J24" s="139"/>
     </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1">
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="34"/>
       <c r="C25" s="75" t="s">
         <v>50</v>
@@ -3708,11 +3642,11 @@
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J25" s="141"/>
     </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="34"/>
       <c r="C26" s="75" t="s">
         <v>51</v>
@@ -3729,11 +3663,11 @@
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="173" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J26" s="141"/>
     </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1">
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="34"/>
       <c r="C27" s="75" t="s">
         <v>13</v>
@@ -3751,11 +3685,11 @@
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J27" s="139"/>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1">
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="34"/>
       <c r="C28" s="75" t="s">
         <v>52</v>
@@ -3768,7 +3702,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="178" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="33" t="s">
@@ -3776,7 +3710,7 @@
       </c>
       <c r="J28" s="139"/>
     </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1">
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
       <c r="C29" s="75" t="s">
         <v>53</v>
@@ -3794,11 +3728,11 @@
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J29" s="139"/>
     </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1">
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="34"/>
       <c r="C30" s="75" t="s">
         <v>54</v>
@@ -3816,11 +3750,11 @@
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J30" s="139"/>
     </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1">
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="34"/>
       <c r="C31" s="75" t="s">
         <v>55</v>
@@ -3837,11 +3771,11 @@
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="174" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J31" s="139"/>
     </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="34"/>
       <c r="C32" s="75" t="s">
         <v>58</v>
@@ -3859,11 +3793,11 @@
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="175" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J32" s="139"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="34"/>
       <c r="C33" s="75" t="s">
         <v>41</v>
@@ -3882,7 +3816,7 @@
       </c>
       <c r="J33" s="139"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="34"/>
       <c r="C34" s="144"/>
       <c r="D34" s="145"/>
@@ -3893,7 +3827,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="139"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="34"/>
       <c r="C35" s="23" t="s">
         <v>8</v>
@@ -3906,7 +3840,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="139"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="34"/>
       <c r="C36" s="73" t="s">
         <v>40</v>
@@ -3924,11 +3858,11 @@
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="173" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J36" s="139"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="34"/>
       <c r="C37" s="75" t="s">
         <v>56</v>
@@ -3950,7 +3884,7 @@
       </c>
       <c r="J37" s="139"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="34"/>
       <c r="C38" s="75" t="s">
         <v>57</v>
@@ -3968,11 +3902,11 @@
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="175" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J38" s="139"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="34"/>
       <c r="C39" s="73" t="s">
         <v>38</v>
@@ -3991,7 +3925,7 @@
       </c>
       <c r="J39" s="139"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="34"/>
       <c r="C40" s="81" t="s">
         <v>59</v>
@@ -4010,7 +3944,7 @@
       </c>
       <c r="J40" s="139"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="34"/>
       <c r="C41" s="75" t="s">
         <v>14</v>
@@ -4029,7 +3963,7 @@
       </c>
       <c r="J41" s="139"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="34"/>
       <c r="C42" s="74" t="s">
         <v>60</v>
@@ -4048,7 +3982,7 @@
       </c>
       <c r="J42" s="139"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="34"/>
       <c r="C43" s="74" t="s">
         <v>63</v>
@@ -4067,7 +4001,7 @@
       </c>
       <c r="J43" s="139"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="34"/>
       <c r="C44" s="75" t="s">
         <v>61</v>
@@ -4086,7 +4020,7 @@
       </c>
       <c r="J44" s="139"/>
     </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -4097,7 +4031,7 @@
       <c r="I45" s="38"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -4107,7 +4041,7 @@
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
     </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1">
+    <row r="47" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4117,7 +4051,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -4127,7 +4061,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -4137,7 +4071,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -4147,7 +4081,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -4157,7 +4091,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -4167,7 +4101,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -4177,7 +4111,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -4187,7 +4121,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -4197,7 +4131,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -4207,7 +4141,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -4217,7 +4151,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -4233,43 +4167,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>444500</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4280,32 +4177,32 @@
   </sheetPr>
   <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="39" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="2.75" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="2.375" style="39" customWidth="1"/>
-    <col min="10" max="10" width="1.875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="39" customWidth="1"/>
     <col min="11" max="11" width="13" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="39" customWidth="1"/>
     <col min="13" max="13" width="13" style="39" customWidth="1"/>
-    <col min="14" max="14" width="2.125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="39" customWidth="1"/>
     <col min="15" max="15" width="55" style="39" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="39"/>
+    <col min="16" max="16384" width="10.7109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="29"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -4321,7 +4218,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
     </row>
-    <row r="3" spans="2:15" s="42" customFormat="1">
+    <row r="3" spans="2:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="40"/>
       <c r="C3" s="128" t="s">
         <v>105</v>
@@ -4338,7 +4235,7 @@
       <c r="I3" s="128"/>
       <c r="J3" s="128"/>
       <c r="K3" s="128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" s="128"/>
       <c r="M3" s="128" t="s">
@@ -4346,10 +4243,10 @@
       </c>
       <c r="N3" s="128"/>
       <c r="O3" s="128" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="34"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -4365,7 +4262,7 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
       <c r="C5" s="72" t="s">
         <v>106</v>
@@ -4383,10 +4280,10 @@
       <c r="N5" s="32"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34"/>
       <c r="C6" s="168" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -4409,7 +4306,7 @@
       <c r="N6" s="32"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="2:15" ht="16" thickBot="1">
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
       <c r="C7" s="45" t="s">
         <v>30</v>
@@ -4417,7 +4314,7 @@
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="169" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="129"/>
       <c r="H7" s="193">
@@ -4431,18 +4328,18 @@
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
       <c r="O7" s="178" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="16" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34"/>
       <c r="C8" s="168" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
       <c r="F8" s="169" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="129"/>
       <c r="H8" s="170">
@@ -4459,10 +4356,10 @@
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="178" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="34"/>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
@@ -4477,10 +4374,10 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="179" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="72" t="s">
         <v>8</v>
@@ -4498,7 +4395,7 @@
       <c r="N10" s="32"/>
       <c r="O10" s="133"/>
     </row>
-    <row r="11" spans="2:15" ht="16" thickBot="1">
+    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
       <c r="C11" s="51" t="s">
         <v>1</v>
@@ -4524,7 +4421,7 @@
       <c r="N11" s="32"/>
       <c r="O11" s="88"/>
     </row>
-    <row r="12" spans="2:15" ht="16" thickBot="1">
+    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
       <c r="C12" s="54" t="s">
         <v>6</v>
@@ -4550,7 +4447,7 @@
       <c r="N12" s="32"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="2:15" ht="16" thickBot="1">
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="136" t="s">
         <v>109</v>
@@ -4572,10 +4469,10 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="196" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="34"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
@@ -4591,7 +4488,7 @@
       <c r="N14" s="32"/>
       <c r="O14" s="124"/>
     </row>
-    <row r="15" spans="2:15" ht="16" thickBot="1">
+    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="34"/>
       <c r="C15" s="21" t="s">
         <v>107</v>
@@ -4609,7 +4506,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="124"/>
     </row>
-    <row r="16" spans="2:15" ht="16" thickBot="1">
+    <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
       <c r="C16" s="126" t="s">
         <v>103</v>
@@ -4635,7 +4532,7 @@
       <c r="N16" s="50"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="2:15" ht="16" thickBot="1">
+    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="34"/>
       <c r="C17" s="127" t="s">
         <v>10</v>
@@ -4661,10 +4558,10 @@
       <c r="N17" s="50"/>
       <c r="O17" s="149"/>
     </row>
-    <row r="18" spans="2:15" ht="16" thickBot="1">
+    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
       <c r="C18" s="167" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
@@ -4684,10 +4581,10 @@
       <c r="N18" s="32"/>
       <c r="O18" s="149"/>
     </row>
-    <row r="19" spans="2:15" ht="16" thickBot="1">
+    <row r="19" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
       <c r="C19" s="167" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
@@ -4707,10 +4604,10 @@
       <c r="N19" s="32"/>
       <c r="O19" s="149"/>
     </row>
-    <row r="20" spans="2:15" ht="16" thickBot="1">
+    <row r="20" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
       <c r="C20" s="167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
@@ -4730,7 +4627,7 @@
       <c r="N20" s="32"/>
       <c r="O20" s="149"/>
     </row>
-    <row r="21" spans="2:15" ht="16" thickBot="1">
+    <row r="21" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="34"/>
       <c r="C21" s="134" t="s">
         <v>81</v>
@@ -4756,7 +4653,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="92"/>
     </row>
-    <row r="22" spans="2:15" ht="16" thickBot="1">
+    <row r="22" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
       <c r="C22" s="58" t="s">
         <v>9</v>
@@ -4779,7 +4676,7 @@
       <c r="N22" s="32"/>
       <c r="O22" s="30"/>
     </row>
-    <row r="23" spans="2:15" ht="16" thickBot="1">
+    <row r="23" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34"/>
       <c r="C23" s="135" t="s">
         <v>108</v>
@@ -4805,7 +4702,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="151"/>
     </row>
-    <row r="24" spans="2:15" ht="16" thickBot="1">
+    <row r="24" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="34"/>
       <c r="C24" s="135" t="s">
         <v>108</v>
@@ -4831,7 +4728,7 @@
       <c r="N24" s="60"/>
       <c r="O24" s="152"/>
     </row>
-    <row r="25" spans="2:15" ht="16" thickBot="1">
+    <row r="25" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="34"/>
       <c r="C25" s="77" t="s">
         <v>67</v>
@@ -4857,7 +4754,7 @@
       <c r="N25" s="60"/>
       <c r="O25" s="149"/>
     </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1">
+    <row r="26" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="34"/>
       <c r="C26" s="172" t="s">
         <v>58</v>
@@ -4883,22 +4780,17 @@
       <c r="N26" s="60"/>
       <c r="O26" s="149"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="34"/>
       <c r="C27" s="172"/>
       <c r="O27" s="92"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4913,22 +4805,22 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="93" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="93" customWidth="1"/>
     <col min="2" max="2" width="3" style="93" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="93" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="93" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="93" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="93" customWidth="1"/>
-    <col min="7" max="8" width="12.75" style="94" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="94" customWidth="1"/>
-    <col min="10" max="10" width="76.375" style="93" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="93"/>
+    <col min="3" max="3" width="27.85546875" style="93" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="93" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="94" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="94" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" style="93" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="95"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
@@ -4939,7 +4831,7 @@
       <c r="I2" s="97"/>
       <c r="J2" s="96"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="98"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
@@ -4952,7 +4844,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="99"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="99"/>
       <c r="D4" s="99"/>
@@ -4963,7 +4855,7 @@
       <c r="I4" s="100"/>
       <c r="J4" s="99"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="101"/>
       <c r="C5" s="24" t="s">
         <v>31</v>
@@ -4981,16 +4873,16 @@
         <v>33</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -5001,34 +4893,34 @@
       <c r="I6" s="26"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="98"/>
       <c r="C7" s="102" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="165" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="F7" s="177" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="177" t="s">
+      <c r="G7" s="177" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="177" t="s">
+      <c r="H7" s="177" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="177" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="161" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="98"/>
       <c r="C8" s="103" t="s">
         <v>10</v>
@@ -5041,7 +4933,7 @@
       <c r="I8" s="100"/>
       <c r="J8" s="99"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="103" t="s">
         <v>9</v>
@@ -5054,7 +4946,7 @@
       <c r="I9" s="100"/>
       <c r="J9" s="99"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="98"/>
       <c r="C10" s="103" t="s">
         <v>11</v>
@@ -5067,10 +4959,10 @@
       <c r="I10" s="100"/>
       <c r="J10" s="99"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="98"/>
       <c r="C11" s="176" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="99"/>
@@ -5080,7 +4972,7 @@
       <c r="I11" s="100"/>
       <c r="J11" s="99"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="98"/>
       <c r="C12" s="176" t="s">
         <v>58</v>
@@ -5092,13 +4984,13 @@
       <c r="H12" s="100"/>
       <c r="I12" s="100"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="166" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="98"/>
       <c r="C14" s="186"/>
       <c r="D14" s="187"/>
@@ -5110,7 +5002,7 @@
       <c r="J14" s="190"/>
       <c r="K14" s="185"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="98"/>
       <c r="C15" s="102" t="s">
         <v>1</v>
@@ -5129,18 +5021,18 @@
         <v>82</v>
       </c>
       <c r="I15" s="164" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" s="162" t="s">
         <v>79</v>
       </c>
       <c r="K15" s="185"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="98"/>
       <c r="K16" s="185"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="98"/>
       <c r="D17" s="102"/>
       <c r="E17" s="104"/>
@@ -5150,7 +5042,7 @@
       <c r="I17" s="105"/>
       <c r="J17" s="102"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="98"/>
       <c r="C18" s="102"/>
       <c r="D18" s="102"/>
@@ -5161,59 +5053,54 @@
       <c r="I18" s="100"/>
       <c r="J18" s="106"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="98"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="98"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="98"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="98"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="98"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="98"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="98"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="98"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="98"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="98"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="98"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="98"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="98"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5225,17 +5112,17 @@
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="148" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="148" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="148" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="148" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="148"/>
+    <col min="1" max="1" width="4.42578125" style="148" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="148" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="148" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="148" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="153"/>
       <c r="C2" s="154"/>
       <c r="D2" s="154"/>
@@ -5250,13 +5137,13 @@
       <c r="M2" s="154"/>
       <c r="N2" s="155"/>
     </row>
-    <row r="3" spans="2:14" s="42" customFormat="1">
+    <row r="3" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="80"/>
       <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -5269,7 +5156,7 @@
       <c r="M3" s="24"/>
       <c r="N3" s="160"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="156"/>
       <c r="C4" s="147"/>
       <c r="D4" s="147"/>
@@ -5284,7 +5171,7 @@
       <c r="M4" s="147"/>
       <c r="N4" s="157"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="156"/>
       <c r="C5" s="147"/>
       <c r="D5" s="147"/>
@@ -5299,7 +5186,7 @@
       <c r="M5" s="147"/>
       <c r="N5" s="157"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="156"/>
       <c r="C6" s="147"/>
       <c r="D6" s="147"/>
@@ -5314,7 +5201,7 @@
       <c r="M6" s="147"/>
       <c r="N6" s="157"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="156"/>
       <c r="C7" s="147"/>
       <c r="D7" s="147"/>
@@ -5329,7 +5216,7 @@
       <c r="M7" s="147"/>
       <c r="N7" s="157"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="156"/>
       <c r="C8" s="147"/>
       <c r="D8" s="147"/>
@@ -5344,7 +5231,7 @@
       <c r="M8" s="147"/>
       <c r="N8" s="157"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="156"/>
       <c r="C9" s="147"/>
       <c r="D9" s="147"/>
@@ -5359,7 +5246,7 @@
       <c r="M9" s="147"/>
       <c r="N9" s="157"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="156"/>
       <c r="C10" s="147"/>
       <c r="D10" s="147"/>
@@ -5374,7 +5261,7 @@
       <c r="M10" s="147"/>
       <c r="N10" s="157"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="156"/>
       <c r="C11" s="147"/>
       <c r="D11" s="147"/>
@@ -5389,7 +5276,7 @@
       <c r="M11" s="147"/>
       <c r="N11" s="157"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="156"/>
       <c r="C12" s="147"/>
       <c r="D12" s="158"/>
@@ -5404,7 +5291,7 @@
       <c r="M12" s="147"/>
       <c r="N12" s="157"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="156"/>
       <c r="C13" s="147"/>
       <c r="D13" s="147"/>
@@ -5419,7 +5306,7 @@
       <c r="M13" s="147"/>
       <c r="N13" s="157"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="156"/>
       <c r="C14" s="147"/>
       <c r="D14" s="147"/>
@@ -5434,7 +5321,7 @@
       <c r="M14" s="147"/>
       <c r="N14" s="157"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="156"/>
       <c r="C15" s="147"/>
       <c r="D15" s="147"/>
@@ -5449,7 +5336,7 @@
       <c r="M15" s="147"/>
       <c r="N15" s="157"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="156"/>
       <c r="C16" s="147"/>
       <c r="D16" s="147"/>
@@ -5464,7 +5351,7 @@
       <c r="M16" s="147"/>
       <c r="N16" s="157"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="156"/>
       <c r="C17" s="147"/>
       <c r="D17" s="147"/>
@@ -5479,7 +5366,7 @@
       <c r="M17" s="147"/>
       <c r="N17" s="157"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="156"/>
       <c r="C18" s="147"/>
       <c r="D18" s="147"/>
@@ -5494,7 +5381,7 @@
       <c r="M18" s="147"/>
       <c r="N18" s="157"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="156"/>
       <c r="C19" s="147"/>
       <c r="D19" s="147"/>
@@ -5509,10 +5396,10 @@
       <c r="M19" s="147"/>
       <c r="N19" s="157"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="156"/>
       <c r="C20" s="165" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="147"/>
       <c r="E20" s="147"/>
@@ -5526,10 +5413,10 @@
       <c r="M20" s="147"/>
       <c r="N20" s="157"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="156"/>
       <c r="C21" s="165" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="147"/>
       <c r="E21" s="147"/>
@@ -5543,7 +5430,7 @@
       <c r="M21" s="147"/>
       <c r="N21" s="157"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="156"/>
       <c r="C22" s="147"/>
       <c r="D22" s="147"/>
@@ -5558,7 +5445,7 @@
       <c r="M22" s="147"/>
       <c r="N22" s="157"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="156"/>
       <c r="C23" s="147"/>
       <c r="D23" s="147"/>
@@ -5573,7 +5460,7 @@
       <c r="M23" s="147"/>
       <c r="N23" s="157"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="156"/>
       <c r="C24" s="147"/>
       <c r="D24" s="147"/>
@@ -5588,7 +5475,7 @@
       <c r="M24" s="147"/>
       <c r="N24" s="157"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="156"/>
       <c r="C25" s="147"/>
       <c r="D25" s="147"/>
@@ -5603,7 +5490,7 @@
       <c r="M25" s="147"/>
       <c r="N25" s="157"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="156"/>
       <c r="C26" s="147"/>
       <c r="D26" s="147"/>
@@ -5618,7 +5505,7 @@
       <c r="M26" s="147"/>
       <c r="N26" s="157"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="156"/>
       <c r="C27" s="147"/>
       <c r="D27" s="147"/>
@@ -5626,10 +5513,10 @@
         <v>340</v>
       </c>
       <c r="F27" s="165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="165" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="147"/>
       <c r="I27" s="147"/>
@@ -5639,7 +5526,7 @@
       <c r="M27" s="147"/>
       <c r="N27" s="157"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="156"/>
       <c r="C28" s="147"/>
       <c r="D28" s="147"/>
@@ -5654,7 +5541,7 @@
       <c r="M28" s="147"/>
       <c r="N28" s="157"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="156"/>
       <c r="C29" s="147"/>
       <c r="D29" s="147"/>
@@ -5669,7 +5556,7 @@
       <c r="M29" s="147"/>
       <c r="N29" s="157"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="156"/>
       <c r="C30" s="147"/>
       <c r="D30" s="147"/>
@@ -5684,7 +5571,7 @@
       <c r="M30" s="147"/>
       <c r="N30" s="157"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="156"/>
       <c r="C31" s="147"/>
       <c r="D31" s="147"/>
@@ -5692,10 +5579,10 @@
         <v>110</v>
       </c>
       <c r="F31" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="165" t="s">
         <v>122</v>
-      </c>
-      <c r="G31" s="165" t="s">
-        <v>123</v>
       </c>
       <c r="H31" s="147"/>
       <c r="I31" s="147"/>
@@ -5705,7 +5592,7 @@
       <c r="M31" s="147"/>
       <c r="N31" s="157"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="156"/>
       <c r="C32" s="147"/>
       <c r="D32" s="147"/>
@@ -5720,7 +5607,7 @@
       <c r="M32" s="147"/>
       <c r="N32" s="157"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="156"/>
       <c r="C33" s="147"/>
       <c r="D33" s="147"/>
@@ -5735,7 +5622,7 @@
       <c r="M33" s="147"/>
       <c r="N33" s="157"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="156"/>
       <c r="C34" s="147"/>
       <c r="D34" s="147"/>
@@ -5750,7 +5637,7 @@
       <c r="M34" s="147"/>
       <c r="N34" s="157"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="156"/>
       <c r="C35" s="147"/>
       <c r="D35" s="147"/>
@@ -5765,7 +5652,7 @@
       <c r="M35" s="147"/>
       <c r="N35" s="157"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="156"/>
       <c r="C36" s="147"/>
       <c r="D36" s="147"/>
@@ -5780,7 +5667,7 @@
       <c r="M36" s="147"/>
       <c r="N36" s="157"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="156"/>
       <c r="C37" s="147"/>
       <c r="D37" s="147"/>
@@ -5795,7 +5682,7 @@
       <c r="M37" s="147"/>
       <c r="N37" s="157"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="156"/>
       <c r="C38" s="147"/>
       <c r="D38" s="147"/>
@@ -5803,10 +5690,10 @@
         <v>550</v>
       </c>
       <c r="F38" s="165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G38" s="165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H38" s="147"/>
       <c r="I38" s="147"/>
@@ -5816,7 +5703,7 @@
       <c r="M38" s="147"/>
       <c r="N38" s="157"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="156"/>
       <c r="C39" s="147"/>
       <c r="D39" s="147"/>
@@ -5831,7 +5718,7 @@
       <c r="M39" s="147"/>
       <c r="N39" s="157"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="156"/>
       <c r="C40" s="147"/>
       <c r="D40" s="147"/>
@@ -5846,7 +5733,7 @@
       <c r="M40" s="147"/>
       <c r="N40" s="157"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="156"/>
       <c r="C41" s="147"/>
       <c r="D41" s="147"/>
@@ -5861,7 +5748,7 @@
       <c r="M41" s="147"/>
       <c r="N41" s="157"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="156"/>
       <c r="C42" s="147"/>
       <c r="D42" s="147"/>
@@ -5876,7 +5763,7 @@
       <c r="M42" s="147"/>
       <c r="N42" s="157"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="156"/>
       <c r="C43" s="147"/>
       <c r="D43" s="159"/>
@@ -5891,7 +5778,7 @@
       <c r="M43" s="147"/>
       <c r="N43" s="157"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="156"/>
       <c r="C44" s="147"/>
       <c r="D44" s="147"/>
@@ -5906,7 +5793,7 @@
       <c r="M44" s="147"/>
       <c r="N44" s="157"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="156"/>
       <c r="C45" s="147"/>
       <c r="D45" s="147"/>
@@ -5921,7 +5808,7 @@
       <c r="M45" s="147"/>
       <c r="N45" s="157"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="156"/>
       <c r="C46" s="147"/>
       <c r="D46" s="147"/>
@@ -5936,7 +5823,7 @@
       <c r="M46" s="147"/>
       <c r="N46" s="157"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="156"/>
       <c r="C47" s="147"/>
       <c r="D47" s="147"/>
@@ -5951,7 +5838,7 @@
       <c r="M47" s="147"/>
       <c r="N47" s="157"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="156"/>
       <c r="C48" s="147"/>
       <c r="D48" s="147"/>
@@ -5966,7 +5853,7 @@
       <c r="M48" s="147"/>
       <c r="N48" s="157"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="156"/>
       <c r="C49" s="147"/>
       <c r="D49" s="147"/>
@@ -5981,7 +5868,7 @@
       <c r="M49" s="147"/>
       <c r="N49" s="157"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="156"/>
       <c r="C50" s="147"/>
       <c r="D50" s="147"/>
@@ -5996,7 +5883,7 @@
       <c r="M50" s="147"/>
       <c r="N50" s="157"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="156"/>
       <c r="C51" s="147"/>
       <c r="D51" s="147"/>
@@ -6011,7 +5898,7 @@
       <c r="M51" s="147"/>
       <c r="N51" s="157"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="156"/>
       <c r="C52" s="147"/>
       <c r="D52" s="147"/>
@@ -6026,7 +5913,7 @@
       <c r="M52" s="147"/>
       <c r="N52" s="157"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="156"/>
       <c r="C53" s="147"/>
       <c r="D53" s="147"/>
@@ -6041,7 +5928,7 @@
       <c r="M53" s="147"/>
       <c r="N53" s="157"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="156"/>
       <c r="C54" s="147"/>
       <c r="D54" s="147"/>
@@ -6056,7 +5943,7 @@
       <c r="M54" s="147"/>
       <c r="N54" s="157"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="156"/>
       <c r="C55" s="147"/>
       <c r="D55" s="147"/>
@@ -6071,7 +5958,7 @@
       <c r="M55" s="147"/>
       <c r="N55" s="157"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="156"/>
       <c r="C56" s="147"/>
       <c r="D56" s="147"/>
@@ -6086,7 +5973,7 @@
       <c r="M56" s="147"/>
       <c r="N56" s="157"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="156"/>
       <c r="C57" s="147"/>
       <c r="D57" s="147"/>
@@ -6101,7 +5988,7 @@
       <c r="M57" s="147"/>
       <c r="N57" s="157"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="156"/>
       <c r="C58" s="147"/>
       <c r="D58" s="147"/>
@@ -6116,7 +6003,7 @@
       <c r="M58" s="147"/>
       <c r="N58" s="157"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="156"/>
       <c r="C59" s="147"/>
       <c r="D59" s="147"/>
@@ -6131,7 +6018,7 @@
       <c r="M59" s="147"/>
       <c r="N59" s="157"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="156"/>
       <c r="C60" s="147"/>
       <c r="D60" s="147"/>
@@ -6146,7 +6033,7 @@
       <c r="M60" s="147"/>
       <c r="N60" s="157"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="156"/>
       <c r="C61" s="147"/>
       <c r="D61" s="147"/>
@@ -6161,7 +6048,7 @@
       <c r="M61" s="147"/>
       <c r="N61" s="157"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="156"/>
       <c r="C62" s="147"/>
       <c r="D62" s="147"/>
@@ -6176,7 +6063,7 @@
       <c r="M62" s="147"/>
       <c r="N62" s="157"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="156"/>
       <c r="C63" s="147"/>
       <c r="D63" s="147"/>
@@ -6191,7 +6078,7 @@
       <c r="M63" s="147"/>
       <c r="N63" s="157"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="156"/>
       <c r="C64" s="147"/>
       <c r="D64" s="147"/>
@@ -6206,7 +6093,7 @@
       <c r="M64" s="147"/>
       <c r="N64" s="157"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="156"/>
       <c r="C65" s="147"/>
       <c r="D65" s="147"/>
@@ -6221,7 +6108,7 @@
       <c r="M65" s="147"/>
       <c r="N65" s="157"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="156"/>
       <c r="C66" s="147"/>
       <c r="D66" s="147"/>
@@ -6236,7 +6123,7 @@
       <c r="M66" s="147"/>
       <c r="N66" s="157"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="156"/>
       <c r="C67" s="147"/>
       <c r="D67" s="147"/>
@@ -6244,10 +6131,10 @@
         <v>50</v>
       </c>
       <c r="F67" s="165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G67" s="165" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H67" s="147"/>
       <c r="I67" s="147"/>
@@ -6257,7 +6144,7 @@
       <c r="M67" s="147"/>
       <c r="N67" s="157"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="156"/>
       <c r="C68" s="147"/>
       <c r="D68" s="147"/>
@@ -6266,10 +6153,10 @@
         <v>290</v>
       </c>
       <c r="F68" s="165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G68" s="165" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H68" s="147"/>
       <c r="I68" s="147"/>
@@ -6279,7 +6166,7 @@
       <c r="M68" s="147"/>
       <c r="N68" s="157"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="156"/>
       <c r="C69" s="147"/>
       <c r="D69" s="147"/>
@@ -6294,7 +6181,7 @@
       <c r="M69" s="147"/>
       <c r="N69" s="157"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="156"/>
       <c r="C70" s="147"/>
       <c r="D70" s="147"/>
@@ -6309,7 +6196,7 @@
       <c r="M70" s="147"/>
       <c r="N70" s="157"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="156"/>
       <c r="C71" s="147"/>
       <c r="D71" s="147"/>
@@ -6324,7 +6211,7 @@
       <c r="M71" s="147"/>
       <c r="N71" s="157"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="156"/>
       <c r="C72" s="147"/>
       <c r="D72" s="147"/>
@@ -6338,7 +6225,7 @@
       <c r="M72" s="147"/>
       <c r="N72" s="157"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="156"/>
       <c r="C73" s="147"/>
       <c r="D73" s="147"/>
@@ -6353,7 +6240,7 @@
       <c r="M73" s="147"/>
       <c r="N73" s="157"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="156"/>
       <c r="C74" s="147"/>
       <c r="D74" s="147"/>
@@ -6368,7 +6255,7 @@
       <c r="M74" s="147"/>
       <c r="N74" s="157"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="156"/>
       <c r="C75" s="147"/>
       <c r="D75" s="147"/>
@@ -6383,7 +6270,7 @@
       <c r="M75" s="147"/>
       <c r="N75" s="157"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="156"/>
       <c r="C76" s="147"/>
       <c r="D76" s="147"/>
@@ -6398,7 +6285,7 @@
       <c r="M76" s="147"/>
       <c r="N76" s="157"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="156"/>
       <c r="F77" s="147"/>
       <c r="G77" s="147"/>
@@ -6410,7 +6297,7 @@
       <c r="M77" s="147"/>
       <c r="N77" s="157"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="156"/>
       <c r="F78" s="147"/>
       <c r="G78" s="147"/>
@@ -6422,7 +6309,7 @@
       <c r="M78" s="147"/>
       <c r="N78" s="157"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="156"/>
       <c r="F79" s="147"/>
       <c r="G79" s="147"/>
@@ -6434,7 +6321,7 @@
       <c r="M79" s="147"/>
       <c r="N79" s="157"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="156"/>
       <c r="F80" s="147"/>
       <c r="G80" s="147"/>
@@ -6446,7 +6333,7 @@
       <c r="M80" s="147"/>
       <c r="N80" s="157"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="156"/>
       <c r="F81" s="147"/>
       <c r="G81" s="147"/>
@@ -6458,7 +6345,7 @@
       <c r="M81" s="147"/>
       <c r="N81" s="157"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="156"/>
       <c r="F82" s="147"/>
       <c r="G82" s="147"/>
@@ -6470,7 +6357,7 @@
       <c r="M82" s="147"/>
       <c r="N82" s="157"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="156"/>
       <c r="F83" s="147"/>
       <c r="G83" s="147"/>
@@ -6482,10 +6369,10 @@
       <c r="M83" s="147"/>
       <c r="N83" s="157"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="156"/>
       <c r="C84" s="166" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F84" s="147"/>
       <c r="G84" s="147"/>
@@ -6497,7 +6384,7 @@
       <c r="M84" s="147"/>
       <c r="N84" s="157"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="156"/>
       <c r="F85" s="147"/>
       <c r="G85" s="147"/>
@@ -6509,7 +6396,7 @@
       <c r="M85" s="147"/>
       <c r="N85" s="157"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="156"/>
       <c r="E86" s="148">
         <v>25</v>
@@ -6528,7 +6415,7 @@
       <c r="M86" s="147"/>
       <c r="N86" s="157"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="156"/>
       <c r="E87" s="148">
         <v>0.05</v>
@@ -6544,12 +6431,12 @@
       <c r="M87" s="147"/>
       <c r="N87" s="157"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="156"/>
-      <c r="F88" s="206" t="s">
-        <v>167</v>
-      </c>
-      <c r="G88" s="206"/>
+      <c r="F88" s="197" t="s">
+        <v>166</v>
+      </c>
+      <c r="G88" s="197"/>
       <c r="H88" s="147"/>
       <c r="I88" s="147"/>
       <c r="J88" s="147"/>
@@ -6558,10 +6445,10 @@
       <c r="M88" s="147"/>
       <c r="N88" s="157"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="156"/>
-      <c r="F89" s="206" t="s">
-        <v>168</v>
+      <c r="F89" s="197" t="s">
+        <v>167</v>
       </c>
       <c r="G89" s="147"/>
       <c r="H89" s="147"/>
@@ -6572,7 +6459,7 @@
       <c r="M89" s="147"/>
       <c r="N89" s="157"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="156"/>
       <c r="H90" s="147"/>
       <c r="I90" s="147"/>
@@ -6582,17 +6469,17 @@
       <c r="M90" s="147"/>
       <c r="N90" s="157"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="156"/>
-      <c r="E91" s="207">
+      <c r="E91" s="198">
         <f>0.015*(E27+E31+E38-E67)</f>
         <v>14.25</v>
       </c>
-      <c r="F91" s="207" t="s">
+      <c r="F91" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" s="198" t="s">
         <v>169</v>
-      </c>
-      <c r="G91" s="207" t="s">
-        <v>170</v>
       </c>
       <c r="H91" s="147"/>
       <c r="I91" s="147"/>
@@ -6602,7 +6489,7 @@
       <c r="M91" s="147"/>
       <c r="N91" s="157"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="156"/>
       <c r="H92" s="147"/>
       <c r="I92" s="147"/>
@@ -6612,10 +6499,10 @@
       <c r="M92" s="147"/>
       <c r="N92" s="157"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="156"/>
       <c r="F93" s="166" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G93" s="147"/>
       <c r="H93" s="147"/>
@@ -6626,7 +6513,7 @@
       <c r="M93" s="147"/>
       <c r="N93" s="157"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="156"/>
       <c r="G94" s="147"/>
       <c r="H94" s="147"/>
@@ -6637,16 +6524,16 @@
       <c r="M94" s="147"/>
       <c r="N94" s="157"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="156"/>
       <c r="E95" s="148">
         <v>0</v>
       </c>
       <c r="F95" s="165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G95" s="165" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H95" s="147"/>
       <c r="I95" s="147"/>
@@ -6656,7 +6543,7 @@
       <c r="M95" s="147"/>
       <c r="N95" s="157"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="156"/>
       <c r="F96" s="147"/>
       <c r="G96" s="147"/>
@@ -6668,16 +6555,16 @@
       <c r="M96" s="147"/>
       <c r="N96" s="157"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="156"/>
       <c r="E97" s="148">
         <v>0.15</v>
       </c>
       <c r="F97" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" s="165" t="s">
         <v>130</v>
-      </c>
-      <c r="G97" s="165" t="s">
-        <v>131</v>
       </c>
       <c r="H97" s="147"/>
       <c r="I97" s="147"/>
@@ -6687,7 +6574,7 @@
       <c r="M97" s="147"/>
       <c r="N97" s="157"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="156"/>
       <c r="F98" s="147"/>
       <c r="G98" s="147"/>
@@ -6699,10 +6586,10 @@
       <c r="M98" s="147"/>
       <c r="N98" s="157"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="156"/>
       <c r="F99" s="194" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H99" s="147"/>
       <c r="I99" s="147"/>
@@ -6712,12 +6599,12 @@
       <c r="M99" s="147"/>
       <c r="N99" s="157"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="156"/>
       <c r="C100" s="147"/>
       <c r="D100" s="147"/>
       <c r="F100" s="166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H100" s="147"/>
       <c r="I100" s="147"/>
@@ -6727,12 +6614,12 @@
       <c r="M100" s="147"/>
       <c r="N100" s="157"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="156"/>
       <c r="C101" s="147"/>
       <c r="D101" s="147"/>
       <c r="F101" s="166" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H101" s="147"/>
       <c r="I101" s="147"/>
@@ -6742,13 +6629,13 @@
       <c r="M101" s="147"/>
       <c r="N101" s="157"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="156"/>
       <c r="C102" s="147"/>
       <c r="D102" s="147"/>
       <c r="E102" s="147"/>
       <c r="F102" s="195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G102" s="147"/>
       <c r="H102" s="147"/>
@@ -6759,12 +6646,12 @@
       <c r="M102" s="147"/>
       <c r="N102" s="157"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="156"/>
       <c r="C103" s="147"/>
       <c r="D103" s="147"/>
       <c r="F103" s="194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H103" s="147"/>
       <c r="I103" s="147"/>
@@ -6774,13 +6661,13 @@
       <c r="M103" s="147"/>
       <c r="N103" s="157"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="156"/>
       <c r="C104" s="112"/>
       <c r="D104" s="147"/>
       <c r="E104" s="147"/>
       <c r="F104" s="195" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G104" s="147"/>
       <c r="H104" s="112"/>
@@ -6791,7 +6678,7 @@
       <c r="M104" s="147"/>
       <c r="N104" s="157"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="156"/>
       <c r="C105" s="112"/>
       <c r="D105" s="112"/>
@@ -6803,7 +6690,7 @@
       <c r="M105" s="147"/>
       <c r="N105" s="157"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="156"/>
       <c r="C106" s="112"/>
       <c r="D106" s="112"/>
@@ -6823,7 +6710,7 @@
       <c r="M106" s="147"/>
       <c r="N106" s="157"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="156"/>
       <c r="C107" s="112"/>
       <c r="D107" s="112"/>
@@ -6834,7 +6721,7 @@
       <c r="M107" s="147"/>
       <c r="N107" s="157"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="156"/>
       <c r="I108" s="112"/>
       <c r="J108" s="112"/>
@@ -6843,7 +6730,7 @@
       <c r="M108" s="147"/>
       <c r="N108" s="157"/>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="156"/>
       <c r="I109" s="112"/>
       <c r="J109" s="112"/>
@@ -6852,7 +6739,7 @@
       <c r="M109" s="147"/>
       <c r="N109" s="157"/>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="156"/>
       <c r="I110" s="112"/>
       <c r="J110" s="112"/>
@@ -6861,16 +6748,16 @@
       <c r="M110" s="147"/>
       <c r="N110" s="157"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="156"/>
       <c r="E111" s="148">
         <v>20</v>
       </c>
       <c r="F111" s="194" t="s">
+        <v>158</v>
+      </c>
+      <c r="G111" s="194" t="s">
         <v>159</v>
-      </c>
-      <c r="G111" s="194" t="s">
-        <v>160</v>
       </c>
       <c r="H111" s="195" t="s">
         <v>15</v>
@@ -6882,14 +6769,14 @@
       <c r="M111" s="147"/>
       <c r="N111" s="157"/>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="156"/>
       <c r="E112" s="148">
         <f>E111*1000</f>
         <v>20000</v>
       </c>
       <c r="F112" s="194" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G112" s="112"/>
       <c r="H112" s="112"/>
@@ -6900,7 +6787,7 @@
       <c r="M112" s="147"/>
       <c r="N112" s="157"/>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="156"/>
       <c r="C113" s="147"/>
       <c r="D113" s="147"/>
@@ -6912,7 +6799,7 @@
       <c r="M113" s="147"/>
       <c r="N113" s="157"/>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="156"/>
       <c r="C114" s="112"/>
       <c r="D114" s="112"/>
@@ -6921,10 +6808,10 @@
         <v>133333.33333333334</v>
       </c>
       <c r="F114" s="165" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G114" s="165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H114" s="112"/>
       <c r="I114" s="112"/>
@@ -6934,7 +6821,7 @@
       <c r="M114" s="147"/>
       <c r="N114" s="157"/>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="156"/>
       <c r="C115" s="112"/>
       <c r="D115" s="112"/>
@@ -6954,7 +6841,7 @@
       <c r="M115" s="147"/>
       <c r="N115" s="157"/>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="156"/>
       <c r="C116" s="112"/>
       <c r="D116" s="79"/>
@@ -6969,7 +6856,7 @@
       <c r="M116" s="147"/>
       <c r="N116" s="157"/>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="156"/>
       <c r="C117" s="112"/>
       <c r="D117" s="112"/>
@@ -6984,7 +6871,7 @@
       <c r="M117" s="147"/>
       <c r="N117" s="157"/>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="156"/>
       <c r="C118" s="112"/>
       <c r="D118" s="112"/>
@@ -6999,7 +6886,7 @@
       <c r="M118" s="147"/>
       <c r="N118" s="157"/>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="156"/>
       <c r="C119" s="112"/>
       <c r="D119" s="112"/>
@@ -7014,7 +6901,7 @@
       <c r="M119" s="147"/>
       <c r="N119" s="157"/>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="156"/>
       <c r="C120" s="23" t="s">
         <v>80</v>
@@ -7031,17 +6918,17 @@
       <c r="M120" s="147"/>
       <c r="N120" s="157"/>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="156"/>
       <c r="C121" s="147" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D121" s="147"/>
       <c r="E121" s="147">
         <v>12</v>
       </c>
       <c r="F121" s="147" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G121" s="112"/>
       <c r="H121" s="112"/>
@@ -7052,7 +6939,7 @@
       <c r="M121" s="147"/>
       <c r="N121" s="157"/>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="156"/>
       <c r="C122" s="147"/>
       <c r="D122" s="147"/>
@@ -7060,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G122" s="112"/>
       <c r="H122" s="112"/>
@@ -7071,7 +6958,7 @@
       <c r="M122" s="147"/>
       <c r="N122" s="157"/>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="156"/>
       <c r="C123" s="112"/>
       <c r="D123" s="112"/>
@@ -7086,7 +6973,7 @@
       <c r="M123" s="147"/>
       <c r="N123" s="157"/>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="156"/>
       <c r="C124" s="112"/>
       <c r="D124" s="112"/>
@@ -7101,7 +6988,7 @@
       <c r="M124" s="147"/>
       <c r="N124" s="157"/>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="156"/>
       <c r="C125" s="112"/>
       <c r="D125" s="112"/>
@@ -7116,7 +7003,7 @@
       <c r="M125" s="147"/>
       <c r="N125" s="157"/>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="156"/>
       <c r="C126" s="112"/>
       <c r="D126" s="112"/>
@@ -7131,7 +7018,7 @@
       <c r="M126" s="147"/>
       <c r="N126" s="157"/>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="156"/>
       <c r="C127" s="112"/>
       <c r="D127" s="112"/>
@@ -7146,7 +7033,7 @@
       <c r="M127" s="147"/>
       <c r="N127" s="157"/>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="156"/>
       <c r="C128" s="112"/>
       <c r="D128" s="112"/>
@@ -7161,7 +7048,7 @@
       <c r="M128" s="147"/>
       <c r="N128" s="157"/>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="156"/>
       <c r="C129" s="112"/>
       <c r="D129" s="112"/>
@@ -7176,7 +7063,7 @@
       <c r="M129" s="147"/>
       <c r="N129" s="157"/>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="156"/>
       <c r="F130" s="112"/>
       <c r="G130" s="112"/>
@@ -7188,7 +7075,7 @@
       <c r="M130" s="147"/>
       <c r="N130" s="157"/>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="156"/>
       <c r="F131" s="112"/>
       <c r="G131" s="112"/>
@@ -7200,7 +7087,7 @@
       <c r="M131" s="147"/>
       <c r="N131" s="157"/>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="156"/>
       <c r="F132" s="112"/>
       <c r="G132" s="112"/>
@@ -7212,7 +7099,7 @@
       <c r="M132" s="147"/>
       <c r="N132" s="157"/>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="156"/>
       <c r="F133" s="112"/>
       <c r="G133" s="112"/>
@@ -7224,7 +7111,7 @@
       <c r="M133" s="147"/>
       <c r="N133" s="157"/>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="156"/>
       <c r="F134" s="147"/>
       <c r="G134" s="112"/>
@@ -7236,7 +7123,7 @@
       <c r="M134" s="147"/>
       <c r="N134" s="157"/>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="156"/>
       <c r="F135" s="147"/>
       <c r="G135" s="112"/>
@@ -7248,7 +7135,7 @@
       <c r="M135" s="147"/>
       <c r="N135" s="157"/>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="156"/>
       <c r="F136" s="147"/>
       <c r="G136" s="112"/>
@@ -7260,7 +7147,7 @@
       <c r="M136" s="147"/>
       <c r="N136" s="157"/>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="156"/>
       <c r="F137" s="112"/>
       <c r="G137" s="112"/>
@@ -7272,7 +7159,7 @@
       <c r="M137" s="147"/>
       <c r="N137" s="157"/>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="156"/>
       <c r="F138" s="112"/>
       <c r="G138" s="112"/>
@@ -7284,7 +7171,7 @@
       <c r="M138" s="147"/>
       <c r="N138" s="157"/>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="156"/>
       <c r="F139" s="112"/>
       <c r="G139" s="112"/>
@@ -7296,7 +7183,7 @@
       <c r="M139" s="147"/>
       <c r="N139" s="157"/>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="156"/>
       <c r="F140" s="112"/>
       <c r="G140" s="112"/>
@@ -7308,7 +7195,7 @@
       <c r="M140" s="147"/>
       <c r="N140" s="157"/>
     </row>
-    <row r="141" spans="2:14">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="156"/>
       <c r="F141" s="112"/>
       <c r="G141" s="112"/>
@@ -7320,7 +7207,7 @@
       <c r="M141" s="147"/>
       <c r="N141" s="157"/>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="156"/>
       <c r="F142" s="112"/>
       <c r="G142" s="112"/>
@@ -7332,7 +7219,7 @@
       <c r="M142" s="147"/>
       <c r="N142" s="157"/>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="156"/>
       <c r="F143" s="112"/>
       <c r="G143" s="112"/>
@@ -7344,7 +7231,7 @@
       <c r="M143" s="147"/>
       <c r="N143" s="157"/>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="156"/>
       <c r="F144" s="112"/>
       <c r="G144" s="112"/>
@@ -7356,7 +7243,7 @@
       <c r="M144" s="147"/>
       <c r="N144" s="157"/>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G145" s="147"/>
       <c r="H145" s="147"/>
       <c r="I145" s="147"/>
@@ -7366,7 +7253,7 @@
       <c r="M145" s="147"/>
       <c r="N145" s="157"/>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G146" s="147"/>
       <c r="H146" s="147"/>
       <c r="I146" s="147"/>
@@ -7376,7 +7263,7 @@
       <c r="M146" s="147"/>
       <c r="N146" s="157"/>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G147" s="147"/>
       <c r="H147" s="147"/>
       <c r="I147" s="147"/>
@@ -7386,7 +7273,7 @@
       <c r="M147" s="147"/>
       <c r="N147" s="157"/>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G148" s="147"/>
       <c r="H148" s="147"/>
       <c r="I148" s="147"/>
@@ -7396,7 +7283,7 @@
       <c r="M148" s="147"/>
       <c r="N148" s="157"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G149" s="147"/>
       <c r="H149" s="147"/>
       <c r="I149" s="147"/>
@@ -7406,7 +7293,7 @@
       <c r="M149" s="147"/>
       <c r="N149" s="157"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G150" s="147"/>
       <c r="H150" s="147"/>
       <c r="I150" s="147"/>
@@ -7416,7 +7303,7 @@
       <c r="M150" s="147"/>
       <c r="N150" s="157"/>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="156"/>
       <c r="C151" s="147"/>
       <c r="D151" s="147"/>
@@ -7431,7 +7318,7 @@
       <c r="M151" s="147"/>
       <c r="N151" s="157"/>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="156"/>
       <c r="G152" s="147"/>
       <c r="H152" s="147"/>
@@ -7442,7 +7329,7 @@
       <c r="M152" s="147"/>
       <c r="N152" s="157"/>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="156"/>
       <c r="G153" s="147"/>
       <c r="H153" s="147"/>
@@ -7453,19 +7340,19 @@
       <c r="M153" s="147"/>
       <c r="N153" s="157"/>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="156"/>
       <c r="N154" s="157"/>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="156"/>
       <c r="N155" s="157"/>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="156"/>
       <c r="N156" s="157"/>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="156"/>
       <c r="C157" s="147"/>
       <c r="D157" s="147"/>
@@ -7480,7 +7367,7 @@
       <c r="M157" s="147"/>
       <c r="N157" s="157"/>
     </row>
-    <row r="158" spans="2:14">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="156"/>
       <c r="C158" s="147"/>
       <c r="D158" s="147"/>
@@ -7495,39 +7382,39 @@
       <c r="M158" s="147"/>
       <c r="N158" s="157"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="156"/>
       <c r="N159" s="157"/>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="156"/>
       <c r="N160" s="157"/>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="156"/>
       <c r="N161" s="157"/>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="156"/>
       <c r="N162" s="157"/>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="156"/>
       <c r="N163" s="157"/>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="156"/>
       <c r="N164" s="157"/>
     </row>
-    <row r="165" spans="2:14">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="156"/>
       <c r="N165" s="157"/>
     </row>
-    <row r="166" spans="2:14">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="156"/>
       <c r="N166" s="157"/>
     </row>
-    <row r="167" spans="2:14">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="156"/>
       <c r="N167" s="157"/>
     </row>
@@ -7535,10 +7422,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29152926-E618-6F4A-93E3-89F902688EEE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27180" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="189">
   <si>
     <t>Source</t>
   </si>
@@ -412,34 +413,7 @@
     <t>energy_power_solar_PV_solar_radiation.central_producer.ad</t>
   </si>
   <si>
-    <t>http://bv.com/docs/reports-studies/nrel-cost-report.pdf</t>
-  </si>
-  <si>
     <t>NREL</t>
-  </si>
-  <si>
-    <r>
-      <t>Installation costs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> per kwp</t>
-    </r>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>US</t>
   </si>
   <si>
     <t>Author</t>
@@ -562,9 +536,6 @@
     <t>Subject year</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
     <t>p.39</t>
   </si>
   <si>
@@ -577,51 +548,9 @@
     <t>ETM Library URL</t>
   </si>
   <si>
-    <t>http://refman.et-model.com/publications/1921</t>
-  </si>
-  <si>
     <t>Fraunhofer</t>
   </si>
   <si>
-    <t>p. 40</t>
-  </si>
-  <si>
-    <t>euro/kWp</t>
-  </si>
-  <si>
-    <t>inverter</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>installation</t>
-  </si>
-  <si>
-    <t>bos - installation</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>p.67</t>
-  </si>
-  <si>
-    <t>euro/flh/y</t>
-  </si>
-  <si>
-    <t>kWp/m2</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>Assumption: all o&amp;m fixed</t>
-  </si>
-  <si>
-    <t>variable o&amp;m/flh</t>
-  </si>
-  <si>
     <t>Inverter initial investment</t>
   </si>
   <si>
@@ -629,21 +558,6 @@
   </si>
   <si>
     <t>BOS initial investment</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">       Electricity output capacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> per km2</t>
-    </r>
   </si>
   <si>
     <t>NA</t>
@@ -722,9 +636,6 @@
     <t xml:space="preserve">The electricity output capacity is given in Megawatt peaks. This value is multiplied in ETE </t>
   </si>
   <si>
-    <t>with country specific full_load_hours which (here) have units of MWh/MWp.</t>
-  </si>
-  <si>
     <t>Its value follows from the land use of the plant and the electricity output capacity per km2</t>
   </si>
   <si>
@@ -743,18 +654,6 @@
     </r>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>the efficiency for standard testing</t>
-  </si>
-  <si>
-    <t>conditions (STC)</t>
-  </si>
-  <si>
-    <t>land_user_per_unit</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -779,68 +678,181 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>power output capacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> equals</t>
-    </r>
-  </si>
-  <si>
-    <t>It is later multiplied with (corrected)</t>
-  </si>
-  <si>
-    <t>FLHs to obtain the actual output</t>
-  </si>
-  <si>
-    <t>(irradiation, country specific)</t>
-  </si>
-  <si>
-    <t>o&amp;m costs should be given in kWp</t>
-  </si>
-  <si>
-    <t>Assumption: o&amp;m 1.5% of investement</t>
-  </si>
-  <si>
-    <t>euro/kWp/yr</t>
-  </si>
-  <si>
-    <t>fixed o&amp;m</t>
-  </si>
-  <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>22/02/2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications/2080</t>
+  </si>
+  <si>
+    <t>Frauhofer 2018</t>
+  </si>
+  <si>
+    <t>Land Usage</t>
+  </si>
+  <si>
+    <t>Fraunhofer Recent Facts about Photovoltaics in Germany 2017</t>
+  </si>
+  <si>
+    <t>pg. 41</t>
+  </si>
+  <si>
+    <t>total capacity</t>
+  </si>
+  <si>
+    <t>horizontal spaced area</t>
+  </si>
+  <si>
+    <t>m2/kW</t>
+  </si>
+  <si>
+    <t>PS. There is a mistake here that it should be 600 km2 instead of 600 m2</t>
+  </si>
+  <si>
+    <t>area per kW</t>
+  </si>
+  <si>
+    <t>land_use_per_unit (including spacing)</t>
+  </si>
+  <si>
+    <t>area for 20 MW plant</t>
+  </si>
+  <si>
+    <t>Fraunhofer Photovoltaics Report 2017</t>
+  </si>
+  <si>
+    <t>https://www.ise.fraunhofer.de/content/dam/ise/de/documents/publications/studies/Photovoltaics-Report.pdf</t>
+  </si>
+  <si>
+    <t>Frauenhofer 2017</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Sunpower.com</t>
+  </si>
+  <si>
+    <t>construction time</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>Sunpower</t>
+  </si>
+  <si>
+    <t>PS. WACC is very variable based on the used financing method</t>
+  </si>
+  <si>
+    <t>Economic Analysis</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Initial Investment</t>
+  </si>
+  <si>
+    <t>xe.com</t>
+  </si>
+  <si>
+    <t>Cost of installing</t>
+  </si>
+  <si>
+    <t>euro per kWp</t>
+  </si>
+  <si>
+    <t>ECN 2017</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>p26-27</t>
+  </si>
+  <si>
+    <t>fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>includes land costs</t>
+  </si>
+  <si>
+    <t>euro per kWp per year</t>
+  </si>
+  <si>
+    <t>Total investment costs</t>
+  </si>
+  <si>
+    <t>Break down costs:</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Replacement inverter after 12 years</t>
+  </si>
+  <si>
+    <t>total fixed O&amp;M per kWp</t>
+  </si>
+  <si>
+    <t>euro per KWp</t>
+  </si>
+  <si>
+    <t>BoS (excluding installation)</t>
+  </si>
+  <si>
+    <t>ECN</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>https://www.ecn.nl/publicaties/ECN-E--17-048</t>
+  </si>
+  <si>
+    <t>Eindavies Basisbedragen SDE+ 2018</t>
+  </si>
+  <si>
+    <t>euro/KWp</t>
+  </si>
+  <si>
+    <t>Total cost of installing</t>
+  </si>
+  <si>
+    <t>Installation costs based on Fraunhofer 2015, see below</t>
+  </si>
+  <si>
+    <t>Fraunhofer 2015 p.40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1053,6 +1065,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1060,6 +1073,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1067,6 +1081,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1075,6 +1090,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1082,31 +1098,42 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1179,8 +1206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1411,8 +1444,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="308">
+  <cellStyleXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1724,8 +1768,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1865,7 +1911,6 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1875,13 +1920,7 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1903,12 +1942,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1949,16 +1982,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -1980,9 +2007,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1991,16 +2015,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2010,9 +2027,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="37" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2055,14 +2069,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2090,8 +2097,58 @@
     <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="308">
+  <cellStyles count="310">
+    <cellStyle name="Comma" xfId="308" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2400,6 +2457,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="309" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2407,66 +2465,37 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>225340</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>787399</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6410240" y="22440900"/>
-          <a:ext cx="8118559" cy="1866900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4597400" cy="850900"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2870200" y="1257300"/>
+          <a:off x="8001000" y="4102100"/>
           <a:ext cx="4597400" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2499,7 +2528,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> scale-20 MW ground-mounted crystalline PV system. This technology was chosen because is commercially available on a large scale, the most common, and featured in a recent extensive and quantitative research by the Fraunhofer Institute (Feb. 2015).</a:t>
+            <a:t> scale-20 MW ground-mounted crystalline PV system. This technology was chosen because is commercially available on a large scale, the most common, and featured in a recent extensive and quantitative research by the Fraunhofer Institute (2017).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -2509,34 +2538,184 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD75131-C243-574B-A7B7-E797CC84F9B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6464300" y="3632200"/>
-          <a:ext cx="8902700" cy="11518900"/>
+          <a:off x="3314700" y="1447800"/>
+          <a:ext cx="7937500" cy="2159000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1675531</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>172071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6531405" cy="4916698"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26A38F9-2A87-A74A-8B38-1D827462F820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4644" t="15362" r="5319"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10768731" y="8312771"/>
+          <a:ext cx="6531405" cy="4916698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>545745</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>130964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD00FF1-B0B4-C74A-8E42-0FFAB2DC7881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="11379200"/>
+          <a:ext cx="6349645" cy="2175664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>695818</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>30363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4022AE49-8CF7-6143-A687-3A5079B8189E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="14033500"/>
+          <a:ext cx="6385418" cy="6126363"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,33 +2727,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>187536</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD761C67-E43C-C247-92AA-7C2CE07AF20C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="15341600"/>
-          <a:ext cx="8801100" cy="4584700"/>
+          <a:off x="7718636" y="23837900"/>
+          <a:ext cx="8359563" cy="2489200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162136</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>568536</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB7F8B1-3571-8A4D-A685-19096997D907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7693236" y="22402800"/>
+          <a:ext cx="9347200" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365336</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365336</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF02E93-A8BF-A74E-A917-6F5A78D95417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896436" y="26733500"/>
+          <a:ext cx="6502400" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F831034-AA27-1E48-B958-F791AF7BD58C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7861300" y="28117800"/>
+          <a:ext cx="6850380" cy="12280900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3020,40 +3337,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="68" customWidth="1"/>
     <col min="2" max="2" width="12" style="32" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="32"/>
+    <col min="3" max="3" width="38.5" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="66" customFormat="1">
       <c r="A1" s="64"/>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="67" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="67"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
@@ -3062,16 +3379,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -3080,119 +3397,119 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7"/>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="105"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="110"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="111" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C16" s="110" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="23" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="111" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="114" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="113" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="111" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="115" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="116" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="117" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="117" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="118" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="118" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="121" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="122" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="123" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3202,32 +3519,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="4"/>
+    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -3237,49 +3554,49 @@
       <c r="H1" s="16"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="199" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="201"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="182" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="202"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="204"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="205"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="207"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="188"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="190"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17" thickBot="1">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -3289,7 +3606,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="B7" s="29"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -3300,12 +3617,12 @@
       <c r="I7" s="28"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="80"/>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="18">
+      <c r="B8" s="79"/>
       <c r="C8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="135" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -3319,9 +3636,9 @@
       <c r="I8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="138"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J8" s="131"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="18">
       <c r="B9" s="40"/>
       <c r="C9" s="23"/>
       <c r="D9" s="70"/>
@@ -3332,10 +3649,10 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="40"/>
       <c r="C10" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D10" s="70"/>
       <c r="E10" s="23"/>
@@ -3345,7 +3662,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B11" s="40"/>
       <c r="C11" s="74" t="s">
         <v>35</v>
@@ -3355,17 +3672,17 @@
       </c>
       <c r="E11" s="36">
         <f>'Research data'!H6</f>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F11" s="30"/>
-      <c r="G11" s="82"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="173" t="s">
-        <v>138</v>
+      <c r="I11" s="161" t="s">
+        <v>117</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="B12" s="34"/>
       <c r="C12" s="74" t="s">
         <v>37</v>
@@ -3382,10 +3699,10 @@
       <c r="I12" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="139"/>
+      <c r="J12" s="132"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="B13" s="34"/>
       <c r="C13" s="73" t="s">
         <v>39</v>
@@ -3402,10 +3719,10 @@
       <c r="I13" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="139"/>
+      <c r="J13" s="132"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="34"/>
       <c r="C14" s="75" t="s">
@@ -3423,10 +3740,10 @@
       <c r="I14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="140"/>
+      <c r="J14" s="133"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="34"/>
       <c r="C15" s="75" t="s">
@@ -3444,17 +3761,17 @@
       <c r="I15" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="140"/>
+      <c r="J15" s="133"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="34"/>
       <c r="C16" s="75" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E16" s="78">
         <f>'Research data'!H7</f>
@@ -3465,36 +3782,36 @@
         <v>29</v>
       </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" s="139"/>
+      <c r="I16" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="132"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="A17" s="4"/>
       <c r="B17" s="34"/>
       <c r="C17" s="75" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E17" s="78">
         <v>0</v>
       </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="80" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="173" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="139"/>
+      <c r="I17" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="132"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="17" thickBot="1">
       <c r="B18" s="34"/>
       <c r="C18" s="75" t="s">
         <v>46</v>
@@ -3506,16 +3823,16 @@
         <v>-1</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="83" t="s">
         <v>72</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="139"/>
-    </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="132"/>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="B19" s="34"/>
       <c r="C19" s="75" t="s">
         <v>62</v>
@@ -3527,16 +3844,16 @@
         <v>-1</v>
       </c>
       <c r="F19" s="30"/>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="84" t="s">
         <v>73</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="139"/>
-    </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="132"/>
+    </row>
+    <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="34"/>
       <c r="C20" s="75" t="s">
         <v>47</v>
@@ -3549,16 +3866,16 @@
         <v>-0.2</v>
       </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="84" t="s">
         <v>74</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="139"/>
-    </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="132"/>
+    </row>
+    <row r="21" spans="1:11" ht="17" thickBot="1">
       <c r="B21" s="34"/>
       <c r="C21" s="75" t="s">
         <v>48</v>
@@ -3570,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="84" t="s">
         <v>75</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="139"/>
-    </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="132"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="34"/>
       <c r="C22" s="75" t="s">
         <v>49</v>
@@ -3591,40 +3908,40 @@
         <v>0</v>
       </c>
       <c r="F22" s="30"/>
-      <c r="G22" s="83" t="s">
+      <c r="G22" s="82" t="s">
         <v>76</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="139"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J22" s="132"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="B23" s="34"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="145"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="138"/>
       <c r="E23" s="61"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="146"/>
+      <c r="G23" s="139"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="139"/>
-    </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="132"/>
+    </row>
+    <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="34"/>
       <c r="C24" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="145"/>
+        <v>105</v>
+      </c>
+      <c r="D24" s="138"/>
       <c r="E24" s="61"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="146"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="139"/>
-    </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="132"/>
+    </row>
+    <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="B25" s="34"/>
       <c r="C25" s="75" t="s">
         <v>50</v>
@@ -3633,20 +3950,20 @@
         <v>36</v>
       </c>
       <c r="E25" s="36">
-        <f>'Research data'!H16</f>
-        <v>19000000</v>
+        <f>'Research data'!H15</f>
+        <v>16420000</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="30"/>
-      <c r="I25" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="141"/>
-    </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="134"/>
+    </row>
+    <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="B26" s="34"/>
       <c r="C26" s="75" t="s">
         <v>51</v>
@@ -3658,16 +3975,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="30"/>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="80" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="30"/>
-      <c r="I26" s="173" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="141"/>
-    </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="134"/>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1">
       <c r="B27" s="34"/>
       <c r="C27" s="75" t="s">
         <v>13</v>
@@ -3676,7 +3993,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="78">
-        <f>'Research data'!H22</f>
+        <f>'Research data'!H20</f>
         <v>1000000</v>
       </c>
       <c r="F27" s="30"/>
@@ -3684,12 +4001,12 @@
         <v>26</v>
       </c>
       <c r="H27" s="30"/>
-      <c r="I27" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="J27" s="139"/>
-    </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="132"/>
+    </row>
+    <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="B28" s="34"/>
       <c r="C28" s="75" t="s">
         <v>52</v>
@@ -3701,16 +4018,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="30"/>
-      <c r="G28" s="178" t="s">
-        <v>149</v>
+      <c r="G28" s="166" t="s">
+        <v>128</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="139"/>
-    </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="132"/>
+    </row>
+    <row r="29" spans="1:11" ht="17" thickBot="1">
       <c r="B29" s="34"/>
       <c r="C29" s="75" t="s">
         <v>53</v>
@@ -3718,21 +4035,21 @@
       <c r="D29" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="143">
-        <f>'Research data'!H23</f>
-        <v>285000</v>
+      <c r="E29" s="136">
+        <f>'Research data'!H22</f>
+        <v>318000</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="76" t="s">
         <v>66</v>
       </c>
       <c r="H29" s="30"/>
-      <c r="I29" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="139"/>
-    </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="132"/>
+    </row>
+    <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="B30" s="34"/>
       <c r="C30" s="75" t="s">
         <v>54</v>
@@ -3740,21 +4057,21 @@
       <c r="D30" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="143">
-        <f>'Research data'!H25</f>
+      <c r="E30" s="136">
+        <f>'Research data'!H24</f>
         <v>0</v>
       </c>
       <c r="F30" s="30"/>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="80" t="s">
         <v>67</v>
       </c>
       <c r="H30" s="30"/>
-      <c r="I30" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" s="139"/>
-    </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="132"/>
+    </row>
+    <row r="31" spans="1:11" ht="17" thickBot="1">
       <c r="B31" s="34"/>
       <c r="C31" s="75" t="s">
         <v>55</v>
@@ -3762,20 +4079,20 @@
       <c r="D31" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="143">
+      <c r="E31" s="136">
         <v>0</v>
       </c>
       <c r="F31" s="30"/>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="80" t="s">
         <v>71</v>
       </c>
       <c r="H31" s="30"/>
-      <c r="I31" s="174" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="139"/>
-    </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="132"/>
+    </row>
+    <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="B32" s="34"/>
       <c r="C32" s="75" t="s">
         <v>58</v>
@@ -3783,8 +4100,8 @@
       <c r="D32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="108">
-        <f>'Research data'!H26</f>
+      <c r="E32" s="103">
+        <f>'Research data'!H25</f>
         <v>0.05</v>
       </c>
       <c r="F32" s="30"/>
@@ -3792,12 +4109,12 @@
         <v>25</v>
       </c>
       <c r="H32" s="30"/>
-      <c r="I32" s="175" t="s">
-        <v>138</v>
-      </c>
-      <c r="J32" s="139"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="132"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="34"/>
       <c r="C33" s="75" t="s">
         <v>41</v>
@@ -3814,33 +4131,33 @@
       <c r="I33" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="139"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="132"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="34"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="145"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="138"/>
       <c r="E34" s="61"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="139"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="132"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="34"/>
       <c r="C35" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="145"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="61"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="139"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="132"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="34"/>
       <c r="C36" s="73" t="s">
         <v>40</v>
@@ -3848,21 +4165,21 @@
       <c r="D36" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="107">
-        <f>'Research data'!H13</f>
-        <v>0.13333333333333333</v>
+      <c r="E36" s="102">
+        <f>'Research data'!H12</f>
+        <v>0.3</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="30"/>
-      <c r="I36" s="173" t="s">
-        <v>148</v>
-      </c>
-      <c r="J36" s="139"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="132"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="34"/>
       <c r="C37" s="75" t="s">
         <v>56</v>
@@ -3870,21 +4187,21 @@
       <c r="D37" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="143">
-        <f>'Research data'!H11</f>
-        <v>1</v>
+      <c r="E37" s="136">
+        <f>'Research data'!H10</f>
+        <v>0.5</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="30"/>
-      <c r="I37" s="192" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" s="139"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="180" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="132"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="34"/>
       <c r="C38" s="75" t="s">
         <v>57</v>
@@ -3893,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="78">
-        <f>'Research data'!H12</f>
+        <f>'Research data'!H11</f>
         <v>25</v>
       </c>
       <c r="F38" s="30"/>
@@ -3901,12 +4218,12 @@
         <v>27</v>
       </c>
       <c r="H38" s="30"/>
-      <c r="I38" s="175" t="s">
-        <v>138</v>
-      </c>
-      <c r="J38" s="139"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="132"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="34"/>
       <c r="C39" s="73" t="s">
         <v>38</v>
@@ -3923,11 +4240,11 @@
       <c r="I39" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J39" s="139"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="132"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="34"/>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="80" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -3942,9 +4259,9 @@
       <c r="I40" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="139"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="132"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="34"/>
       <c r="C41" s="75" t="s">
         <v>14</v>
@@ -3961,9 +4278,9 @@
       <c r="I41" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J41" s="139"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="132"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="34"/>
       <c r="C42" s="74" t="s">
         <v>60</v>
@@ -3980,9 +4297,9 @@
       <c r="I42" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J42" s="139"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="132"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="34"/>
       <c r="C43" s="74" t="s">
         <v>63</v>
@@ -3999,9 +4316,9 @@
       <c r="I43" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J43" s="139"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="132"/>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1">
       <c r="B44" s="34"/>
       <c r="C44" s="75" t="s">
         <v>61</v>
@@ -4018,9 +4335,9 @@
       <c r="I44" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J44" s="139"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="132"/>
+    </row>
+    <row r="45" spans="2:10" ht="17" thickBot="1">
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -4031,7 +4348,7 @@
       <c r="I45" s="38"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -4041,7 +4358,7 @@
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
     </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" ht="20" customHeight="1">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4051,7 +4368,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -4061,7 +4378,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -4071,7 +4388,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -4081,7 +4398,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -4091,7 +4408,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -4101,7 +4418,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -4111,7 +4428,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -4121,7 +4438,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -4131,7 +4448,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -4141,7 +4458,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -4151,7 +4468,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -4171,38 +4488,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:O28"/>
+  <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="39" customWidth="1"/>
+    <col min="10" max="10" width="1.83203125" style="39" customWidth="1"/>
     <col min="11" max="11" width="13" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="39" customWidth="1"/>
     <col min="13" max="13" width="13" style="39" customWidth="1"/>
-    <col min="14" max="14" width="2.140625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="2.1640625" style="39" customWidth="1"/>
     <col min="15" max="15" width="55" style="39" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="39"/>
+    <col min="16" max="16384" width="10.6640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="29"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -4218,35 +4535,35 @@
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
     </row>
-    <row r="3" spans="2:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" s="42" customFormat="1">
       <c r="B3" s="40"/>
-      <c r="C3" s="128" t="s">
-        <v>105</v>
+      <c r="C3" s="123" t="s">
+        <v>100</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="34"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -4257,15 +4574,15 @@
       <c r="I4" s="44"/>
       <c r="J4" s="18"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="137"/>
+      <c r="L4" s="130"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="17" thickBot="1">
       <c r="B5" s="34"/>
       <c r="C5" s="72" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -4280,204 +4597,200 @@
       <c r="N5" s="32"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="17" thickBot="1">
       <c r="B6" s="34"/>
-      <c r="C6" s="168" t="s">
-        <v>153</v>
+      <c r="C6" s="157" t="s">
+        <v>131</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="158" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="72"/>
-      <c r="H6" s="191">
+      <c r="H6" s="179">
         <f>K6</f>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="171">
-        <f>Notes!E106</f>
-        <v>0.15</v>
+      <c r="K6" s="159">
+        <f>Notes!E9</f>
+        <v>0.17</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="17" thickBot="1">
       <c r="B7" s="34"/>
       <c r="C7" s="45" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="193">
-        <f>H13*H8*1000000/1000</f>
+      <c r="F7" s="158" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="124"/>
+      <c r="H7" s="208">
+        <f>K7</f>
         <v>20</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="32"/>
+      <c r="K7" s="159">
+        <f>Notes!E23</f>
+        <v>20</v>
+      </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="178" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="166" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="34"/>
-      <c r="C8" s="168" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="129"/>
-      <c r="H8" s="170">
-        <f>K8</f>
-        <v>0.15</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="171">
-        <f>Notes!E97</f>
-        <v>0.15</v>
-      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
-      <c r="O8" s="178" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="167" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="17" thickBot="1">
       <c r="B9" s="34"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="C9" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="179" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="127"/>
+    </row>
+    <row r="10" spans="2:15" ht="17" thickBot="1">
       <c r="B10" s="34"/>
-      <c r="C10" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="C10" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="196">
+        <f>M10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
+      <c r="M10" s="179">
+        <f>Notes!E72</f>
+        <v>0.5</v>
+      </c>
       <c r="N10" s="32"/>
-      <c r="O10" s="133"/>
-    </row>
-    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="86"/>
+    </row>
+    <row r="11" spans="2:15" ht="17" thickBot="1">
       <c r="B11" s="34"/>
-      <c r="C11" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="C11" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="46" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="47"/>
-      <c r="H11" s="89">
-        <f>M11</f>
-        <v>1</v>
+      <c r="H11" s="87">
+        <f>K11</f>
+        <v>25</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="78">
+        <f>Notes!E60</f>
+        <v>25</v>
+      </c>
       <c r="L11" s="32"/>
-      <c r="M11" s="191">
-        <f>Notes!E122</f>
-        <v>1</v>
-      </c>
+      <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="88"/>
-    </row>
-    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="2:15" ht="17" thickBot="1">
       <c r="B12" s="34"/>
-      <c r="C12" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="46" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="47"/>
-      <c r="H12" s="90">
+      <c r="H12" s="55">
         <f>K12</f>
-        <v>25</v>
-      </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="78">
-        <f>Notes!E86</f>
-        <v>25</v>
+        <f>Notes!E40</f>
+        <v>0.3</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="181" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="34"/>
-      <c r="C13" s="136" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="55">
-        <f>Notes!E115</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="196" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="119"/>
+    </row>
+    <row r="14" spans="2:15" ht="17" thickBot="1">
       <c r="B14" s="34"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="C14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="72"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -4486,307 +4799,287 @@
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
-      <c r="O14" s="124"/>
-    </row>
-    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="119"/>
+    </row>
+    <row r="15" spans="2:15" ht="17" thickBot="1">
       <c r="B15" s="34"/>
-      <c r="C15" s="21" t="s">
-        <v>107</v>
+      <c r="C15" s="121" t="s">
+        <v>98</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+      <c r="F15" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="125"/>
+      <c r="H15" s="168">
+        <f>H16*H7*1000</f>
+        <v>16420000</v>
+      </c>
+      <c r="I15" s="169"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="170">
+        <f>K16*H7*1000</f>
+        <v>16420000</v>
+      </c>
+      <c r="L15" s="61"/>
       <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="124"/>
-    </row>
-    <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="50"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="2:15" ht="17" thickBot="1">
       <c r="B16" s="34"/>
-      <c r="C16" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="180">
-        <f>H17*H7*1000</f>
-        <v>19000000</v>
-      </c>
-      <c r="I16" s="181"/>
+      <c r="C16" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="124"/>
+      <c r="H16" s="55">
+        <f>K16</f>
+        <v>821</v>
+      </c>
+      <c r="I16" s="50"/>
       <c r="J16" s="50"/>
-      <c r="K16" s="182">
-        <f>K17*H7*1000</f>
-        <v>19000000</v>
-      </c>
-      <c r="L16" s="61"/>
+      <c r="K16" s="53">
+        <f>SUM(K17,K18,K19)</f>
+        <v>821</v>
+      </c>
+      <c r="L16" s="50"/>
       <c r="M16" s="32"/>
       <c r="N16" s="50"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="142"/>
+    </row>
+    <row r="17" spans="2:15" ht="17" thickBot="1">
       <c r="B17" s="34"/>
-      <c r="C17" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="55">
-        <f>K17</f>
-        <v>950</v>
-      </c>
+      <c r="C17" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="124"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
       <c r="K17" s="53">
-        <f>SUM(K18,K19,K20)</f>
-        <v>950</v>
+        <f>Notes!F117</f>
+        <v>440</v>
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="32"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="149"/>
-    </row>
-    <row r="18" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="32"/>
+      <c r="O17" s="142"/>
+    </row>
+    <row r="18" spans="2:15" ht="17" thickBot="1">
       <c r="B18" s="34"/>
-      <c r="C18" s="167" t="s">
-        <v>134</v>
+      <c r="C18" s="156" t="s">
+        <v>113</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
-      <c r="F18" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="129"/>
+      <c r="F18" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="124"/>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
       <c r="K18" s="53">
-        <f>Notes!E38</f>
-        <v>550</v>
+        <f>Notes!F118</f>
+        <v>84</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
-      <c r="O18" s="149"/>
-    </row>
-    <row r="19" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="142"/>
+    </row>
+    <row r="19" spans="2:15" ht="17" thickBot="1">
       <c r="B19" s="34"/>
-      <c r="C19" s="167" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="129"/>
+      <c r="C19" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="124"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
       <c r="K19" s="53">
-        <f>Notes!E31</f>
-        <v>110</v>
+        <f>Notes!F119</f>
+        <v>297</v>
       </c>
       <c r="L19" s="50"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="149"/>
-    </row>
-    <row r="20" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="142"/>
+    </row>
+    <row r="20" spans="2:15" ht="17" thickBot="1">
       <c r="B20" s="34"/>
-      <c r="C20" s="167" t="s">
-        <v>135</v>
+      <c r="C20" s="217" t="s">
+        <v>186</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
-      <c r="F20" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="129"/>
-      <c r="H20" s="50"/>
+      <c r="F20" s="219" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="124"/>
+      <c r="H20" s="55">
+        <f>K20</f>
+        <v>1000000</v>
+      </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
       <c r="K20" s="53">
-        <f>Notes!E68</f>
-        <v>290</v>
+        <f>K21*H7*1000</f>
+        <v>1000000</v>
       </c>
       <c r="L20" s="50"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-      <c r="O20" s="149"/>
-    </row>
-    <row r="21" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="142"/>
+    </row>
+    <row r="21" spans="2:15" ht="17" thickBot="1">
       <c r="B21" s="34"/>
-      <c r="C21" s="134" t="s">
-        <v>81</v>
+      <c r="C21" s="217" t="s">
+        <v>165</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="53">
-        <f>K21</f>
-        <v>50</v>
-      </c>
+      <c r="F21" s="219" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="124"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
       <c r="K21" s="53">
-        <f>Notes!E67</f>
+        <f>Notes!F120</f>
         <v>50</v>
       </c>
       <c r="L21" s="50"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="92"/>
-    </row>
-    <row r="22" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="142"/>
+    </row>
+    <row r="22" spans="2:15" ht="17" thickBot="1">
       <c r="B22" s="34"/>
-      <c r="C22" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="131"/>
-      <c r="H22" s="55">
-        <f>H21*H7*1000</f>
-        <v>1000000</v>
-      </c>
-      <c r="I22" s="50"/>
+      <c r="C22" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="124"/>
+      <c r="H22" s="171">
+        <f>K22</f>
+        <v>318000</v>
+      </c>
+      <c r="I22" s="172"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
+      <c r="K22" s="171">
+        <f>K23*H7*1000</f>
+        <v>318000</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="143"/>
+    </row>
+    <row r="23" spans="2:15" ht="17" thickBot="1">
       <c r="B23" s="34"/>
-      <c r="C23" s="135" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="183">
+      <c r="C23" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="124"/>
+      <c r="H23" s="52">
         <f>K23</f>
-        <v>285000</v>
-      </c>
-      <c r="I23" s="184"/>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="I23" s="50"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="183">
-        <f>K24*H7*1000</f>
-        <v>285000</v>
-      </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="151"/>
-    </row>
-    <row r="24" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="52">
+        <f>Notes!E128</f>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="144"/>
+    </row>
+    <row r="24" spans="2:15" ht="17" thickBot="1">
       <c r="B24" s="34"/>
-      <c r="C24" s="135" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="52">
+      <c r="C24" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="126"/>
+      <c r="H24" s="53">
         <f>K24</f>
-        <v>14.25</v>
+        <v>0</v>
       </c>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="52">
-        <f>Notes!E91</f>
-        <v>14.25</v>
-      </c>
-      <c r="L24" s="60"/>
+      <c r="K24" s="53">
+        <v>0</v>
+      </c>
+      <c r="L24" s="50"/>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
-      <c r="O24" s="152"/>
-    </row>
-    <row r="25" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="142"/>
+    </row>
+    <row r="25" spans="2:15" ht="17" thickBot="1">
       <c r="B25" s="34"/>
-      <c r="C25" s="77" t="s">
-        <v>67</v>
+      <c r="C25" s="160" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
-      <c r="F25" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="132"/>
+      <c r="F25" s="158" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="126"/>
       <c r="H25" s="53">
         <f>K25</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
       <c r="K25" s="53">
-        <f>Notes!E95</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L25" s="50"/>
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
-      <c r="O25" s="149"/>
-    </row>
-    <row r="26" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="142"/>
+    </row>
+    <row r="26" spans="2:15">
       <c r="B26" s="34"/>
-      <c r="C26" s="172" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="169" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="53">
-        <f>K26</f>
-        <v>0.05</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="53">
-        <f>Notes!E87</f>
-        <v>0.05</v>
-      </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="149"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C26" s="160"/>
+      <c r="O26" s="89"/>
+    </row>
+    <row r="27" spans="2:15">
       <c r="B27" s="34"/>
-      <c r="C27" s="172"/>
-      <c r="O27" s="92"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4795,44 +5088,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K33"/>
+  <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="93" customWidth="1"/>
-    <col min="2" max="2" width="3" style="93" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="93" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="93" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="93" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="93" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="94" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" style="94" customWidth="1"/>
-    <col min="10" max="10" width="76.42578125" style="93" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="93"/>
+    <col min="1" max="1" width="3.5" style="90" customWidth="1"/>
+    <col min="2" max="2" width="3" style="90" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="90" customWidth="1"/>
+    <col min="5" max="5" width="14" style="90" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="90" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="91" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="91" customWidth="1"/>
+    <col min="10" max="10" width="76.5" style="90" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="96"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="98"/>
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="95"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
@@ -4842,21 +5135,21 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="99"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="98"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="99"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="101"/>
+      <c r="J3" s="96"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="96"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="98"/>
       <c r="C5" s="24" t="s">
         <v>31</v>
       </c>
@@ -4873,17 +5166,17 @@
         <v>33</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="98"/>
+    <row r="6" spans="2:11">
+      <c r="B6" s="95"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4893,257 +5186,336 @@
       <c r="I6" s="26"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="98"/>
-      <c r="C7" s="102" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="95"/>
+      <c r="C7" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="177" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="177" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="177" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="163" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="161" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="103" t="s">
+      <c r="D7" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="154" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="152" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="95"/>
+      <c r="C8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="99"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="98"/>
-      <c r="C9" s="103" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="96"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="95"/>
+      <c r="C9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="99"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="98"/>
-      <c r="C10" s="103" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="96"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="95"/>
+      <c r="C10" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="99"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="98"/>
-      <c r="C11" s="176" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="96"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="95"/>
+      <c r="C11" s="164" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="96"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="95"/>
+      <c r="C12" s="164" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="95"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="95"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="173"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="95"/>
+      <c r="K15" s="173"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="95"/>
+      <c r="C16" s="192" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="192" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="209">
+        <v>43076</v>
+      </c>
+      <c r="F16" s="210">
+        <v>42744</v>
+      </c>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="192" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="99"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="95"/>
+      <c r="C17" s="191" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="192" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="192">
+        <v>2018</v>
+      </c>
+      <c r="F17" s="193" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="193" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="194" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="99"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="98"/>
-      <c r="C12" s="176" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="98"/>
-      <c r="C13" s="166" t="s">
+      <c r="I17" s="97"/>
+      <c r="J17" s="101"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="95"/>
+      <c r="C18" s="155" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="185"/>
-    </row>
-    <row r="15" spans="2:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="98"/>
-      <c r="C15" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="150" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="164" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="162" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="185"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="98"/>
-      <c r="K16" s="185"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="98"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="102"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="98"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="106"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="98"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="98"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="98"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="98"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="98"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="98"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="98"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="98"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="98"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="98"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="98"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="98"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="98"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="98"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="98"/>
+    <row r="19" spans="2:10">
+      <c r="B19" s="95"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="95"/>
+      <c r="C20" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="215">
+        <v>2017</v>
+      </c>
+      <c r="G20" s="210"/>
+      <c r="H20" s="192">
+        <v>2019</v>
+      </c>
+      <c r="I20" s="192" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="192"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="95"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="192"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="95"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="95"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="192"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="95"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="192"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="95"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="192"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="95"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="192"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="95"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="192"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="95"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="95"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="95"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="95"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="95"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{D535C137-5B89-404E-9C2C-5EF152F0A141}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="148" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="148" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="148" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="148" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="148"/>
+    <col min="1" max="1" width="4.5" style="141" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="141" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="141" customWidth="1"/>
+    <col min="4" max="4" width="34" style="141" customWidth="1"/>
+    <col min="5" max="5" width="23" style="141" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-    </row>
-    <row r="3" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="80"/>
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="147"/>
+    </row>
+    <row r="3" spans="2:14" s="42" customFormat="1">
+      <c r="B3" s="79"/>
       <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -5154,2269 +5526,2019 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
-      <c r="N3" s="160"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="156"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="157"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="156"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="157"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="156"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="157"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="156"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="157"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="156"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="157"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="156"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="157"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="156"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="157"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="156"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="157"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="156"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="157"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="156"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="157"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="156"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="157"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="156"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="157"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="156"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="157"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="156"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="157"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="156"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="157"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="156"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="157"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="156"/>
-      <c r="C20" s="165" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="157"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="156"/>
-      <c r="C21" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="157"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="156"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="157"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="156"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="157"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="156"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="157"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="156"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="157"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="156"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="157"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="156"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147">
-        <v>340</v>
-      </c>
-      <c r="F27" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="165" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="157"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="156"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="157"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="156"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="157"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="156"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="157"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="156"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147">
-        <v>110</v>
-      </c>
-      <c r="F31" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="165" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="157"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="156"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="157"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="156"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="157"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="156"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="157"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="156"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="157"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="156"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="157"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="156"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="147"/>
-      <c r="N37" s="157"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="156"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147">
-        <v>550</v>
-      </c>
-      <c r="F38" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="157"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="156"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="157"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="156"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="157"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="156"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="147"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="157"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="156"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="157"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="156"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="157"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="156"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="147"/>
-      <c r="N44" s="157"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="156"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147"/>
-      <c r="N45" s="157"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="156"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="157"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="156"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="157"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="156"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
-      <c r="J48" s="147"/>
-      <c r="K48" s="147"/>
-      <c r="L48" s="147"/>
-      <c r="M48" s="147"/>
-      <c r="N48" s="157"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="156"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="147"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147"/>
-      <c r="N49" s="157"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="156"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147"/>
-      <c r="N50" s="157"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="156"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="147"/>
-      <c r="L51" s="147"/>
-      <c r="M51" s="147"/>
-      <c r="N51" s="157"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="156"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="147"/>
-      <c r="M52" s="147"/>
-      <c r="N52" s="157"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="156"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="147"/>
-      <c r="K53" s="147"/>
-      <c r="L53" s="147"/>
-      <c r="M53" s="147"/>
-      <c r="N53" s="157"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="156"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="147"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147"/>
-      <c r="M54" s="147"/>
-      <c r="N54" s="157"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="156"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="147"/>
-      <c r="K55" s="147"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="147"/>
-      <c r="N55" s="157"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="156"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="147"/>
-      <c r="G56" s="147"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147"/>
-      <c r="N56" s="157"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="156"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="147"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="147"/>
-      <c r="M57" s="147"/>
-      <c r="N57" s="157"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="156"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
-      <c r="N58" s="157"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="156"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="147"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="147"/>
-      <c r="N59" s="157"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="156"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="147"/>
-      <c r="K60" s="147"/>
-      <c r="L60" s="147"/>
-      <c r="M60" s="147"/>
-      <c r="N60" s="157"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="156"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
-      <c r="J61" s="147"/>
-      <c r="K61" s="147"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="147"/>
-      <c r="N61" s="157"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="156"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="147"/>
-      <c r="I62" s="147"/>
-      <c r="J62" s="147"/>
-      <c r="K62" s="147"/>
-      <c r="L62" s="147"/>
-      <c r="M62" s="147"/>
-      <c r="N62" s="157"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="156"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="147"/>
-      <c r="M63" s="147"/>
-      <c r="N63" s="157"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="156"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="157"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="156"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="147"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="147"/>
-      <c r="M65" s="147"/>
-      <c r="N65" s="157"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="156"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="147"/>
-      <c r="G66" s="147"/>
-      <c r="H66" s="147"/>
-      <c r="I66" s="147"/>
-      <c r="J66" s="147"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="147"/>
-      <c r="M66" s="147"/>
-      <c r="N66" s="157"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B67" s="156"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="147">
+      <c r="N3" s="151"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="148"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="149"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="148"/>
+      <c r="C5" s="195" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="149"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="148"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="149"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="148"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="149"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="148"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="149"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="148"/>
+      <c r="C9" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140">
+        <v>0.17</v>
+      </c>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="149"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="148"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="149"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="148"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="149"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="148"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="149"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="148"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="149"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="148"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="149"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="148"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="149"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="148"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="149"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="148"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="149"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="148"/>
+      <c r="C18" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="149"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="148"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="149"/>
+    </row>
+    <row r="20" spans="2:14" s="192" customFormat="1">
+      <c r="B20" s="197"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="195"/>
+      <c r="L20" s="195"/>
+      <c r="M20" s="195"/>
+      <c r="N20" s="199"/>
+    </row>
+    <row r="21" spans="2:14" s="192" customFormat="1">
+      <c r="B21" s="197"/>
+      <c r="C21" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="199"/>
+    </row>
+    <row r="22" spans="2:14" s="192" customFormat="1">
+      <c r="B22" s="197"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="199"/>
+    </row>
+    <row r="23" spans="2:14" s="192" customFormat="1">
+      <c r="B23" s="197"/>
+      <c r="D23" s="198" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="198">
+        <v>20</v>
+      </c>
+      <c r="F23" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="198"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="199"/>
+    </row>
+    <row r="24" spans="2:14" s="192" customFormat="1">
+      <c r="B24" s="197"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="200">
+        <f>E23*1000</f>
+        <v>20000</v>
+      </c>
+      <c r="F24" s="198" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="198"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="195"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="199"/>
+    </row>
+    <row r="25" spans="2:14" s="192" customFormat="1">
+      <c r="B25" s="197"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="195"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="199"/>
+    </row>
+    <row r="26" spans="2:14" s="192" customFormat="1">
+      <c r="B26" s="197"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="195"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="199"/>
+    </row>
+    <row r="27" spans="2:14" s="192" customFormat="1">
+      <c r="B27" s="197"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="198"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="199"/>
+    </row>
+    <row r="28" spans="2:14" s="192" customFormat="1">
+      <c r="B28" s="197"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="199"/>
+    </row>
+    <row r="29" spans="2:14" s="192" customFormat="1">
+      <c r="B29" s="197"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="199"/>
+    </row>
+    <row r="30" spans="2:14" s="192" customFormat="1">
+      <c r="B30" s="197"/>
+      <c r="C30" s="195" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="195"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="195"/>
+      <c r="N30" s="199"/>
+    </row>
+    <row r="31" spans="2:14" s="192" customFormat="1">
+      <c r="B31" s="197"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="199"/>
+    </row>
+    <row r="32" spans="2:14" s="192" customFormat="1">
+      <c r="B32" s="197"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="199"/>
+    </row>
+    <row r="33" spans="2:22" s="192" customFormat="1">
+      <c r="B33" s="197"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="195"/>
+      <c r="M33" s="195"/>
+      <c r="N33" s="199"/>
+    </row>
+    <row r="34" spans="2:22" s="192" customFormat="1">
+      <c r="B34" s="197"/>
+      <c r="D34" s="198" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="203">
+        <v>40000</v>
+      </c>
+      <c r="F34" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="198"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="195"/>
+      <c r="N34" s="199"/>
+    </row>
+    <row r="35" spans="2:22" s="192" customFormat="1">
+      <c r="B35" s="197"/>
+      <c r="D35" s="198" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="203">
+        <v>600000000</v>
+      </c>
+      <c r="F35" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="198"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="199"/>
+    </row>
+    <row r="36" spans="2:22" s="192" customFormat="1">
+      <c r="B36" s="197"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="199"/>
+    </row>
+    <row r="37" spans="2:22" s="192" customFormat="1">
+      <c r="B37" s="197"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="195"/>
+      <c r="M37" s="195"/>
+      <c r="N37" s="199"/>
+    </row>
+    <row r="38" spans="2:22" s="192" customFormat="1">
+      <c r="B38" s="197"/>
+      <c r="D38" s="198" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="204">
+        <f>E35/(E34*1000)</f>
+        <v>15</v>
+      </c>
+      <c r="F38" s="204" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="198"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="195"/>
+      <c r="L38" s="195"/>
+      <c r="M38" s="195"/>
+      <c r="N38" s="199"/>
+    </row>
+    <row r="39" spans="2:22" s="192" customFormat="1">
+      <c r="B39" s="197"/>
+      <c r="D39" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="205">
+        <f>E38*E24</f>
+        <v>300000</v>
+      </c>
+      <c r="F39" s="204" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="198"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="195"/>
+      <c r="L39" s="195"/>
+      <c r="M39" s="195"/>
+      <c r="N39" s="199"/>
+    </row>
+    <row r="40" spans="2:22" s="192" customFormat="1">
+      <c r="B40" s="197"/>
+      <c r="D40" s="198" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="206">
+        <f>E39/1000000</f>
+        <v>0.3</v>
+      </c>
+      <c r="F40" s="204" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="198"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="195"/>
+      <c r="L40" s="195"/>
+      <c r="M40" s="195"/>
+      <c r="N40" s="199"/>
+    </row>
+    <row r="41" spans="2:22" s="192" customFormat="1">
+      <c r="B41" s="197"/>
+      <c r="C41" s="195"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="198"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="195"/>
+      <c r="L41" s="195"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="199"/>
+    </row>
+    <row r="42" spans="2:22" s="192" customFormat="1">
+      <c r="B42" s="197"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="195"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="195"/>
+      <c r="N42" s="199"/>
+    </row>
+    <row r="43" spans="2:22" s="192" customFormat="1">
+      <c r="B43" s="197"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="198"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="195"/>
+      <c r="L43" s="195"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="199"/>
+    </row>
+    <row r="44" spans="2:22" s="192" customFormat="1">
+      <c r="B44" s="197"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="198"/>
+      <c r="G44" s="198"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="195"/>
+      <c r="K44" s="195"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="199"/>
+    </row>
+    <row r="45" spans="2:22" s="192" customFormat="1">
+      <c r="B45" s="197"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="198"/>
+      <c r="F45" s="198"/>
+      <c r="G45" s="198"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="195"/>
+      <c r="K45" s="195"/>
+      <c r="L45" s="195"/>
+      <c r="M45" s="195"/>
+      <c r="N45" s="199"/>
+      <c r="V45" s="192">
+        <f>0.8*755</f>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" s="192" customFormat="1">
+      <c r="B46" s="197"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="198"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="199"/>
+    </row>
+    <row r="47" spans="2:22" s="192" customFormat="1">
+      <c r="B47" s="197"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="195"/>
+      <c r="K47" s="195"/>
+      <c r="L47" s="195"/>
+      <c r="M47" s="195"/>
+      <c r="N47" s="199"/>
+    </row>
+    <row r="48" spans="2:22" s="192" customFormat="1">
+      <c r="B48" s="197"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="198"/>
+      <c r="F48" s="198"/>
+      <c r="G48" s="198"/>
+      <c r="I48" s="195"/>
+      <c r="J48" s="195"/>
+      <c r="K48" s="195"/>
+      <c r="L48" s="195"/>
+      <c r="M48" s="195"/>
+      <c r="N48" s="199"/>
+    </row>
+    <row r="49" spans="2:14" s="192" customFormat="1">
+      <c r="B49" s="197"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="198"/>
+      <c r="F49" s="198"/>
+      <c r="G49" s="198"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="195"/>
+      <c r="K49" s="195"/>
+      <c r="L49" s="195"/>
+      <c r="M49" s="195"/>
+      <c r="N49" s="199"/>
+    </row>
+    <row r="50" spans="2:14" s="192" customFormat="1">
+      <c r="B50" s="197"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="198"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="198"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="195"/>
+      <c r="K50" s="195"/>
+      <c r="L50" s="195"/>
+      <c r="M50" s="195"/>
+      <c r="N50" s="199"/>
+    </row>
+    <row r="51" spans="2:14" s="192" customFormat="1">
+      <c r="B51" s="197"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="198"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="195"/>
+      <c r="L51" s="195"/>
+      <c r="M51" s="195"/>
+      <c r="N51" s="199"/>
+    </row>
+    <row r="52" spans="2:14" s="192" customFormat="1">
+      <c r="B52" s="197"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="I52" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="J52" s="195"/>
+      <c r="K52" s="195"/>
+      <c r="L52" s="195"/>
+      <c r="M52" s="195"/>
+      <c r="N52" s="199"/>
+    </row>
+    <row r="53" spans="2:14" s="192" customFormat="1">
+      <c r="B53" s="197"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="198"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="195"/>
+      <c r="K53" s="195"/>
+      <c r="L53" s="195"/>
+      <c r="M53" s="195"/>
+      <c r="N53" s="199"/>
+    </row>
+    <row r="54" spans="2:14" s="192" customFormat="1">
+      <c r="B54" s="197"/>
+      <c r="C54" s="195"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="198"/>
+      <c r="F54" s="198"/>
+      <c r="G54" s="198"/>
+      <c r="J54" s="195"/>
+      <c r="K54" s="195"/>
+      <c r="L54" s="195"/>
+      <c r="M54" s="195"/>
+      <c r="N54" s="199"/>
+    </row>
+    <row r="55" spans="2:14" s="192" customFormat="1">
+      <c r="B55" s="197"/>
+      <c r="C55" s="195"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="198"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="198"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="195"/>
+      <c r="K55" s="195"/>
+      <c r="L55" s="195"/>
+      <c r="M55" s="195"/>
+      <c r="N55" s="199"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="148"/>
+      <c r="C56" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="140"/>
+      <c r="L56" s="140"/>
+      <c r="M56" s="140"/>
+      <c r="N56" s="149"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="148"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="195" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="140"/>
+      <c r="K57" s="140"/>
+      <c r="L57" s="140"/>
+      <c r="M57" s="140"/>
+      <c r="N57" s="149"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="148"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="140">
+        <v>20</v>
+      </c>
+      <c r="F58" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="140"/>
+      <c r="N58" s="149"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="148"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140">
+        <v>30</v>
+      </c>
+      <c r="F59" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="149"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="148"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="195" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="195">
+        <f>AVERAGE(E58,E59)</f>
+        <v>25</v>
+      </c>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="149"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="148"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="140"/>
+      <c r="N61" s="149"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="148"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="140"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="149"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="148"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="140"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="149"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="148"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="140"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="140"/>
+      <c r="N64" s="149"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="148"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="140"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="140"/>
+      <c r="N65" s="149"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="148"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="149"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="148"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="140"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="140"/>
+      <c r="N67" s="149"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="148"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="140"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="140"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="140"/>
+      <c r="N68" s="149"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="148"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="140"/>
+      <c r="K69" s="140"/>
+      <c r="L69" s="140"/>
+      <c r="M69" s="140"/>
+      <c r="N69" s="149"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="148"/>
+      <c r="C70" s="195" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="140"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="140"/>
+      <c r="L70" s="140"/>
+      <c r="M70" s="140"/>
+      <c r="N70" s="149"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="148"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="195" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="195" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="140"/>
+      <c r="G71" s="140"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="140"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="140"/>
+      <c r="L71" s="140"/>
+      <c r="M71" s="140"/>
+      <c r="N71" s="149"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="148"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="195" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="140"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="149"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="148"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="140"/>
+      <c r="N73" s="149"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="148"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="140"/>
+      <c r="K74" s="140"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="140"/>
+      <c r="N74" s="149"/>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="148"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="140"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="140"/>
+      <c r="N75" s="149"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="148"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="140"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="140"/>
+      <c r="H76" s="140"/>
+      <c r="I76" s="140"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="140"/>
+      <c r="N76" s="149"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="148"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="140"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="140"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="140"/>
+      <c r="M77" s="140"/>
+      <c r="N77" s="149"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="148"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="140"/>
+      <c r="E78" s="140"/>
+      <c r="F78" s="140"/>
+      <c r="G78" s="140"/>
+      <c r="H78" s="140"/>
+      <c r="I78" s="140"/>
+      <c r="J78" s="140"/>
+      <c r="K78" s="140"/>
+      <c r="L78" s="140"/>
+      <c r="M78" s="140"/>
+      <c r="N78" s="149"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="148"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="140"/>
+      <c r="E79" s="140"/>
+      <c r="F79" s="140"/>
+      <c r="G79" s="140"/>
+      <c r="H79" s="140"/>
+      <c r="I79" s="140"/>
+      <c r="J79" s="140"/>
+      <c r="K79" s="140"/>
+      <c r="L79" s="140"/>
+      <c r="M79" s="140"/>
+      <c r="N79" s="149"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="148"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="140"/>
+      <c r="G80" s="140"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="140"/>
+      <c r="N80" s="149"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="148"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="140"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="140"/>
+      <c r="K81" s="140"/>
+      <c r="L81" s="140"/>
+      <c r="M81" s="140"/>
+      <c r="N81" s="149"/>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="148"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="140"/>
+      <c r="K82" s="140"/>
+      <c r="L82" s="140"/>
+      <c r="M82" s="140"/>
+      <c r="N82" s="149"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="148"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="140"/>
+      <c r="K83" s="140"/>
+      <c r="L83" s="140"/>
+      <c r="M83" s="140"/>
+      <c r="N83" s="149"/>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="148"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="140"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="140"/>
+      <c r="H84" s="140"/>
+      <c r="I84" s="140"/>
+      <c r="J84" s="140"/>
+      <c r="K84" s="140"/>
+      <c r="L84" s="140"/>
+      <c r="M84" s="140"/>
+      <c r="N84" s="149"/>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="148"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="140"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="140"/>
+      <c r="I85" s="140"/>
+      <c r="J85" s="140"/>
+      <c r="K85" s="140"/>
+      <c r="L85" s="140"/>
+      <c r="M85" s="140"/>
+      <c r="N85" s="149"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="148"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="140"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="140"/>
+      <c r="I86" s="140"/>
+      <c r="J86" s="140"/>
+      <c r="K86" s="140"/>
+      <c r="L86" s="140"/>
+      <c r="M86" s="140"/>
+      <c r="N86" s="149"/>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="148"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="140"/>
+      <c r="E87" s="140"/>
+      <c r="F87" s="140"/>
+      <c r="G87" s="140"/>
+      <c r="H87" s="140"/>
+      <c r="I87" s="140"/>
+      <c r="J87" s="140"/>
+      <c r="K87" s="140"/>
+      <c r="L87" s="140"/>
+      <c r="M87" s="140"/>
+      <c r="N87" s="149"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="148"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
+      <c r="H88" s="140"/>
+      <c r="I88" s="140"/>
+      <c r="J88" s="140"/>
+      <c r="K88" s="140"/>
+      <c r="L88" s="140"/>
+      <c r="M88" s="140"/>
+      <c r="N88" s="149"/>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" s="148"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="140"/>
+      <c r="E89" s="140"/>
+      <c r="F89" s="140"/>
+      <c r="G89" s="140"/>
+      <c r="H89" s="140"/>
+      <c r="I89" s="140"/>
+      <c r="J89" s="140"/>
+      <c r="K89" s="140"/>
+      <c r="L89" s="140"/>
+      <c r="M89" s="140"/>
+      <c r="N89" s="149"/>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="148"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="140"/>
+      <c r="E90" s="140"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="140"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
+      <c r="J90" s="140"/>
+      <c r="K90" s="140"/>
+      <c r="L90" s="140"/>
+      <c r="M90" s="140"/>
+      <c r="N90" s="149"/>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="148"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="140"/>
+      <c r="E91" s="140"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="140"/>
+      <c r="H91" s="140"/>
+      <c r="I91" s="140"/>
+      <c r="J91" s="140"/>
+      <c r="K91" s="140"/>
+      <c r="L91" s="140"/>
+      <c r="M91" s="140"/>
+      <c r="N91" s="149"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="148"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="140"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="140"/>
+      <c r="H92" s="140"/>
+      <c r="I92" s="140"/>
+      <c r="J92" s="140"/>
+      <c r="K92" s="140"/>
+      <c r="L92" s="140"/>
+      <c r="M92" s="140"/>
+      <c r="N92" s="149"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" s="148"/>
+      <c r="C93" s="140"/>
+      <c r="D93" s="140"/>
+      <c r="E93" s="140"/>
+      <c r="F93" s="140"/>
+      <c r="G93" s="140"/>
+      <c r="H93" s="140"/>
+      <c r="I93" s="140"/>
+      <c r="J93" s="140"/>
+      <c r="K93" s="140"/>
+      <c r="L93" s="140"/>
+      <c r="M93" s="140"/>
+      <c r="N93" s="149"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="148"/>
+      <c r="C94" s="140"/>
+      <c r="D94" s="140"/>
+      <c r="E94" s="140"/>
+      <c r="F94" s="140"/>
+      <c r="G94" s="140"/>
+      <c r="H94" s="140"/>
+      <c r="I94" s="140"/>
+      <c r="J94" s="140"/>
+      <c r="K94" s="140"/>
+      <c r="L94" s="140"/>
+      <c r="M94" s="140"/>
+      <c r="N94" s="149"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" s="148"/>
+      <c r="C95" s="140"/>
+      <c r="D95" s="140"/>
+      <c r="E95" s="140"/>
+      <c r="F95" s="140"/>
+      <c r="G95" s="140"/>
+      <c r="H95" s="140"/>
+      <c r="I95" s="140"/>
+      <c r="J95" s="140"/>
+      <c r="K95" s="140"/>
+      <c r="L95" s="140"/>
+      <c r="M95" s="140"/>
+      <c r="N95" s="149"/>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="148"/>
+      <c r="C96" s="140"/>
+      <c r="D96" s="140"/>
+      <c r="E96" s="140"/>
+      <c r="F96" s="140"/>
+      <c r="G96" s="140"/>
+      <c r="H96" s="140"/>
+      <c r="I96" s="140"/>
+      <c r="J96" s="140"/>
+      <c r="K96" s="140"/>
+      <c r="L96" s="140"/>
+      <c r="M96" s="140"/>
+      <c r="N96" s="149"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="148"/>
+      <c r="C97" s="140"/>
+      <c r="D97" s="140"/>
+      <c r="E97" s="140"/>
+      <c r="F97" s="140"/>
+      <c r="G97" s="140"/>
+      <c r="H97" s="140"/>
+      <c r="I97" s="140"/>
+      <c r="J97" s="140"/>
+      <c r="K97" s="140"/>
+      <c r="L97" s="140"/>
+      <c r="M97" s="140"/>
+      <c r="N97" s="149"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="148"/>
+      <c r="C98" s="140"/>
+      <c r="D98" s="140"/>
+      <c r="E98" s="140"/>
+      <c r="F98" s="140"/>
+      <c r="G98" s="140"/>
+      <c r="H98" s="140"/>
+      <c r="I98" s="140"/>
+      <c r="J98" s="140"/>
+      <c r="K98" s="140"/>
+      <c r="L98" s="140"/>
+      <c r="M98" s="140"/>
+      <c r="N98" s="149"/>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="148"/>
+      <c r="C99" s="140"/>
+      <c r="D99" s="140"/>
+      <c r="E99" s="140"/>
+      <c r="F99" s="140"/>
+      <c r="G99" s="140"/>
+      <c r="H99" s="140"/>
+      <c r="I99" s="140"/>
+      <c r="J99" s="140"/>
+      <c r="K99" s="140"/>
+      <c r="L99" s="140"/>
+      <c r="M99" s="140"/>
+      <c r="N99" s="149"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="148"/>
+      <c r="C100" s="140"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="140"/>
+      <c r="F100" s="140"/>
+      <c r="G100" s="140"/>
+      <c r="H100" s="140"/>
+      <c r="I100" s="140"/>
+      <c r="J100" s="140"/>
+      <c r="K100" s="140"/>
+      <c r="L100" s="140"/>
+      <c r="M100" s="140"/>
+      <c r="N100" s="149"/>
+    </row>
+    <row r="101" spans="2:14">
+      <c r="B101" s="148"/>
+      <c r="C101" s="140"/>
+      <c r="D101" s="140"/>
+      <c r="E101" s="140"/>
+      <c r="F101" s="140"/>
+      <c r="G101" s="140"/>
+      <c r="H101" s="140"/>
+      <c r="I101" s="140"/>
+      <c r="J101" s="140"/>
+      <c r="K101" s="140"/>
+      <c r="L101" s="140"/>
+      <c r="M101" s="140"/>
+      <c r="N101" s="149"/>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="B102" s="148"/>
+      <c r="C102" s="140"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140"/>
+      <c r="F102" s="140"/>
+      <c r="G102" s="140"/>
+      <c r="H102" s="140"/>
+      <c r="I102" s="140"/>
+      <c r="J102" s="140"/>
+      <c r="K102" s="140"/>
+      <c r="L102" s="140"/>
+      <c r="M102" s="140"/>
+      <c r="N102" s="149"/>
+    </row>
+    <row r="103" spans="2:14" s="192" customFormat="1">
+      <c r="B103" s="197"/>
+      <c r="D103" s="198"/>
+      <c r="E103" s="198"/>
+      <c r="F103" s="198"/>
+      <c r="G103" s="198"/>
+      <c r="I103" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="N103" s="199"/>
+    </row>
+    <row r="104" spans="2:14" s="192" customFormat="1">
+      <c r="B104" s="197"/>
+      <c r="C104" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="198"/>
+      <c r="E104" s="198"/>
+      <c r="F104" s="198"/>
+      <c r="G104" s="198"/>
+      <c r="N104" s="199"/>
+    </row>
+    <row r="105" spans="2:14" s="192" customFormat="1">
+      <c r="B105" s="197"/>
+      <c r="D105" s="198"/>
+      <c r="E105" s="198"/>
+      <c r="F105" s="198"/>
+      <c r="G105" s="198"/>
+      <c r="K105" s="211" t="s">
+        <v>161</v>
+      </c>
+      <c r="L105" s="212">
+        <f>0.83611</f>
+        <v>0.83611000000000002</v>
+      </c>
+      <c r="M105" s="211" t="s">
+        <v>162</v>
+      </c>
+      <c r="N105" s="199"/>
+    </row>
+    <row r="106" spans="2:14" s="192" customFormat="1">
+      <c r="B106" s="197"/>
+      <c r="C106" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" s="198"/>
+      <c r="E106" s="198"/>
+      <c r="F106" s="198"/>
+      <c r="G106" s="198"/>
+      <c r="K106" s="211"/>
+      <c r="L106" s="213" t="s">
+        <v>164</v>
+      </c>
+      <c r="M106" s="211"/>
+      <c r="N106" s="199"/>
+    </row>
+    <row r="107" spans="2:14" s="192" customFormat="1">
+      <c r="B107" s="197"/>
+      <c r="D107" s="198"/>
+      <c r="E107" s="198"/>
+      <c r="F107" s="198"/>
+      <c r="G107" s="198"/>
+      <c r="K107" s="211"/>
+      <c r="L107" s="214">
+        <v>42987</v>
+      </c>
+      <c r="M107" s="211"/>
+      <c r="N107" s="199"/>
+    </row>
+    <row r="108" spans="2:14" s="192" customFormat="1">
+      <c r="B108" s="197"/>
+      <c r="D108" s="198"/>
+      <c r="E108" s="198"/>
+      <c r="F108" s="198"/>
+      <c r="G108" s="198"/>
+      <c r="N108" s="199"/>
+    </row>
+    <row r="109" spans="2:14" s="192" customFormat="1">
+      <c r="B109" s="197"/>
+      <c r="D109" s="198"/>
+      <c r="E109" s="198"/>
+      <c r="F109" s="198"/>
+      <c r="G109" s="198"/>
+      <c r="N109" s="199"/>
+    </row>
+    <row r="110" spans="2:14" s="192" customFormat="1">
+      <c r="B110" s="197"/>
+      <c r="D110" s="198"/>
+      <c r="E110" s="198"/>
+      <c r="F110" s="198"/>
+      <c r="G110" s="198"/>
+      <c r="N110" s="199"/>
+    </row>
+    <row r="111" spans="2:14" s="192" customFormat="1">
+      <c r="B111" s="197"/>
+      <c r="D111" s="198"/>
+      <c r="E111" s="198"/>
+      <c r="F111" s="198"/>
+      <c r="G111" s="198"/>
+      <c r="N111" s="199"/>
+    </row>
+    <row r="112" spans="2:14" s="192" customFormat="1">
+      <c r="B112" s="197"/>
+      <c r="D112" s="198"/>
+      <c r="E112" s="198"/>
+      <c r="F112" s="198"/>
+      <c r="G112" s="198"/>
+      <c r="N112" s="199"/>
+    </row>
+    <row r="113" spans="2:14" s="192" customFormat="1">
+      <c r="B113" s="197"/>
+      <c r="D113" s="198"/>
+      <c r="E113" s="198"/>
+      <c r="F113" s="198"/>
+      <c r="G113" s="198"/>
+      <c r="N113" s="199"/>
+    </row>
+    <row r="114" spans="2:14" s="192" customFormat="1">
+      <c r="B114" s="197"/>
+      <c r="C114" s="198" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" s="198"/>
+      <c r="F114" s="198"/>
+      <c r="G114" s="198"/>
+      <c r="N114" s="199"/>
+    </row>
+    <row r="115" spans="2:14" s="192" customFormat="1">
+      <c r="B115" s="197"/>
+      <c r="C115" s="195"/>
+      <c r="D115" s="198"/>
+      <c r="E115" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="F115" s="198">
+        <v>871</v>
+      </c>
+      <c r="G115" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="N115" s="199"/>
+    </row>
+    <row r="116" spans="2:14" s="192" customFormat="1">
+      <c r="B116" s="197"/>
+      <c r="C116" s="195"/>
+      <c r="D116" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="E116" s="198"/>
+      <c r="F116" s="198"/>
+      <c r="G116" s="198"/>
+      <c r="N116" s="199"/>
+    </row>
+    <row r="117" spans="2:14" s="192" customFormat="1">
+      <c r="B117" s="197"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="E117" s="198"/>
+      <c r="F117" s="198">
+        <v>440</v>
+      </c>
+      <c r="G117" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="N117" s="199"/>
+    </row>
+    <row r="118" spans="2:14" s="192" customFormat="1">
+      <c r="B118" s="197"/>
+      <c r="C118" s="195"/>
+      <c r="D118" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="198"/>
+      <c r="F118" s="198">
+        <v>84</v>
+      </c>
+      <c r="G118" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="N118" s="199"/>
+    </row>
+    <row r="119" spans="2:14" s="192" customFormat="1">
+      <c r="B119" s="197"/>
+      <c r="D119" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="E119" s="198"/>
+      <c r="F119" s="198">
+        <f>F115-F117-F118-F120</f>
+        <v>297</v>
+      </c>
+      <c r="G119" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="N119" s="199"/>
+    </row>
+    <row r="120" spans="2:14" s="192" customFormat="1">
+      <c r="B120" s="197"/>
+      <c r="D120" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="E120" s="218"/>
+      <c r="F120" s="192">
         <v>50</v>
       </c>
-      <c r="F67" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="G67" s="165" t="s">
-        <v>124</v>
-      </c>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="147"/>
-      <c r="K67" s="147"/>
-      <c r="L67" s="147"/>
-      <c r="M67" s="147"/>
-      <c r="N67" s="157"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B68" s="156"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="147">
-        <f>E27-E67</f>
-        <v>290</v>
-      </c>
-      <c r="F68" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="G68" s="165" t="s">
-        <v>125</v>
-      </c>
-      <c r="H68" s="147"/>
-      <c r="I68" s="147"/>
-      <c r="J68" s="147"/>
-      <c r="K68" s="147"/>
-      <c r="L68" s="147"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="157"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B69" s="156"/>
-      <c r="C69" s="147"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="147"/>
-      <c r="F69" s="147"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="147"/>
-      <c r="I69" s="147"/>
-      <c r="J69" s="147"/>
-      <c r="K69" s="147"/>
-      <c r="L69" s="147"/>
-      <c r="M69" s="147"/>
-      <c r="N69" s="157"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="156"/>
-      <c r="C70" s="147"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="147"/>
-      <c r="F70" s="147"/>
-      <c r="G70" s="165"/>
-      <c r="H70" s="147"/>
-      <c r="I70" s="147"/>
-      <c r="J70" s="147"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="147"/>
-      <c r="M70" s="147"/>
-      <c r="N70" s="157"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="156"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="147"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="147"/>
-      <c r="N71" s="157"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="156"/>
-      <c r="C72" s="147"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="147"/>
-      <c r="F72" s="147"/>
-      <c r="H72" s="147"/>
-      <c r="I72" s="147"/>
-      <c r="J72" s="147"/>
-      <c r="K72" s="147"/>
-      <c r="L72" s="147"/>
-      <c r="M72" s="147"/>
-      <c r="N72" s="157"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="156"/>
-      <c r="C73" s="147"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="147"/>
-      <c r="F73" s="147"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="147"/>
-      <c r="I73" s="147"/>
-      <c r="J73" s="147"/>
-      <c r="K73" s="147"/>
-      <c r="L73" s="147"/>
-      <c r="M73" s="147"/>
-      <c r="N73" s="157"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="156"/>
-      <c r="C74" s="147"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="147"/>
-      <c r="F74" s="147"/>
-      <c r="G74" s="147"/>
-      <c r="H74" s="147"/>
-      <c r="I74" s="147"/>
-      <c r="J74" s="147"/>
-      <c r="K74" s="147"/>
-      <c r="L74" s="147"/>
-      <c r="M74" s="147"/>
-      <c r="N74" s="157"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B75" s="156"/>
-      <c r="C75" s="147"/>
-      <c r="D75" s="147"/>
-      <c r="E75" s="147"/>
-      <c r="F75" s="147"/>
-      <c r="G75" s="147"/>
-      <c r="H75" s="147"/>
-      <c r="I75" s="147"/>
-      <c r="J75" s="147"/>
-      <c r="K75" s="147"/>
-      <c r="L75" s="147"/>
-      <c r="M75" s="147"/>
-      <c r="N75" s="157"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="156"/>
-      <c r="C76" s="147"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="147"/>
-      <c r="F76" s="147"/>
-      <c r="G76" s="147"/>
-      <c r="H76" s="147"/>
-      <c r="I76" s="147"/>
-      <c r="J76" s="147"/>
-      <c r="K76" s="147"/>
-      <c r="L76" s="147"/>
-      <c r="M76" s="147"/>
-      <c r="N76" s="157"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="156"/>
-      <c r="F77" s="147"/>
-      <c r="G77" s="147"/>
-      <c r="H77" s="147"/>
-      <c r="I77" s="147"/>
-      <c r="J77" s="147"/>
-      <c r="K77" s="147"/>
-      <c r="L77" s="147"/>
-      <c r="M77" s="147"/>
-      <c r="N77" s="157"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="156"/>
-      <c r="F78" s="147"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="147"/>
-      <c r="I78" s="147"/>
-      <c r="J78" s="147"/>
-      <c r="K78" s="147"/>
-      <c r="L78" s="147"/>
-      <c r="M78" s="147"/>
-      <c r="N78" s="157"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B79" s="156"/>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="147"/>
-      <c r="J79" s="147"/>
-      <c r="K79" s="147"/>
-      <c r="L79" s="147"/>
-      <c r="M79" s="147"/>
-      <c r="N79" s="157"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="156"/>
-      <c r="F80" s="147"/>
-      <c r="G80" s="147"/>
-      <c r="H80" s="147"/>
-      <c r="I80" s="147"/>
-      <c r="J80" s="147"/>
-      <c r="K80" s="147"/>
-      <c r="L80" s="147"/>
-      <c r="M80" s="147"/>
-      <c r="N80" s="157"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="156"/>
-      <c r="F81" s="147"/>
-      <c r="G81" s="147"/>
-      <c r="H81" s="147"/>
-      <c r="I81" s="147"/>
-      <c r="J81" s="147"/>
-      <c r="K81" s="147"/>
-      <c r="L81" s="147"/>
-      <c r="M81" s="147"/>
-      <c r="N81" s="157"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B82" s="156"/>
-      <c r="F82" s="147"/>
-      <c r="G82" s="147"/>
-      <c r="H82" s="147"/>
-      <c r="I82" s="147"/>
-      <c r="J82" s="147"/>
-      <c r="K82" s="147"/>
-      <c r="L82" s="147"/>
-      <c r="M82" s="147"/>
-      <c r="N82" s="157"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="156"/>
-      <c r="F83" s="147"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="147"/>
-      <c r="I83" s="147"/>
-      <c r="J83" s="147"/>
-      <c r="K83" s="147"/>
-      <c r="L83" s="147"/>
-      <c r="M83" s="147"/>
-      <c r="N83" s="157"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="156"/>
-      <c r="C84" s="166" t="s">
-        <v>127</v>
-      </c>
-      <c r="F84" s="147"/>
-      <c r="G84" s="147"/>
-      <c r="H84" s="147"/>
-      <c r="I84" s="147"/>
-      <c r="J84" s="147"/>
-      <c r="K84" s="147"/>
-      <c r="L84" s="147"/>
-      <c r="M84" s="147"/>
-      <c r="N84" s="157"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="156"/>
-      <c r="F85" s="147"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="147"/>
-      <c r="I85" s="147"/>
-      <c r="J85" s="147"/>
-      <c r="K85" s="147"/>
-      <c r="L85" s="147"/>
-      <c r="M85" s="147"/>
-      <c r="N85" s="157"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="156"/>
-      <c r="E86" s="148">
-        <v>25</v>
-      </c>
-      <c r="F86" s="165" t="s">
-        <v>2</v>
-      </c>
-      <c r="G86" s="165" t="s">
-        <v>57</v>
-      </c>
-      <c r="H86" s="147"/>
-      <c r="I86" s="147"/>
-      <c r="J86" s="147"/>
-      <c r="K86" s="147"/>
-      <c r="L86" s="147"/>
-      <c r="M86" s="147"/>
-      <c r="N86" s="157"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="156"/>
-      <c r="E87" s="148">
-        <v>0.05</v>
-      </c>
-      <c r="G87" s="165" t="s">
-        <v>58</v>
-      </c>
-      <c r="H87" s="147"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="147"/>
-      <c r="K87" s="147"/>
-      <c r="L87" s="147"/>
-      <c r="M87" s="147"/>
-      <c r="N87" s="157"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="156"/>
-      <c r="F88" s="197" t="s">
+      <c r="G120" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="N120" s="199"/>
+    </row>
+    <row r="121" spans="2:14" s="192" customFormat="1">
+      <c r="B121" s="197"/>
+      <c r="F121" s="192" t="s">
+        <v>187</v>
+      </c>
+      <c r="N121" s="199"/>
+    </row>
+    <row r="122" spans="2:14" s="192" customFormat="1">
+      <c r="B122" s="197"/>
+      <c r="D122" s="198"/>
+      <c r="E122" s="198"/>
+      <c r="F122" s="198"/>
+      <c r="G122" s="198"/>
+      <c r="N122" s="199"/>
+    </row>
+    <row r="123" spans="2:14" s="192" customFormat="1">
+      <c r="B123" s="197"/>
+      <c r="D123" s="198"/>
+      <c r="E123" s="198"/>
+      <c r="F123" s="198"/>
+      <c r="G123" s="198"/>
+      <c r="N123" s="199"/>
+    </row>
+    <row r="124" spans="2:14" s="192" customFormat="1">
+      <c r="B124" s="197"/>
+      <c r="D124" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="E124" s="198">
+        <v>14.7</v>
+      </c>
+      <c r="F124" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="G124" s="198"/>
+      <c r="N124" s="199"/>
+    </row>
+    <row r="125" spans="2:14" s="192" customFormat="1">
+      <c r="B125" s="197"/>
+      <c r="D125" s="198"/>
+      <c r="E125" s="198"/>
+      <c r="F125" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="G125" s="198"/>
+      <c r="N125" s="199"/>
+    </row>
+    <row r="126" spans="2:14" s="192" customFormat="1">
+      <c r="B126" s="197"/>
+      <c r="D126" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="E126" s="198">
+        <v>30</v>
+      </c>
+      <c r="G126" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="G88" s="197"/>
-      <c r="H88" s="147"/>
-      <c r="I88" s="147"/>
-      <c r="J88" s="147"/>
-      <c r="K88" s="147"/>
-      <c r="L88" s="147"/>
-      <c r="M88" s="147"/>
-      <c r="N88" s="157"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="156"/>
-      <c r="F89" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="G89" s="147"/>
-      <c r="H89" s="147"/>
-      <c r="I89" s="147"/>
-      <c r="J89" s="147"/>
-      <c r="K89" s="147"/>
-      <c r="L89" s="147"/>
-      <c r="M89" s="147"/>
-      <c r="N89" s="157"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="156"/>
-      <c r="H90" s="147"/>
-      <c r="I90" s="147"/>
-      <c r="J90" s="147"/>
-      <c r="K90" s="147"/>
-      <c r="L90" s="147"/>
-      <c r="M90" s="147"/>
-      <c r="N90" s="157"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="156"/>
-      <c r="E91" s="198">
-        <f>0.015*(E27+E31+E38-E67)</f>
-        <v>14.25</v>
-      </c>
-      <c r="F91" s="198" t="s">
-        <v>168</v>
-      </c>
-      <c r="G91" s="198" t="s">
-        <v>169</v>
-      </c>
-      <c r="H91" s="147"/>
-      <c r="I91" s="147"/>
-      <c r="J91" s="147"/>
-      <c r="K91" s="147"/>
-      <c r="L91" s="147"/>
-      <c r="M91" s="147"/>
-      <c r="N91" s="157"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="156"/>
-      <c r="H92" s="147"/>
-      <c r="I92" s="147"/>
-      <c r="J92" s="147"/>
-      <c r="K92" s="147"/>
-      <c r="L92" s="147"/>
-      <c r="M92" s="147"/>
-      <c r="N92" s="157"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="156"/>
-      <c r="F93" s="166" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="147"/>
-      <c r="H93" s="147"/>
-      <c r="I93" s="147"/>
-      <c r="J93" s="147"/>
-      <c r="K93" s="147"/>
-      <c r="L93" s="147"/>
-      <c r="M93" s="147"/>
-      <c r="N93" s="157"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B94" s="156"/>
-      <c r="G94" s="147"/>
-      <c r="H94" s="147"/>
-      <c r="I94" s="147"/>
-      <c r="J94" s="147"/>
-      <c r="K94" s="147"/>
-      <c r="L94" s="147"/>
-      <c r="M94" s="147"/>
-      <c r="N94" s="157"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="156"/>
-      <c r="E95" s="148">
-        <v>0</v>
-      </c>
-      <c r="F95" s="165" t="s">
-        <v>128</v>
-      </c>
-      <c r="G95" s="165" t="s">
-        <v>132</v>
-      </c>
-      <c r="H95" s="147"/>
-      <c r="I95" s="147"/>
-      <c r="J95" s="147"/>
-      <c r="K95" s="147"/>
-      <c r="L95" s="147"/>
-      <c r="M95" s="147"/>
-      <c r="N95" s="157"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="156"/>
-      <c r="F96" s="147"/>
-      <c r="G96" s="147"/>
-      <c r="H96" s="147"/>
-      <c r="I96" s="147"/>
-      <c r="J96" s="147"/>
-      <c r="K96" s="147"/>
-      <c r="L96" s="147"/>
-      <c r="M96" s="147"/>
-      <c r="N96" s="157"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="156"/>
-      <c r="E97" s="148">
-        <v>0.15</v>
-      </c>
-      <c r="F97" s="165" t="s">
-        <v>129</v>
-      </c>
-      <c r="G97" s="165" t="s">
-        <v>130</v>
-      </c>
-      <c r="H97" s="147"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="147"/>
-      <c r="K97" s="147"/>
-      <c r="L97" s="147"/>
-      <c r="M97" s="147"/>
-      <c r="N97" s="157"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B98" s="156"/>
-      <c r="F98" s="147"/>
-      <c r="G98" s="147"/>
-      <c r="H98" s="147"/>
-      <c r="I98" s="147"/>
-      <c r="J98" s="147"/>
-      <c r="K98" s="147"/>
-      <c r="L98" s="147"/>
-      <c r="M98" s="147"/>
-      <c r="N98" s="157"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B99" s="156"/>
-      <c r="F99" s="194" t="s">
-        <v>162</v>
-      </c>
-      <c r="H99" s="147"/>
-      <c r="I99" s="147"/>
-      <c r="J99" s="147"/>
-      <c r="K99" s="147"/>
-      <c r="L99" s="147"/>
-      <c r="M99" s="147"/>
-      <c r="N99" s="157"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B100" s="156"/>
-      <c r="C100" s="147"/>
-      <c r="D100" s="147"/>
-      <c r="F100" s="166" t="s">
-        <v>155</v>
-      </c>
-      <c r="H100" s="147"/>
-      <c r="I100" s="147"/>
-      <c r="J100" s="147"/>
-      <c r="K100" s="147"/>
-      <c r="L100" s="147"/>
-      <c r="M100" s="147"/>
-      <c r="N100" s="157"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B101" s="156"/>
-      <c r="C101" s="147"/>
-      <c r="D101" s="147"/>
-      <c r="F101" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="H101" s="147"/>
-      <c r="I101" s="147"/>
-      <c r="J101" s="147"/>
-      <c r="K101" s="147"/>
-      <c r="L101" s="147"/>
-      <c r="M101" s="147"/>
-      <c r="N101" s="157"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B102" s="156"/>
-      <c r="C102" s="147"/>
-      <c r="D102" s="147"/>
-      <c r="E102" s="147"/>
-      <c r="F102" s="195" t="s">
-        <v>163</v>
-      </c>
-      <c r="G102" s="147"/>
-      <c r="H102" s="147"/>
-      <c r="I102" s="147"/>
-      <c r="J102" s="147"/>
-      <c r="K102" s="147"/>
-      <c r="L102" s="147"/>
-      <c r="M102" s="147"/>
-      <c r="N102" s="157"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B103" s="156"/>
-      <c r="C103" s="147"/>
-      <c r="D103" s="147"/>
-      <c r="F103" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="H103" s="147"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="147"/>
-      <c r="K103" s="147"/>
-      <c r="L103" s="147"/>
-      <c r="M103" s="147"/>
-      <c r="N103" s="157"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B104" s="156"/>
-      <c r="C104" s="112"/>
-      <c r="D104" s="147"/>
-      <c r="E104" s="147"/>
-      <c r="F104" s="195" t="s">
-        <v>165</v>
-      </c>
-      <c r="G104" s="147"/>
-      <c r="H104" s="112"/>
-      <c r="I104" s="112"/>
-      <c r="J104" s="112"/>
-      <c r="K104" s="147"/>
-      <c r="L104" s="147"/>
-      <c r="M104" s="147"/>
-      <c r="N104" s="157"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B105" s="156"/>
-      <c r="C105" s="112"/>
-      <c r="D105" s="112"/>
-      <c r="H105" s="112"/>
-      <c r="I105" s="112"/>
-      <c r="J105" s="112"/>
-      <c r="K105" s="147"/>
-      <c r="L105" s="147"/>
-      <c r="M105" s="147"/>
-      <c r="N105" s="157"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B106" s="156"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="112"/>
-      <c r="E106" s="148">
-        <f>E97</f>
-        <v>0.15</v>
-      </c>
-      <c r="F106" s="147"/>
-      <c r="G106" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" s="112"/>
-      <c r="I106" s="112"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="147"/>
-      <c r="L106" s="147"/>
-      <c r="M106" s="147"/>
-      <c r="N106" s="157"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B107" s="156"/>
-      <c r="C107" s="112"/>
-      <c r="D107" s="112"/>
-      <c r="I107" s="112"/>
-      <c r="J107" s="112"/>
-      <c r="K107" s="147"/>
-      <c r="L107" s="147"/>
-      <c r="M107" s="147"/>
-      <c r="N107" s="157"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B108" s="156"/>
-      <c r="I108" s="112"/>
-      <c r="J108" s="112"/>
-      <c r="K108" s="147"/>
-      <c r="L108" s="147"/>
-      <c r="M108" s="147"/>
-      <c r="N108" s="157"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B109" s="156"/>
-      <c r="I109" s="112"/>
-      <c r="J109" s="112"/>
-      <c r="K109" s="147"/>
-      <c r="L109" s="147"/>
-      <c r="M109" s="147"/>
-      <c r="N109" s="157"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B110" s="156"/>
-      <c r="I110" s="112"/>
-      <c r="J110" s="112"/>
-      <c r="K110" s="147"/>
-      <c r="L110" s="147"/>
-      <c r="M110" s="147"/>
-      <c r="N110" s="157"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B111" s="156"/>
-      <c r="E111" s="148">
-        <v>20</v>
-      </c>
-      <c r="F111" s="194" t="s">
-        <v>158</v>
-      </c>
-      <c r="G111" s="194" t="s">
-        <v>159</v>
-      </c>
-      <c r="H111" s="195" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111" s="112"/>
-      <c r="J111" s="112"/>
-      <c r="K111" s="147"/>
-      <c r="L111" s="147"/>
-      <c r="M111" s="147"/>
-      <c r="N111" s="157"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B112" s="156"/>
-      <c r="E112" s="148">
-        <f>E111*1000</f>
-        <v>20000</v>
-      </c>
-      <c r="F112" s="194" t="s">
-        <v>160</v>
-      </c>
-      <c r="G112" s="112"/>
-      <c r="H112" s="112"/>
-      <c r="I112" s="112"/>
-      <c r="J112" s="112"/>
-      <c r="K112" s="147"/>
-      <c r="L112" s="147"/>
-      <c r="M112" s="147"/>
-      <c r="N112" s="157"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B113" s="156"/>
-      <c r="C113" s="147"/>
-      <c r="D113" s="147"/>
-      <c r="H113" s="112"/>
-      <c r="I113" s="112"/>
-      <c r="J113" s="112"/>
-      <c r="K113" s="147"/>
-      <c r="L113" s="147"/>
-      <c r="M113" s="147"/>
-      <c r="N113" s="157"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B114" s="156"/>
-      <c r="C114" s="112"/>
-      <c r="D114" s="112"/>
-      <c r="E114" s="112">
-        <f>E112/E97</f>
-        <v>133333.33333333334</v>
-      </c>
-      <c r="F114" s="165" t="s">
-        <v>115</v>
-      </c>
-      <c r="G114" s="165" t="s">
-        <v>157</v>
-      </c>
-      <c r="H114" s="112"/>
-      <c r="I114" s="112"/>
-      <c r="J114" s="112"/>
-      <c r="K114" s="147"/>
-      <c r="L114" s="147"/>
-      <c r="M114" s="147"/>
-      <c r="N114" s="157"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B115" s="156"/>
-      <c r="C115" s="112"/>
-      <c r="D115" s="112"/>
-      <c r="E115" s="112">
-        <f>E114/1000000</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F115" s="165" t="s">
-        <v>4</v>
-      </c>
-      <c r="G115" s="165"/>
-      <c r="H115" s="112"/>
-      <c r="I115" s="112"/>
-      <c r="J115" s="112"/>
-      <c r="K115" s="147"/>
-      <c r="L115" s="147"/>
-      <c r="M115" s="147"/>
-      <c r="N115" s="157"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B116" s="156"/>
-      <c r="C116" s="112"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="112"/>
-      <c r="F116" s="112"/>
-      <c r="G116" s="112"/>
-      <c r="H116" s="185"/>
-      <c r="I116" s="112"/>
-      <c r="J116" s="112"/>
-      <c r="K116" s="147"/>
-      <c r="L116" s="147"/>
-      <c r="M116" s="147"/>
-      <c r="N116" s="157"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B117" s="156"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="112"/>
-      <c r="F117" s="112"/>
-      <c r="G117" s="112"/>
-      <c r="H117" s="112"/>
-      <c r="I117" s="112"/>
-      <c r="J117" s="112"/>
-      <c r="K117" s="147"/>
-      <c r="L117" s="147"/>
-      <c r="M117" s="147"/>
-      <c r="N117" s="157"/>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B118" s="156"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="112"/>
-      <c r="E118" s="112"/>
-      <c r="F118" s="112"/>
-      <c r="G118" s="112"/>
-      <c r="H118" s="112"/>
-      <c r="I118" s="112"/>
-      <c r="J118" s="112"/>
-      <c r="K118" s="147"/>
-      <c r="L118" s="147"/>
-      <c r="M118" s="147"/>
-      <c r="N118" s="157"/>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B119" s="156"/>
-      <c r="C119" s="112"/>
-      <c r="D119" s="112"/>
-      <c r="E119" s="112"/>
-      <c r="F119" s="112"/>
-      <c r="G119" s="112"/>
-      <c r="H119" s="112"/>
-      <c r="I119" s="112"/>
-      <c r="J119" s="112"/>
-      <c r="K119" s="147"/>
-      <c r="L119" s="147"/>
-      <c r="M119" s="147"/>
-      <c r="N119" s="157"/>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B120" s="156"/>
-      <c r="C120" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D120" s="147"/>
-      <c r="E120" s="147"/>
-      <c r="F120" s="147"/>
-      <c r="G120" s="165"/>
-      <c r="H120" s="112"/>
-      <c r="I120" s="112"/>
-      <c r="J120" s="112"/>
-      <c r="K120" s="147"/>
-      <c r="L120" s="147"/>
-      <c r="M120" s="147"/>
-      <c r="N120" s="157"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B121" s="156"/>
-      <c r="C121" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="D121" s="147"/>
-      <c r="E121" s="147">
-        <v>12</v>
-      </c>
-      <c r="F121" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="G121" s="112"/>
-      <c r="H121" s="112"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="112"/>
-      <c r="K121" s="147"/>
-      <c r="L121" s="147"/>
-      <c r="M121" s="147"/>
-      <c r="N121" s="157"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B122" s="156"/>
-      <c r="C122" s="147"/>
-      <c r="D122" s="147"/>
-      <c r="E122" s="147">
-        <v>1</v>
-      </c>
-      <c r="F122" s="165" t="s">
-        <v>154</v>
-      </c>
-      <c r="G122" s="112"/>
-      <c r="H122" s="112"/>
-      <c r="I122" s="112"/>
-      <c r="J122" s="112"/>
-      <c r="K122" s="147"/>
-      <c r="L122" s="147"/>
-      <c r="M122" s="147"/>
-      <c r="N122" s="157"/>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B123" s="156"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="112"/>
-      <c r="E123" s="112"/>
-      <c r="F123" s="165"/>
-      <c r="G123" s="112"/>
-      <c r="H123" s="112"/>
-      <c r="I123" s="112"/>
-      <c r="J123" s="112"/>
-      <c r="K123" s="147"/>
-      <c r="L123" s="147"/>
-      <c r="M123" s="147"/>
-      <c r="N123" s="157"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B124" s="156"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="112"/>
-      <c r="E124" s="112"/>
-      <c r="F124" s="165"/>
-      <c r="G124" s="112"/>
-      <c r="H124" s="112"/>
-      <c r="I124" s="112"/>
-      <c r="J124" s="112"/>
-      <c r="K124" s="147"/>
-      <c r="L124" s="147"/>
-      <c r="M124" s="147"/>
-      <c r="N124" s="157"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B125" s="156"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="112"/>
-      <c r="E125" s="112"/>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112"/>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112"/>
-      <c r="J125" s="112"/>
-      <c r="K125" s="147"/>
-      <c r="L125" s="147"/>
-      <c r="M125" s="147"/>
-      <c r="N125" s="157"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B126" s="156"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="112"/>
-      <c r="F126" s="112"/>
-      <c r="G126" s="112"/>
-      <c r="H126" s="112"/>
-      <c r="I126" s="112"/>
-      <c r="J126" s="112"/>
-      <c r="K126" s="147"/>
-      <c r="L126" s="147"/>
-      <c r="M126" s="147"/>
-      <c r="N126" s="157"/>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B127" s="156"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="112"/>
-      <c r="F127" s="112"/>
-      <c r="G127" s="112"/>
-      <c r="H127" s="112"/>
-      <c r="I127" s="112"/>
-      <c r="J127" s="112"/>
-      <c r="K127" s="147"/>
-      <c r="L127" s="147"/>
-      <c r="M127" s="147"/>
-      <c r="N127" s="157"/>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B128" s="156"/>
-      <c r="C128" s="112"/>
-      <c r="D128" s="112"/>
-      <c r="E128" s="112"/>
-      <c r="F128" s="112"/>
-      <c r="G128" s="112"/>
-      <c r="H128" s="112"/>
-      <c r="I128" s="112"/>
-      <c r="J128" s="112"/>
-      <c r="K128" s="147"/>
-      <c r="L128" s="147"/>
-      <c r="M128" s="147"/>
-      <c r="N128" s="157"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B129" s="156"/>
-      <c r="C129" s="112"/>
-      <c r="D129" s="112"/>
-      <c r="E129" s="112"/>
-      <c r="F129" s="112"/>
-      <c r="G129" s="112"/>
-      <c r="H129" s="112"/>
-      <c r="I129" s="112"/>
-      <c r="J129" s="112"/>
-      <c r="K129" s="147"/>
-      <c r="L129" s="147"/>
-      <c r="M129" s="147"/>
-      <c r="N129" s="157"/>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B130" s="156"/>
-      <c r="F130" s="112"/>
-      <c r="G130" s="112"/>
-      <c r="H130" s="112"/>
-      <c r="I130" s="112"/>
-      <c r="J130" s="112"/>
-      <c r="K130" s="147"/>
-      <c r="L130" s="147"/>
-      <c r="M130" s="147"/>
-      <c r="N130" s="157"/>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B131" s="156"/>
-      <c r="F131" s="112"/>
-      <c r="G131" s="112"/>
-      <c r="H131" s="112"/>
-      <c r="I131" s="112"/>
-      <c r="J131" s="112"/>
-      <c r="K131" s="147"/>
-      <c r="L131" s="147"/>
-      <c r="M131" s="147"/>
-      <c r="N131" s="157"/>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B132" s="156"/>
-      <c r="F132" s="112"/>
-      <c r="G132" s="112"/>
-      <c r="H132" s="112"/>
-      <c r="I132" s="112"/>
-      <c r="J132" s="112"/>
-      <c r="K132" s="147"/>
-      <c r="L132" s="147"/>
-      <c r="M132" s="147"/>
-      <c r="N132" s="157"/>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B133" s="156"/>
-      <c r="F133" s="112"/>
-      <c r="G133" s="112"/>
-      <c r="H133" s="112"/>
-      <c r="I133" s="112"/>
-      <c r="J133" s="112"/>
-      <c r="K133" s="147"/>
-      <c r="L133" s="147"/>
-      <c r="M133" s="147"/>
-      <c r="N133" s="157"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B134" s="156"/>
-      <c r="F134" s="147"/>
-      <c r="G134" s="112"/>
-      <c r="H134" s="112"/>
-      <c r="I134" s="112"/>
-      <c r="J134" s="112"/>
-      <c r="K134" s="147"/>
-      <c r="L134" s="147"/>
-      <c r="M134" s="147"/>
-      <c r="N134" s="157"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B135" s="156"/>
-      <c r="F135" s="147"/>
-      <c r="G135" s="112"/>
-      <c r="H135" s="112"/>
-      <c r="I135" s="112"/>
-      <c r="J135" s="112"/>
-      <c r="K135" s="147"/>
-      <c r="L135" s="147"/>
-      <c r="M135" s="147"/>
-      <c r="N135" s="157"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B136" s="156"/>
-      <c r="F136" s="147"/>
-      <c r="G136" s="112"/>
-      <c r="H136" s="112"/>
-      <c r="I136" s="112"/>
-      <c r="J136" s="112"/>
-      <c r="K136" s="147"/>
-      <c r="L136" s="147"/>
-      <c r="M136" s="147"/>
-      <c r="N136" s="157"/>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B137" s="156"/>
-      <c r="F137" s="112"/>
-      <c r="G137" s="112"/>
-      <c r="H137" s="112"/>
-      <c r="I137" s="112"/>
-      <c r="J137" s="112"/>
-      <c r="K137" s="147"/>
-      <c r="L137" s="147"/>
-      <c r="M137" s="147"/>
-      <c r="N137" s="157"/>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B138" s="156"/>
-      <c r="F138" s="112"/>
-      <c r="G138" s="112"/>
-      <c r="H138" s="112"/>
-      <c r="I138" s="112"/>
-      <c r="J138" s="112"/>
-      <c r="K138" s="147"/>
-      <c r="L138" s="147"/>
-      <c r="M138" s="147"/>
-      <c r="N138" s="157"/>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B139" s="156"/>
-      <c r="F139" s="112"/>
-      <c r="G139" s="112"/>
-      <c r="H139" s="112"/>
-      <c r="I139" s="112"/>
-      <c r="J139" s="112"/>
-      <c r="K139" s="147"/>
-      <c r="L139" s="147"/>
-      <c r="M139" s="147"/>
-      <c r="N139" s="157"/>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B140" s="156"/>
-      <c r="F140" s="112"/>
-      <c r="G140" s="112"/>
-      <c r="H140" s="112"/>
-      <c r="I140" s="112"/>
-      <c r="J140" s="112"/>
-      <c r="K140" s="147"/>
-      <c r="L140" s="147"/>
-      <c r="M140" s="147"/>
-      <c r="N140" s="157"/>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B141" s="156"/>
-      <c r="F141" s="112"/>
-      <c r="G141" s="112"/>
-      <c r="H141" s="112"/>
-      <c r="I141" s="112"/>
-      <c r="J141" s="112"/>
-      <c r="K141" s="147"/>
-      <c r="L141" s="147"/>
-      <c r="M141" s="147"/>
-      <c r="N141" s="157"/>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B142" s="156"/>
-      <c r="F142" s="112"/>
-      <c r="G142" s="112"/>
-      <c r="H142" s="112"/>
-      <c r="I142" s="112"/>
-      <c r="J142" s="112"/>
-      <c r="K142" s="147"/>
-      <c r="L142" s="147"/>
-      <c r="M142" s="147"/>
-      <c r="N142" s="157"/>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B143" s="156"/>
-      <c r="F143" s="112"/>
-      <c r="G143" s="112"/>
-      <c r="H143" s="112"/>
-      <c r="I143" s="112"/>
-      <c r="J143" s="112"/>
-      <c r="K143" s="147"/>
-      <c r="L143" s="147"/>
-      <c r="M143" s="147"/>
-      <c r="N143" s="157"/>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B144" s="156"/>
-      <c r="F144" s="112"/>
-      <c r="G144" s="112"/>
-      <c r="H144" s="112"/>
-      <c r="I144" s="112"/>
-      <c r="J144" s="112"/>
-      <c r="K144" s="147"/>
-      <c r="L144" s="147"/>
-      <c r="M144" s="147"/>
-      <c r="N144" s="157"/>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G145" s="147"/>
-      <c r="H145" s="147"/>
-      <c r="I145" s="147"/>
-      <c r="J145" s="147"/>
-      <c r="K145" s="147"/>
-      <c r="L145" s="147"/>
-      <c r="M145" s="147"/>
-      <c r="N145" s="157"/>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G146" s="147"/>
-      <c r="H146" s="147"/>
-      <c r="I146" s="147"/>
-      <c r="J146" s="147"/>
-      <c r="K146" s="147"/>
-      <c r="L146" s="147"/>
-      <c r="M146" s="147"/>
-      <c r="N146" s="157"/>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G147" s="147"/>
-      <c r="H147" s="147"/>
-      <c r="I147" s="147"/>
-      <c r="J147" s="147"/>
-      <c r="K147" s="147"/>
-      <c r="L147" s="147"/>
-      <c r="M147" s="147"/>
-      <c r="N147" s="157"/>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G148" s="147"/>
-      <c r="H148" s="147"/>
-      <c r="I148" s="147"/>
-      <c r="J148" s="147"/>
-      <c r="K148" s="147"/>
-      <c r="L148" s="147"/>
-      <c r="M148" s="147"/>
-      <c r="N148" s="157"/>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G149" s="147"/>
-      <c r="H149" s="147"/>
-      <c r="I149" s="147"/>
-      <c r="J149" s="147"/>
-      <c r="K149" s="147"/>
-      <c r="L149" s="147"/>
-      <c r="M149" s="147"/>
-      <c r="N149" s="157"/>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G150" s="147"/>
-      <c r="H150" s="147"/>
-      <c r="I150" s="147"/>
-      <c r="J150" s="147"/>
-      <c r="K150" s="147"/>
-      <c r="L150" s="147"/>
-      <c r="M150" s="147"/>
-      <c r="N150" s="157"/>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B151" s="156"/>
-      <c r="C151" s="147"/>
-      <c r="D151" s="147"/>
-      <c r="E151" s="147"/>
-      <c r="F151" s="147"/>
-      <c r="G151" s="147"/>
-      <c r="H151" s="147"/>
-      <c r="I151" s="147"/>
-      <c r="J151" s="147"/>
-      <c r="K151" s="147"/>
-      <c r="L151" s="147"/>
-      <c r="M151" s="147"/>
-      <c r="N151" s="157"/>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B152" s="156"/>
-      <c r="G152" s="147"/>
-      <c r="H152" s="147"/>
-      <c r="I152" s="147"/>
-      <c r="J152" s="147"/>
-      <c r="K152" s="147"/>
-      <c r="L152" s="147"/>
-      <c r="M152" s="147"/>
-      <c r="N152" s="157"/>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B153" s="156"/>
-      <c r="G153" s="147"/>
-      <c r="H153" s="147"/>
-      <c r="I153" s="147"/>
-      <c r="J153" s="147"/>
-      <c r="K153" s="147"/>
-      <c r="L153" s="147"/>
-      <c r="M153" s="147"/>
-      <c r="N153" s="157"/>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B154" s="156"/>
-      <c r="N154" s="157"/>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B155" s="156"/>
-      <c r="N155" s="157"/>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B156" s="156"/>
-      <c r="N156" s="157"/>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B157" s="156"/>
-      <c r="C157" s="147"/>
-      <c r="D157" s="147"/>
-      <c r="E157" s="147"/>
-      <c r="F157" s="112"/>
-      <c r="G157" s="112"/>
-      <c r="H157" s="112"/>
-      <c r="I157" s="112"/>
-      <c r="J157" s="112"/>
-      <c r="K157" s="147"/>
-      <c r="L157" s="147"/>
-      <c r="M157" s="147"/>
-      <c r="N157" s="157"/>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B158" s="156"/>
-      <c r="C158" s="147"/>
-      <c r="D158" s="147"/>
-      <c r="E158" s="147"/>
-      <c r="F158" s="147"/>
-      <c r="G158" s="147"/>
-      <c r="H158" s="147"/>
-      <c r="I158" s="147"/>
-      <c r="J158" s="147"/>
-      <c r="K158" s="147"/>
-      <c r="L158" s="147"/>
-      <c r="M158" s="147"/>
-      <c r="N158" s="157"/>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B159" s="156"/>
-      <c r="N159" s="157"/>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B160" s="156"/>
-      <c r="N160" s="157"/>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B161" s="156"/>
-      <c r="N161" s="157"/>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B162" s="156"/>
-      <c r="N162" s="157"/>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B163" s="156"/>
-      <c r="N163" s="157"/>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B164" s="156"/>
-      <c r="N164" s="157"/>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B165" s="156"/>
-      <c r="N165" s="157"/>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B166" s="156"/>
-      <c r="N166" s="157"/>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B167" s="156"/>
-      <c r="N167" s="157"/>
+      <c r="N126" s="199"/>
+    </row>
+    <row r="127" spans="2:14" s="192" customFormat="1">
+      <c r="B127" s="197"/>
+      <c r="D127" s="198"/>
+      <c r="E127" s="198"/>
+      <c r="F127" s="198"/>
+      <c r="G127" s="198"/>
+      <c r="N127" s="199"/>
+    </row>
+    <row r="128" spans="2:14" s="192" customFormat="1">
+      <c r="B128" s="197"/>
+      <c r="D128" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128" s="198">
+        <f>E124+(E126/E60)</f>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="F128" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="G128" s="198"/>
+      <c r="N128" s="199"/>
+    </row>
+    <row r="129" spans="2:14" s="192" customFormat="1">
+      <c r="B129" s="197"/>
+      <c r="D129" s="198"/>
+      <c r="E129" s="198"/>
+      <c r="F129" s="198"/>
+      <c r="G129" s="198"/>
+      <c r="N129" s="199"/>
+    </row>
+    <row r="130" spans="2:14" s="192" customFormat="1">
+      <c r="B130" s="197"/>
+      <c r="D130" s="198"/>
+      <c r="E130" s="198"/>
+      <c r="F130" s="198"/>
+      <c r="G130" s="198"/>
+      <c r="N130" s="199"/>
+    </row>
+    <row r="131" spans="2:14" s="192" customFormat="1">
+      <c r="B131" s="197"/>
+      <c r="D131" s="198"/>
+      <c r="E131" s="198"/>
+      <c r="F131" s="198"/>
+      <c r="G131" s="198"/>
+      <c r="N131" s="199"/>
+    </row>
+    <row r="132" spans="2:14" s="192" customFormat="1">
+      <c r="B132" s="197"/>
+      <c r="D132" s="198"/>
+      <c r="E132" s="198"/>
+      <c r="F132" s="198"/>
+      <c r="G132" s="198"/>
+      <c r="N132" s="199"/>
+    </row>
+    <row r="133" spans="2:14" s="192" customFormat="1">
+      <c r="B133" s="197"/>
+      <c r="D133" s="198"/>
+      <c r="E133" s="198"/>
+      <c r="F133" s="198"/>
+      <c r="G133" s="198"/>
+      <c r="N133" s="199"/>
+    </row>
+    <row r="134" spans="2:14" s="192" customFormat="1">
+      <c r="B134" s="197"/>
+      <c r="D134" s="198"/>
+      <c r="E134" s="198"/>
+      <c r="F134" s="198"/>
+      <c r="G134" s="198"/>
+      <c r="N134" s="199"/>
+    </row>
+    <row r="135" spans="2:14" s="192" customFormat="1">
+      <c r="B135" s="197"/>
+      <c r="D135" s="198"/>
+      <c r="E135" s="198"/>
+      <c r="F135" s="198"/>
+      <c r="G135" s="198"/>
+      <c r="N135" s="199"/>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="B136" s="148"/>
+      <c r="C136" s="140"/>
+      <c r="D136" s="140"/>
+      <c r="E136" s="140"/>
+      <c r="F136" s="140"/>
+      <c r="G136" s="140"/>
+      <c r="H136" s="140"/>
+      <c r="I136" s="140"/>
+      <c r="J136" s="140"/>
+      <c r="K136" s="140"/>
+      <c r="L136" s="140"/>
+      <c r="M136" s="140"/>
+      <c r="N136" s="149"/>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="B137" s="148"/>
+      <c r="G137" s="140"/>
+      <c r="H137" s="140"/>
+      <c r="I137" s="140"/>
+      <c r="J137" s="140"/>
+      <c r="K137" s="140"/>
+      <c r="L137" s="140"/>
+      <c r="M137" s="140"/>
+      <c r="N137" s="149"/>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="B138" s="148"/>
+      <c r="G138" s="140"/>
+      <c r="H138" s="140"/>
+      <c r="I138" s="140"/>
+      <c r="J138" s="140"/>
+      <c r="K138" s="140"/>
+      <c r="L138" s="140"/>
+      <c r="M138" s="140"/>
+      <c r="N138" s="149"/>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="B139" s="148"/>
+      <c r="N139" s="149"/>
+    </row>
+    <row r="140" spans="2:14">
+      <c r="B140" s="148"/>
+      <c r="N140" s="149"/>
+    </row>
+    <row r="141" spans="2:14">
+      <c r="B141" s="148"/>
+      <c r="D141" s="192" t="s">
+        <v>188</v>
+      </c>
+      <c r="N141" s="149"/>
+    </row>
+    <row r="142" spans="2:14">
+      <c r="B142" s="148"/>
+      <c r="C142" s="140"/>
+      <c r="D142" s="140"/>
+      <c r="E142" s="140"/>
+      <c r="F142" s="107"/>
+      <c r="G142" s="107"/>
+      <c r="H142" s="107"/>
+      <c r="I142" s="107"/>
+      <c r="J142" s="107"/>
+      <c r="K142" s="140"/>
+      <c r="L142" s="140"/>
+      <c r="M142" s="140"/>
+      <c r="N142" s="149"/>
+    </row>
+    <row r="143" spans="2:14">
+      <c r="B143" s="148"/>
+      <c r="C143" s="140"/>
+      <c r="D143" s="140"/>
+      <c r="E143" s="140"/>
+      <c r="F143" s="140"/>
+      <c r="G143" s="140"/>
+      <c r="H143" s="140"/>
+      <c r="I143" s="140"/>
+      <c r="J143" s="140"/>
+      <c r="K143" s="140"/>
+      <c r="L143" s="140"/>
+      <c r="M143" s="140"/>
+      <c r="N143" s="149"/>
+    </row>
+    <row r="144" spans="2:14">
+      <c r="B144" s="148"/>
+      <c r="N144" s="149"/>
+    </row>
+    <row r="145" spans="2:14">
+      <c r="B145" s="148"/>
+      <c r="D145" s="192"/>
+      <c r="N145" s="149"/>
+    </row>
+    <row r="146" spans="2:14">
+      <c r="B146" s="148"/>
+      <c r="D146" s="192"/>
+      <c r="N146" s="149"/>
+    </row>
+    <row r="147" spans="2:14">
+      <c r="B147" s="148"/>
+      <c r="D147" s="192"/>
+      <c r="N147" s="149"/>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="B148" s="148"/>
+      <c r="N148" s="149"/>
+    </row>
+    <row r="149" spans="2:14">
+      <c r="B149" s="148"/>
+      <c r="N149" s="149"/>
+    </row>
+    <row r="150" spans="2:14">
+      <c r="B150" s="148"/>
+      <c r="N150" s="149"/>
+    </row>
+    <row r="151" spans="2:14">
+      <c r="B151" s="148"/>
+      <c r="N151" s="149"/>
+    </row>
+    <row r="152" spans="2:14">
+      <c r="B152" s="148"/>
+      <c r="N152" s="149"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29152926-E618-6F4A-93E3-89F902688EEE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED0DB33-4B67-944F-BA07-7CD5F0406445}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27180" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="179">
   <si>
     <t>Source</t>
   </si>
@@ -190,18 +190,6 @@
     <t>heat_output_capacity</t>
   </si>
   <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
   </si>
   <si>
     <t>hours_remov_nl</t>
-  </si>
-  <si>
-    <t>simult_se</t>
   </si>
   <si>
     <t>hours_maint_nl</t>
@@ -332,67 +317,6 @@
       </rPr>
       <t xml:space="preserve"> for ccs</t>
     </r>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the summer day</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in the summer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>evining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>winter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> day</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>winter evining</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <r>
@@ -1771,7 +1695,7 @@
     <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1914,82 +1838,79 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2004,44 +1925,44 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2068,8 +1989,57 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2096,55 +2066,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="310">
@@ -3376,16 +3297,16 @@
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3409,107 +3330,107 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
-      <c r="B9" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="105"/>
+      <c r="B9" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="102"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7"/>
-      <c r="B11" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>84</v>
+      <c r="B11" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="106"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="23" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="109" t="s">
-        <v>86</v>
+      <c r="B13" s="103"/>
+      <c r="C13" s="106" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
-        <v>87</v>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7"/>
-      <c r="B16" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="110" t="s">
-        <v>89</v>
+      <c r="B16" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="111" t="s">
-        <v>90</v>
+      <c r="B17" s="103"/>
+      <c r="C17" s="108" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="112" t="s">
-        <v>91</v>
+      <c r="B18" s="103"/>
+      <c r="C18" s="109" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="113" t="s">
-        <v>92</v>
+      <c r="B19" s="103"/>
+      <c r="C19" s="110" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115" t="s">
-        <v>93</v>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
-        <v>94</v>
+      <c r="B21" s="111"/>
+      <c r="C21" s="113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="117" t="s">
-        <v>95</v>
+      <c r="B22" s="111"/>
+      <c r="C22" s="114" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="118" t="s">
-        <v>96</v>
+      <c r="B23" s="111"/>
+      <c r="C23" s="115" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3523,10 +3444,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3555,42 +3476,42 @@
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="182" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="184"/>
+      <c r="B2" s="208" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="210"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="187"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="185"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="187"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="188"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="190"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -3622,7 +3543,7 @@
       <c r="C8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="132" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -3636,7 +3557,7 @@
       <c r="I8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="131"/>
+      <c r="J8" s="128"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="18">
       <c r="B9" s="40"/>
@@ -3652,7 +3573,7 @@
     <row r="10" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="40"/>
       <c r="C10" s="23" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D10" s="70"/>
       <c r="E10" s="23"/>
@@ -3677,8 +3598,8 @@
       <c r="F11" s="30"/>
       <c r="G11" s="81"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="161" t="s">
-        <v>117</v>
+      <c r="I11" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="J11" s="22"/>
     </row>
@@ -3697,9 +3618,9 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="132"/>
+        <v>63</v>
+      </c>
+      <c r="J12" s="129"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
@@ -3717,9 +3638,9 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="132"/>
+        <v>63</v>
+      </c>
+      <c r="J13" s="129"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1">
@@ -3738,9 +3659,9 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="133"/>
+        <v>63</v>
+      </c>
+      <c r="J14" s="130"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1">
@@ -3759,9 +3680,9 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="133"/>
+        <v>63</v>
+      </c>
+      <c r="J15" s="130"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
@@ -3771,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E16" s="78">
         <f>'Research data'!H7</f>
@@ -3782,10 +3703,10 @@
         <v>29</v>
       </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="132"/>
+      <c r="I16" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="129"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
@@ -3795,151 +3716,153 @@
         <v>45</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E17" s="78">
         <v>0</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="80" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="161" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="132"/>
+      <c r="I17" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="129"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1">
+    <row r="18" spans="1:11">
       <c r="B18" s="34"/>
-      <c r="C18" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="78">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="132"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="B19" s="34"/>
-      <c r="C19" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="78">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="132"/>
+      <c r="C19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="135"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="34"/>
       <c r="C20" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="33">
-        <f>-0.2</f>
-        <v>-0.2</v>
+        <v>36</v>
+      </c>
+      <c r="E20" s="36">
+        <f>'Research data'!H15</f>
+        <v>16420000</v>
       </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="84" t="s">
-        <v>74</v>
+      <c r="G20" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="H20" s="30"/>
-      <c r="I20" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="132"/>
+      <c r="I20" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:11" ht="17" thickBot="1">
       <c r="B21" s="34"/>
       <c r="C21" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E21" s="78">
         <v>0</v>
       </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="84" t="s">
-        <v>75</v>
+      <c r="G21" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="132"/>
+      <c r="I21" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="34"/>
       <c r="C22" s="75" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E22" s="78">
+        <f>'Research data'!H20</f>
+        <v>1000000</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="129"/>
+    </row>
+    <row r="23" spans="1:11" ht="17" thickBot="1">
+      <c r="B23" s="34"/>
+      <c r="C23" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="78">
         <v>0</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="132"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="34"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="132"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="129"/>
     </row>
     <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="34"/>
-      <c r="C24" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="132"/>
+      <c r="C24" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="133">
+        <f>'Research data'!H22</f>
+        <v>318000</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="B25" s="34"/>
@@ -3947,21 +3870,21 @@
         <v>50</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="36">
-        <f>'Research data'!H15</f>
-        <v>16420000</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="133">
+        <f>'Research data'!H24</f>
+        <v>0</v>
       </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
-        <v>10</v>
+      <c r="G25" s="80" t="s">
+        <v>62</v>
       </c>
       <c r="H25" s="30"/>
-      <c r="I25" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="134"/>
+      <c r="I25" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="B26" s="34"/>
@@ -3969,264 +3892,251 @@
         <v>51</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="78">
+        <v>60</v>
+      </c>
+      <c r="E26" s="133">
         <v>0</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H26" s="30"/>
-      <c r="I26" s="161" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="134"/>
+      <c r="I26" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1">
       <c r="B27" s="34"/>
       <c r="C27" s="75" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="78">
-        <f>'Research data'!H20</f>
-        <v>1000000</v>
+        <v>3</v>
+      </c>
+      <c r="E27" s="100">
+        <f>'Research data'!H25</f>
+        <v>0.05</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="30"/>
-      <c r="I27" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="132"/>
+      <c r="I27" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="B28" s="34"/>
       <c r="C28" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E28" s="78">
         <v>0</v>
       </c>
       <c r="F28" s="30"/>
-      <c r="G28" s="166" t="s">
-        <v>128</v>
-      </c>
+      <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="132"/>
-    </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1">
+        <v>63</v>
+      </c>
+      <c r="J28" s="129"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" s="34"/>
-      <c r="C29" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="136">
-        <f>'Research data'!H22</f>
-        <v>318000</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" s="132"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="129"/>
     </row>
     <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="B30" s="34"/>
-      <c r="C30" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="136">
-        <f>'Research data'!H24</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="132"/>
+      <c r="C30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="135"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:11" ht="17" thickBot="1">
       <c r="B31" s="34"/>
-      <c r="C31" s="75" t="s">
-        <v>55</v>
+      <c r="C31" s="73" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="136">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E31" s="99">
+        <f>'Research data'!H12</f>
+        <v>0.3</v>
       </c>
       <c r="F31" s="30"/>
-      <c r="G31" s="80" t="s">
-        <v>71</v>
+      <c r="G31" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H31" s="30"/>
-      <c r="I31" s="162" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="132"/>
+      <c r="I31" s="158" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="129"/>
     </row>
     <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="B32" s="34"/>
       <c r="C32" s="75" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="103">
-        <f>'Research data'!H25</f>
-        <v>0.05</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="133">
+        <f>'Research data'!H10</f>
+        <v>0.5</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H32" s="30"/>
-      <c r="I32" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32" s="132"/>
+      <c r="I32" s="177" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="34"/>
       <c r="C33" s="75" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E33" s="78">
+        <f>'Research data'!H11</f>
+        <v>25</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="129"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
+      <c r="B34" s="34"/>
+      <c r="C34" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="78">
         <v>0</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="132"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="34"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="132"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="34"/>
-      <c r="C35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="138"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="132"/>
+      <c r="C35" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="78">
+        <v>0</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="129"/>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="34"/>
-      <c r="C36" s="73" t="s">
-        <v>40</v>
+      <c r="C36" s="75" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="102">
-        <f>'Research data'!H12</f>
-        <v>0.3</v>
+        <v>5</v>
+      </c>
+      <c r="E36" s="78">
+        <v>0</v>
       </c>
       <c r="F36" s="30"/>
-      <c r="G36" s="30" t="s">
-        <v>17</v>
-      </c>
+      <c r="G36" s="30"/>
       <c r="H36" s="30"/>
-      <c r="I36" s="161" t="s">
-        <v>127</v>
-      </c>
-      <c r="J36" s="132"/>
+      <c r="I36" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="34"/>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="136">
-        <f>'Research data'!H10</f>
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="E37" s="33">
+        <v>222222.22219999999</v>
       </c>
       <c r="F37" s="30"/>
-      <c r="G37" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G37" s="30"/>
       <c r="H37" s="30"/>
-      <c r="I37" s="180" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="132"/>
+      <c r="I37" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="129"/>
     </row>
     <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="34"/>
-      <c r="C38" s="75" t="s">
-        <v>57</v>
+      <c r="C38" s="74" t="s">
+        <v>58</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="78">
-        <f>'Research data'!H11</f>
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="33">
+        <v>4444.4444439999997</v>
       </c>
       <c r="F38" s="30"/>
-      <c r="G38" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="G38" s="30"/>
       <c r="H38" s="30"/>
-      <c r="I38" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="132"/>
+      <c r="I38" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="129"/>
     </row>
     <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="34"/>
-      <c r="C39" s="73" t="s">
-        <v>38</v>
+      <c r="C39" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>5</v>
@@ -4238,127 +4148,82 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="132"/>
+        <v>63</v>
+      </c>
+      <c r="J39" s="129"/>
     </row>
     <row r="40" spans="2:10" ht="17" thickBot="1">
-      <c r="B40" s="34"/>
-      <c r="C40" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="78">
-        <v>0</v>
-      </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="132"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
-      <c r="B41" s="34"/>
-      <c r="C41" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="78">
-        <v>0</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J41" s="132"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
-      <c r="B42" s="34"/>
-      <c r="C42" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="33">
-        <v>222222.22219999999</v>
-      </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J42" s="132"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
-      <c r="B43" s="34"/>
-      <c r="C43" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="33">
-        <v>4444.4444439999997</v>
-      </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43" s="132"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
-      <c r="B44" s="34"/>
-      <c r="C44" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="78">
-        <v>0</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J44" s="132"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="6"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="2:10" ht="20" customHeight="1">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-    </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4427,56 +4292,6 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4537,30 +4352,30 @@
     </row>
     <row r="3" spans="2:15" s="42" customFormat="1">
       <c r="B3" s="40"/>
-      <c r="C3" s="123" t="s">
-        <v>100</v>
+      <c r="C3" s="120" t="s">
+        <v>90</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123" t="s">
-        <v>106</v>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -4574,7 +4389,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="18"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="130"/>
+      <c r="L4" s="127"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -4582,7 +4397,7 @@
     <row r="5" spans="2:15" ht="17" thickBot="1">
       <c r="B5" s="34"/>
       <c r="C5" s="72" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -4599,22 +4414,22 @@
     </row>
     <row r="6" spans="2:15" ht="17" thickBot="1">
       <c r="B6" s="34"/>
-      <c r="C6" s="157" t="s">
-        <v>131</v>
+      <c r="C6" s="154" t="s">
+        <v>121</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="155" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="72"/>
-      <c r="H6" s="179">
+      <c r="H6" s="176">
         <f>K6</f>
         <v>0.17</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="159">
+      <c r="K6" s="156">
         <f>Notes!E9</f>
         <v>0.17</v>
       </c>
@@ -4630,25 +4445,25 @@
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="158" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="208">
+      <c r="F7" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="121"/>
+      <c r="H7" s="196">
         <f>K7</f>
         <v>20</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="159">
+      <c r="K7" s="156">
         <f>Notes!E23</f>
         <v>20</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="166" t="s">
-        <v>129</v>
+      <c r="O7" s="163" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -4665,8 +4480,8 @@
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
-      <c r="O8" s="167" t="s">
-        <v>130</v>
+      <c r="O8" s="164" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="17" thickBot="1">
@@ -4685,7 +4500,7 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="127"/>
+      <c r="O9" s="124"/>
     </row>
     <row r="10" spans="2:15" ht="17" thickBot="1">
       <c r="B10" s="34"/>
@@ -4698,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="47"/>
-      <c r="H10" s="196">
+      <c r="H10" s="184">
         <f>M10</f>
         <v>0.5</v>
       </c>
@@ -4706,12 +4521,12 @@
       <c r="J10" s="50"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="179">
+      <c r="M10" s="176">
         <f>Notes!E72</f>
         <v>0.5</v>
       </c>
       <c r="N10" s="32"/>
-      <c r="O10" s="86"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="2:15" ht="17" thickBot="1">
       <c r="B11" s="34"/>
@@ -4724,7 +4539,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="47"/>
-      <c r="H11" s="87">
+      <c r="H11" s="84">
         <f>K11</f>
         <v>25</v>
       </c>
@@ -4741,8 +4556,8 @@
     </row>
     <row r="12" spans="2:15" ht="17" thickBot="1">
       <c r="B12" s="34"/>
-      <c r="C12" s="129" t="s">
-        <v>104</v>
+      <c r="C12" s="126" t="s">
+        <v>94</v>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
@@ -4763,8 +4578,8 @@
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
-      <c r="O12" s="181" t="s">
-        <v>135</v>
+      <c r="O12" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -4781,12 +4596,12 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="119"/>
+      <c r="O13" s="116"/>
     </row>
     <row r="14" spans="2:15" ht="17" thickBot="1">
       <c r="B14" s="34"/>
       <c r="C14" s="21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -4799,26 +4614,26 @@
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
-      <c r="O14" s="119"/>
+      <c r="O14" s="116"/>
     </row>
     <row r="15" spans="2:15" ht="17" thickBot="1">
       <c r="B15" s="34"/>
-      <c r="C15" s="121" t="s">
-        <v>98</v>
+      <c r="C15" s="118" t="s">
+        <v>88</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="168">
+      <c r="G15" s="122"/>
+      <c r="H15" s="165">
         <f>H16*H7*1000</f>
         <v>16420000</v>
       </c>
-      <c r="I15" s="169"/>
+      <c r="I15" s="166"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="170">
+      <c r="K15" s="167">
         <f>K16*H7*1000</f>
         <v>16420000</v>
       </c>
@@ -4829,15 +4644,15 @@
     </row>
     <row r="16" spans="2:15" ht="17" thickBot="1">
       <c r="B16" s="34"/>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="119" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="124"/>
+      <c r="F16" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="121"/>
       <c r="H16" s="55">
         <f>K16</f>
         <v>821</v>
@@ -4851,19 +4666,19 @@
       <c r="L16" s="50"/>
       <c r="M16" s="32"/>
       <c r="N16" s="50"/>
-      <c r="O16" s="142"/>
+      <c r="O16" s="139"/>
     </row>
     <row r="17" spans="2:15" ht="17" thickBot="1">
       <c r="B17" s="34"/>
-      <c r="C17" s="156" t="s">
-        <v>114</v>
+      <c r="C17" s="153" t="s">
+        <v>104</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
-      <c r="F17" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="124"/>
+      <c r="F17" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="121"/>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -4874,19 +4689,19 @@
       <c r="L17" s="50"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-      <c r="O17" s="142"/>
+      <c r="O17" s="139"/>
     </row>
     <row r="18" spans="2:15" ht="17" thickBot="1">
       <c r="B18" s="34"/>
-      <c r="C18" s="156" t="s">
-        <v>113</v>
+      <c r="C18" s="153" t="s">
+        <v>103</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
-      <c r="F18" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="124"/>
+      <c r="F18" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="121"/>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
@@ -4897,19 +4712,19 @@
       <c r="L18" s="50"/>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
-      <c r="O18" s="142"/>
+      <c r="O18" s="139"/>
     </row>
     <row r="19" spans="2:15" ht="17" thickBot="1">
       <c r="B19" s="34"/>
-      <c r="C19" s="156" t="s">
-        <v>115</v>
+      <c r="C19" s="153" t="s">
+        <v>105</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
-      <c r="F19" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="124"/>
+      <c r="F19" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="121"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
@@ -4920,19 +4735,19 @@
       <c r="L19" s="50"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="142"/>
+      <c r="O19" s="139"/>
     </row>
     <row r="20" spans="2:15" ht="17" thickBot="1">
       <c r="B20" s="34"/>
-      <c r="C20" s="217" t="s">
-        <v>186</v>
+      <c r="C20" s="205" t="s">
+        <v>176</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
-      <c r="F20" s="219" t="s">
+      <c r="F20" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="124"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="55">
         <f>K20</f>
         <v>1000000</v>
@@ -4946,19 +4761,19 @@
       <c r="L20" s="50"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-      <c r="O20" s="142"/>
+      <c r="O20" s="139"/>
     </row>
     <row r="21" spans="2:15" ht="17" thickBot="1">
       <c r="B21" s="34"/>
-      <c r="C21" s="217" t="s">
-        <v>165</v>
+      <c r="C21" s="205" t="s">
+        <v>155</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="219" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="124"/>
+      <c r="F21" s="207" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="121"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -4969,45 +4784,45 @@
       <c r="L21" s="50"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="142"/>
+      <c r="O21" s="139"/>
     </row>
     <row r="22" spans="2:15" ht="17" thickBot="1">
       <c r="B22" s="34"/>
-      <c r="C22" s="128" t="s">
-        <v>103</v>
+      <c r="C22" s="125" t="s">
+        <v>93</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
-      <c r="F22" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="124"/>
-      <c r="H22" s="171">
+      <c r="F22" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="121"/>
+      <c r="H22" s="168">
         <f>K22</f>
         <v>318000</v>
       </c>
-      <c r="I22" s="172"/>
+      <c r="I22" s="169"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="171">
+      <c r="K22" s="168">
         <f>K23*H7*1000</f>
         <v>318000</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="143"/>
+      <c r="O22" s="140"/>
     </row>
     <row r="23" spans="2:15" ht="17" thickBot="1">
       <c r="B23" s="34"/>
-      <c r="C23" s="128" t="s">
-        <v>103</v>
+      <c r="C23" s="125" t="s">
+        <v>93</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
-      <c r="F23" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="124"/>
+      <c r="F23" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="121"/>
       <c r="H23" s="52">
         <f>K23</f>
         <v>15.899999999999999</v>
@@ -5021,19 +4836,19 @@
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
-      <c r="O23" s="144"/>
+      <c r="O23" s="141"/>
     </row>
     <row r="24" spans="2:15" ht="17" thickBot="1">
       <c r="B24" s="34"/>
       <c r="C24" s="77" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
-      <c r="F24" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="126"/>
+      <c r="F24" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="123"/>
       <c r="H24" s="53">
         <f>K24</f>
         <v>0</v>
@@ -5046,19 +4861,19 @@
       <c r="L24" s="50"/>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
-      <c r="O24" s="142"/>
+      <c r="O24" s="139"/>
     </row>
     <row r="25" spans="2:15" ht="17" thickBot="1">
       <c r="B25" s="34"/>
-      <c r="C25" s="160" t="s">
-        <v>58</v>
+      <c r="C25" s="157" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
-      <c r="F25" s="158" t="s">
+      <c r="F25" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="126"/>
+      <c r="G25" s="123"/>
       <c r="H25" s="53">
         <f>K25</f>
         <v>0.05</v>
@@ -5071,12 +4886,12 @@
       <c r="L25" s="50"/>
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
-      <c r="O25" s="142"/>
+      <c r="O25" s="139"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="34"/>
-      <c r="C26" s="160"/>
-      <c r="O26" s="89"/>
+      <c r="C26" s="157"/>
+      <c r="O26" s="86"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="34"/>
@@ -5100,32 +4915,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="90" customWidth="1"/>
-    <col min="2" max="2" width="3" style="90" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="90" customWidth="1"/>
-    <col min="5" max="5" width="14" style="90" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="90" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="91" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="91" customWidth="1"/>
-    <col min="10" max="10" width="76.5" style="90" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="90"/>
+    <col min="1" max="1" width="3.5" style="87" customWidth="1"/>
+    <col min="2" max="2" width="3" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="87" customWidth="1"/>
+    <col min="5" max="5" width="14" style="87" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="87" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="88" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="88" customWidth="1"/>
+    <col min="10" max="10" width="76.5" style="87" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="93"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="95"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
@@ -5135,21 +4950,21 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="96"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="96"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="98"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="24" t="s">
         <v>31</v>
       </c>
@@ -5166,17 +4981,17 @@
         <v>33</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="95"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -5187,284 +5002,284 @@
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="95"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="165" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="153" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="152" t="s">
-        <v>123</v>
+      <c r="D7" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="162" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="95"/>
-      <c r="C8" s="100" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="96"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="95"/>
-      <c r="C9" s="100" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="96"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="95"/>
-      <c r="C10" s="100" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="96"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="95"/>
-      <c r="C11" s="164" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="96"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="95"/>
-      <c r="C12" s="164" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="95"/>
+      <c r="B13" s="92"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="95"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="173"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="170"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="95"/>
-      <c r="K15" s="173"/>
+      <c r="B15" s="92"/>
+      <c r="K15" s="170"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="95"/>
-      <c r="C16" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="192" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="209">
+      <c r="B16" s="92"/>
+      <c r="C16" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="197">
         <v>43076</v>
       </c>
-      <c r="F16" s="210">
+      <c r="F16" s="198">
         <v>42744</v>
       </c>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="192" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" s="99"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="180" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="95"/>
-      <c r="C17" s="191" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="192" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="192">
+      <c r="B17" s="92"/>
+      <c r="C17" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="180">
         <v>2018</v>
       </c>
-      <c r="F17" s="193" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="193" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="194" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="101"/>
+      <c r="F17" s="181" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="182" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="94"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="95"/>
-      <c r="C18" s="155" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="152" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="95"/>
+      <c r="B19" s="92"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="95"/>
-      <c r="C20" s="192" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="215">
+      <c r="B20" s="92"/>
+      <c r="C20" s="180" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="203">
         <v>2017</v>
       </c>
-      <c r="G20" s="210"/>
-      <c r="H20" s="192">
+      <c r="G20" s="198"/>
+      <c r="H20" s="180">
         <v>2019</v>
       </c>
-      <c r="I20" s="192" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20" s="192"/>
+      <c r="I20" s="180" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="180"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="95"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="192"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="95"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="95"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="95"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="95"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="95"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="95"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="95"/>
+      <c r="B28" s="92"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="95"/>
+      <c r="B29" s="92"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="95"/>
+      <c r="B30" s="92"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="95"/>
+      <c r="B31" s="92"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="95"/>
+      <c r="B32" s="92"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5485,29 +5300,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="141" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="141" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="141" customWidth="1"/>
-    <col min="4" max="4" width="34" style="141" customWidth="1"/>
-    <col min="5" max="5" width="23" style="141" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="141"/>
+    <col min="1" max="1" width="4.5" style="138" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="138" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="138" customWidth="1"/>
+    <col min="4" max="4" width="34" style="138" customWidth="1"/>
+    <col min="5" max="5" width="23" style="138" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="138"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
     </row>
     <row r="3" spans="2:14" s="42" customFormat="1">
       <c r="B3" s="79"/>
@@ -5515,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -5526,2019 +5341,2019 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
-      <c r="N3" s="151"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="148"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="149"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="146"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="148"/>
-      <c r="C5" s="195" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="149"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="183" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="146"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="148"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="149"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="146"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="148"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="149"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="146"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="148"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="149"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="146"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="148"/>
-      <c r="C9" s="173" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140">
+      <c r="D9" s="137"/>
+      <c r="E9" s="137">
         <v>0.17</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="149"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="146"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="148"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="149"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="146"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="148"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="149"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="146"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="148"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="149"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="146"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="148"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="149"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="146"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="148"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="149"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="146"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="148"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="149"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="146"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="148"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="149"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="146"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="148"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="149"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="146"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="148"/>
-      <c r="C18" s="195" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="149"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="183" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="146"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="148"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="149"/>
-    </row>
-    <row r="20" spans="2:14" s="192" customFormat="1">
-      <c r="B20" s="197"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="195"/>
-      <c r="L20" s="195"/>
-      <c r="M20" s="195"/>
-      <c r="N20" s="199"/>
-    </row>
-    <row r="21" spans="2:14" s="192" customFormat="1">
-      <c r="B21" s="197"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="146"/>
+    </row>
+    <row r="20" spans="2:14" s="180" customFormat="1">
+      <c r="B20" s="185"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="187"/>
+    </row>
+    <row r="21" spans="2:14" s="180" customFormat="1">
+      <c r="B21" s="185"/>
       <c r="C21" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="195"/>
-      <c r="L21" s="195"/>
-      <c r="M21" s="195"/>
-      <c r="N21" s="199"/>
-    </row>
-    <row r="22" spans="2:14" s="192" customFormat="1">
-      <c r="B22" s="197"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="195"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="199"/>
-    </row>
-    <row r="23" spans="2:14" s="192" customFormat="1">
-      <c r="B23" s="197"/>
-      <c r="D23" s="198" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="198">
+        <v>131</v>
+      </c>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="187"/>
+    </row>
+    <row r="22" spans="2:14" s="180" customFormat="1">
+      <c r="B22" s="185"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="187"/>
+    </row>
+    <row r="23" spans="2:14" s="180" customFormat="1">
+      <c r="B23" s="185"/>
+      <c r="D23" s="186" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="186">
         <v>20</v>
       </c>
-      <c r="F23" s="198" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="198"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="195"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="199"/>
-    </row>
-    <row r="24" spans="2:14" s="192" customFormat="1">
-      <c r="B24" s="197"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="200">
+      <c r="F23" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="186"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="187"/>
+    </row>
+    <row r="24" spans="2:14" s="180" customFormat="1">
+      <c r="B24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="188">
         <f>E23*1000</f>
         <v>20000</v>
       </c>
-      <c r="F24" s="198" t="s">
+      <c r="F24" s="186" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="186"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="187"/>
+    </row>
+    <row r="25" spans="2:14" s="180" customFormat="1">
+      <c r="B25" s="185"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="187"/>
+    </row>
+    <row r="26" spans="2:14" s="180" customFormat="1">
+      <c r="B26" s="185"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="187"/>
+    </row>
+    <row r="27" spans="2:14" s="180" customFormat="1">
+      <c r="B27" s="185"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="187"/>
+    </row>
+    <row r="28" spans="2:14" s="180" customFormat="1">
+      <c r="B28" s="185"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="187"/>
+    </row>
+    <row r="29" spans="2:14" s="180" customFormat="1">
+      <c r="B29" s="185"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="187"/>
+    </row>
+    <row r="30" spans="2:14" s="180" customFormat="1">
+      <c r="B30" s="185"/>
+      <c r="C30" s="183" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="187"/>
+    </row>
+    <row r="31" spans="2:14" s="180" customFormat="1">
+      <c r="B31" s="185"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="187"/>
+    </row>
+    <row r="32" spans="2:14" s="180" customFormat="1">
+      <c r="B32" s="185"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="187"/>
+    </row>
+    <row r="33" spans="2:22" s="180" customFormat="1">
+      <c r="B33" s="185"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="187"/>
+    </row>
+    <row r="34" spans="2:22" s="180" customFormat="1">
+      <c r="B34" s="185"/>
+      <c r="D34" s="186" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="198"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="195"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="199"/>
-    </row>
-    <row r="25" spans="2:14" s="192" customFormat="1">
-      <c r="B25" s="197"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="198"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
-      <c r="L25" s="195"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="199"/>
-    </row>
-    <row r="26" spans="2:14" s="192" customFormat="1">
-      <c r="B26" s="197"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="195"/>
-      <c r="L26" s="195"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="199"/>
-    </row>
-    <row r="27" spans="2:14" s="192" customFormat="1">
-      <c r="B27" s="197"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="198"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
-      <c r="L27" s="195"/>
-      <c r="M27" s="195"/>
-      <c r="N27" s="199"/>
-    </row>
-    <row r="28" spans="2:14" s="192" customFormat="1">
-      <c r="B28" s="197"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="195"/>
-      <c r="L28" s="195"/>
-      <c r="M28" s="195"/>
-      <c r="N28" s="199"/>
-    </row>
-    <row r="29" spans="2:14" s="192" customFormat="1">
-      <c r="B29" s="197"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="195"/>
-      <c r="K29" s="195"/>
-      <c r="L29" s="195"/>
-      <c r="M29" s="195"/>
-      <c r="N29" s="199"/>
-    </row>
-    <row r="30" spans="2:14" s="192" customFormat="1">
-      <c r="B30" s="197"/>
-      <c r="C30" s="195" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="198" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" s="195"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="195"/>
-      <c r="L30" s="195"/>
-      <c r="M30" s="195"/>
-      <c r="N30" s="199"/>
-    </row>
-    <row r="31" spans="2:14" s="192" customFormat="1">
-      <c r="B31" s="197"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="195"/>
-      <c r="K31" s="195"/>
-      <c r="L31" s="195"/>
-      <c r="M31" s="195"/>
-      <c r="N31" s="199"/>
-    </row>
-    <row r="32" spans="2:14" s="192" customFormat="1">
-      <c r="B32" s="197"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="195"/>
-      <c r="K32" s="195"/>
-      <c r="L32" s="195"/>
-      <c r="M32" s="195"/>
-      <c r="N32" s="199"/>
-    </row>
-    <row r="33" spans="2:22" s="192" customFormat="1">
-      <c r="B33" s="197"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="195"/>
-      <c r="K33" s="195"/>
-      <c r="L33" s="195"/>
-      <c r="M33" s="195"/>
-      <c r="N33" s="199"/>
-    </row>
-    <row r="34" spans="2:22" s="192" customFormat="1">
-      <c r="B34" s="197"/>
-      <c r="D34" s="198" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="203">
+      <c r="E34" s="191">
         <v>40000</v>
       </c>
-      <c r="F34" s="198" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="198"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="195"/>
-      <c r="N34" s="199"/>
-    </row>
-    <row r="35" spans="2:22" s="192" customFormat="1">
-      <c r="B35" s="197"/>
-      <c r="D35" s="198" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="203">
+      <c r="F34" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="186"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="187"/>
+    </row>
+    <row r="35" spans="2:22" s="180" customFormat="1">
+      <c r="B35" s="185"/>
+      <c r="D35" s="186" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="191">
         <v>600000000</v>
       </c>
-      <c r="F35" s="198" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="198"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="195"/>
-      <c r="L35" s="195"/>
-      <c r="M35" s="195"/>
-      <c r="N35" s="199"/>
-    </row>
-    <row r="36" spans="2:22" s="192" customFormat="1">
-      <c r="B36" s="197"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="195"/>
-      <c r="L36" s="195"/>
-      <c r="M36" s="195"/>
-      <c r="N36" s="199"/>
-    </row>
-    <row r="37" spans="2:22" s="192" customFormat="1">
-      <c r="B37" s="197"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="195"/>
-      <c r="K37" s="195"/>
-      <c r="L37" s="195"/>
-      <c r="M37" s="195"/>
-      <c r="N37" s="199"/>
-    </row>
-    <row r="38" spans="2:22" s="192" customFormat="1">
-      <c r="B38" s="197"/>
-      <c r="D38" s="198" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="204">
+      <c r="F35" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="186"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="187"/>
+    </row>
+    <row r="36" spans="2:22" s="180" customFormat="1">
+      <c r="B36" s="185"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="187"/>
+    </row>
+    <row r="37" spans="2:22" s="180" customFormat="1">
+      <c r="B37" s="185"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="187"/>
+    </row>
+    <row r="38" spans="2:22" s="180" customFormat="1">
+      <c r="B38" s="185"/>
+      <c r="D38" s="186" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="192">
         <f>E35/(E34*1000)</f>
         <v>15</v>
       </c>
-      <c r="F38" s="204" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="198"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="195"/>
-      <c r="K38" s="195"/>
-      <c r="L38" s="195"/>
-      <c r="M38" s="195"/>
-      <c r="N38" s="199"/>
-    </row>
-    <row r="39" spans="2:22" s="192" customFormat="1">
-      <c r="B39" s="197"/>
-      <c r="D39" s="198" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="205">
+      <c r="F38" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="186"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="183"/>
+      <c r="N38" s="187"/>
+    </row>
+    <row r="39" spans="2:22" s="180" customFormat="1">
+      <c r="B39" s="185"/>
+      <c r="D39" s="186" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="193">
         <f>E38*E24</f>
         <v>300000</v>
       </c>
-      <c r="F39" s="204" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="198"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="195"/>
-      <c r="M39" s="195"/>
-      <c r="N39" s="199"/>
-    </row>
-    <row r="40" spans="2:22" s="192" customFormat="1">
-      <c r="B40" s="197"/>
-      <c r="D40" s="198" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="206">
+      <c r="F39" s="192" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="186"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="187"/>
+    </row>
+    <row r="40" spans="2:22" s="180" customFormat="1">
+      <c r="B40" s="185"/>
+      <c r="D40" s="186" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="194">
         <f>E39/1000000</f>
         <v>0.3</v>
       </c>
-      <c r="F40" s="204" t="s">
+      <c r="F40" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="198"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="195"/>
-      <c r="K40" s="195"/>
-      <c r="L40" s="195"/>
-      <c r="M40" s="195"/>
-      <c r="N40" s="199"/>
-    </row>
-    <row r="41" spans="2:22" s="192" customFormat="1">
-      <c r="B41" s="197"/>
-      <c r="C41" s="195"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="198"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="195"/>
-      <c r="K41" s="195"/>
-      <c r="L41" s="195"/>
-      <c r="M41" s="195"/>
-      <c r="N41" s="199"/>
-    </row>
-    <row r="42" spans="2:22" s="192" customFormat="1">
-      <c r="B42" s="197"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="195"/>
-      <c r="K42" s="195"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="199"/>
-    </row>
-    <row r="43" spans="2:22" s="192" customFormat="1">
-      <c r="B43" s="197"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="198"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="199"/>
-    </row>
-    <row r="44" spans="2:22" s="192" customFormat="1">
-      <c r="B44" s="197"/>
-      <c r="C44" s="195"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="198"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="198"/>
-      <c r="I44" s="195"/>
-      <c r="J44" s="195"/>
-      <c r="K44" s="195"/>
-      <c r="L44" s="195"/>
-      <c r="M44" s="195"/>
-      <c r="N44" s="199"/>
-    </row>
-    <row r="45" spans="2:22" s="192" customFormat="1">
-      <c r="B45" s="197"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="198"/>
-      <c r="E45" s="198"/>
-      <c r="F45" s="198"/>
-      <c r="G45" s="198"/>
-      <c r="I45" s="195"/>
-      <c r="J45" s="195"/>
-      <c r="K45" s="195"/>
-      <c r="L45" s="195"/>
-      <c r="M45" s="195"/>
-      <c r="N45" s="199"/>
-      <c r="V45" s="192">
+      <c r="G40" s="186"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="183"/>
+      <c r="N40" s="187"/>
+    </row>
+    <row r="41" spans="2:22" s="180" customFormat="1">
+      <c r="B41" s="185"/>
+      <c r="C41" s="183"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="186"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="187"/>
+    </row>
+    <row r="42" spans="2:22" s="180" customFormat="1">
+      <c r="B42" s="185"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="183"/>
+      <c r="M42" s="183"/>
+      <c r="N42" s="187"/>
+    </row>
+    <row r="43" spans="2:22" s="180" customFormat="1">
+      <c r="B43" s="185"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="187"/>
+    </row>
+    <row r="44" spans="2:22" s="180" customFormat="1">
+      <c r="B44" s="185"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+      <c r="I44" s="183"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="183"/>
+      <c r="N44" s="187"/>
+    </row>
+    <row r="45" spans="2:22" s="180" customFormat="1">
+      <c r="B45" s="185"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
+      <c r="I45" s="183"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="183"/>
+      <c r="N45" s="187"/>
+      <c r="V45" s="180">
         <f>0.8*755</f>
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="2:22" s="192" customFormat="1">
-      <c r="B46" s="197"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="198"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="199"/>
-    </row>
-    <row r="47" spans="2:22" s="192" customFormat="1">
-      <c r="B47" s="197"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="198"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="195"/>
-      <c r="K47" s="195"/>
-      <c r="L47" s="195"/>
-      <c r="M47" s="195"/>
-      <c r="N47" s="199"/>
-    </row>
-    <row r="48" spans="2:22" s="192" customFormat="1">
-      <c r="B48" s="197"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="198"/>
-      <c r="F48" s="198"/>
-      <c r="G48" s="198"/>
-      <c r="I48" s="195"/>
-      <c r="J48" s="195"/>
-      <c r="K48" s="195"/>
-      <c r="L48" s="195"/>
-      <c r="M48" s="195"/>
-      <c r="N48" s="199"/>
-    </row>
-    <row r="49" spans="2:14" s="192" customFormat="1">
-      <c r="B49" s="197"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="198"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="195"/>
-      <c r="K49" s="195"/>
-      <c r="L49" s="195"/>
-      <c r="M49" s="195"/>
-      <c r="N49" s="199"/>
-    </row>
-    <row r="50" spans="2:14" s="192" customFormat="1">
-      <c r="B50" s="197"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="198"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="198"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="195"/>
-      <c r="K50" s="195"/>
-      <c r="L50" s="195"/>
-      <c r="M50" s="195"/>
-      <c r="N50" s="199"/>
-    </row>
-    <row r="51" spans="2:14" s="192" customFormat="1">
-      <c r="B51" s="197"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="198"/>
-      <c r="G51" s="198"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="195"/>
-      <c r="K51" s="195"/>
-      <c r="L51" s="195"/>
-      <c r="M51" s="195"/>
-      <c r="N51" s="199"/>
-    </row>
-    <row r="52" spans="2:14" s="192" customFormat="1">
-      <c r="B52" s="197"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="198"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="198"/>
-      <c r="I52" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="J52" s="195"/>
-      <c r="K52" s="195"/>
-      <c r="L52" s="195"/>
-      <c r="M52" s="195"/>
-      <c r="N52" s="199"/>
-    </row>
-    <row r="53" spans="2:14" s="192" customFormat="1">
-      <c r="B53" s="197"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="198"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="198"/>
-      <c r="I53" s="195"/>
-      <c r="J53" s="195"/>
-      <c r="K53" s="195"/>
-      <c r="L53" s="195"/>
-      <c r="M53" s="195"/>
-      <c r="N53" s="199"/>
-    </row>
-    <row r="54" spans="2:14" s="192" customFormat="1">
-      <c r="B54" s="197"/>
-      <c r="C54" s="195"/>
-      <c r="D54" s="198"/>
-      <c r="E54" s="198"/>
-      <c r="F54" s="198"/>
-      <c r="G54" s="198"/>
-      <c r="J54" s="195"/>
-      <c r="K54" s="195"/>
-      <c r="L54" s="195"/>
-      <c r="M54" s="195"/>
-      <c r="N54" s="199"/>
-    </row>
-    <row r="55" spans="2:14" s="192" customFormat="1">
-      <c r="B55" s="197"/>
-      <c r="C55" s="195"/>
-      <c r="D55" s="198"/>
-      <c r="E55" s="198"/>
-      <c r="F55" s="198"/>
-      <c r="G55" s="198"/>
-      <c r="I55" s="195"/>
-      <c r="J55" s="195"/>
-      <c r="K55" s="195"/>
-      <c r="L55" s="195"/>
-      <c r="M55" s="195"/>
-      <c r="N55" s="199"/>
+    <row r="46" spans="2:22" s="180" customFormat="1">
+      <c r="B46" s="185"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="183"/>
+      <c r="N46" s="187"/>
+    </row>
+    <row r="47" spans="2:22" s="180" customFormat="1">
+      <c r="B47" s="185"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="I47" s="183"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="183"/>
+      <c r="N47" s="187"/>
+    </row>
+    <row r="48" spans="2:22" s="180" customFormat="1">
+      <c r="B48" s="185"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="I48" s="183"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="183"/>
+      <c r="L48" s="183"/>
+      <c r="M48" s="183"/>
+      <c r="N48" s="187"/>
+    </row>
+    <row r="49" spans="2:14" s="180" customFormat="1">
+      <c r="B49" s="185"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="I49" s="183"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="183"/>
+      <c r="L49" s="183"/>
+      <c r="M49" s="183"/>
+      <c r="N49" s="187"/>
+    </row>
+    <row r="50" spans="2:14" s="180" customFormat="1">
+      <c r="B50" s="185"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="I50" s="183"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="183"/>
+      <c r="M50" s="183"/>
+      <c r="N50" s="187"/>
+    </row>
+    <row r="51" spans="2:14" s="180" customFormat="1">
+      <c r="B51" s="185"/>
+      <c r="C51" s="183"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="I51" s="183"/>
+      <c r="J51" s="183"/>
+      <c r="K51" s="183"/>
+      <c r="L51" s="183"/>
+      <c r="M51" s="183"/>
+      <c r="N51" s="187"/>
+    </row>
+    <row r="52" spans="2:14" s="180" customFormat="1">
+      <c r="B52" s="185"/>
+      <c r="C52" s="183"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="I52" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="183"/>
+      <c r="K52" s="183"/>
+      <c r="L52" s="183"/>
+      <c r="M52" s="183"/>
+      <c r="N52" s="187"/>
+    </row>
+    <row r="53" spans="2:14" s="180" customFormat="1">
+      <c r="B53" s="185"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="183"/>
+      <c r="L53" s="183"/>
+      <c r="M53" s="183"/>
+      <c r="N53" s="187"/>
+    </row>
+    <row r="54" spans="2:14" s="180" customFormat="1">
+      <c r="B54" s="185"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="186"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="183"/>
+      <c r="L54" s="183"/>
+      <c r="M54" s="183"/>
+      <c r="N54" s="187"/>
+    </row>
+    <row r="55" spans="2:14" s="180" customFormat="1">
+      <c r="B55" s="185"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="186"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="186"/>
+      <c r="I55" s="183"/>
+      <c r="J55" s="183"/>
+      <c r="K55" s="183"/>
+      <c r="L55" s="183"/>
+      <c r="M55" s="183"/>
+      <c r="N55" s="187"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="148"/>
-      <c r="C56" s="195" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="140"/>
-      <c r="N56" s="149"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="183" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="146"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="148"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="195" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="140"/>
-      <c r="M57" s="140"/>
-      <c r="N57" s="149"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="183" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="146"/>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="148"/>
-      <c r="C58" s="140"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="137"/>
       <c r="D58" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="140">
+      <c r="E58" s="137">
         <v>20</v>
       </c>
-      <c r="F58" s="195" t="s">
+      <c r="F58" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="140"/>
-      <c r="N58" s="149"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="146"/>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="148"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140">
+      <c r="B59" s="145"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137">
         <v>30</v>
       </c>
-      <c r="F59" s="195" t="s">
+      <c r="F59" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140"/>
-      <c r="N59" s="149"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="146"/>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="148"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="195" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="195">
+      <c r="B60" s="145"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="183" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="183">
         <f>AVERAGE(E58,E59)</f>
         <v>25</v>
       </c>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="140"/>
-      <c r="N60" s="149"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="146"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="148"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="140"/>
-      <c r="N61" s="149"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="146"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="148"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140"/>
-      <c r="N62" s="149"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="137"/>
+      <c r="N62" s="146"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="148"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="140"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="140"/>
-      <c r="N63" s="149"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="137"/>
+      <c r="N63" s="146"/>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="148"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="140"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="149"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="146"/>
     </row>
     <row r="65" spans="2:14">
-      <c r="B65" s="148"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="140"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="140"/>
-      <c r="N65" s="149"/>
+      <c r="B65" s="145"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
+      <c r="J65" s="137"/>
+      <c r="K65" s="137"/>
+      <c r="L65" s="137"/>
+      <c r="M65" s="137"/>
+      <c r="N65" s="146"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="148"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="140"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="140"/>
-      <c r="N66" s="149"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="137"/>
+      <c r="N66" s="146"/>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="148"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="140"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="140"/>
-      <c r="L67" s="140"/>
-      <c r="M67" s="140"/>
-      <c r="N67" s="149"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="137"/>
+      <c r="N67" s="146"/>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="148"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="140"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="140"/>
-      <c r="N68" s="149"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="137"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="137"/>
+      <c r="L68" s="137"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="146"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="148"/>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="140"/>
-      <c r="K69" s="140"/>
-      <c r="L69" s="140"/>
-      <c r="M69" s="140"/>
-      <c r="N69" s="149"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="137"/>
+      <c r="J69" s="137"/>
+      <c r="K69" s="137"/>
+      <c r="L69" s="137"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="146"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="148"/>
-      <c r="C70" s="195" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="140"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="149"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="183" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="137"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="146"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="148"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="195" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="195" t="s">
-        <v>157</v>
-      </c>
-      <c r="F71" s="140"/>
-      <c r="G71" s="140"/>
-      <c r="H71" s="140"/>
-      <c r="I71" s="140"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="140"/>
-      <c r="L71" s="140"/>
-      <c r="M71" s="140"/>
-      <c r="N71" s="149"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="183" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="183" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="137"/>
+      <c r="J71" s="137"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="137"/>
+      <c r="M71" s="137"/>
+      <c r="N71" s="146"/>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="148"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140">
+      <c r="B72" s="145"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137">
         <v>0.5</v>
       </c>
-      <c r="F72" s="195" t="s">
+      <c r="F72" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="149"/>
+      <c r="G72" s="137"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137"/>
+      <c r="J72" s="137"/>
+      <c r="K72" s="137"/>
+      <c r="L72" s="137"/>
+      <c r="M72" s="137"/>
+      <c r="N72" s="146"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="148"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="140"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="140"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="140"/>
-      <c r="L73" s="140"/>
-      <c r="M73" s="140"/>
-      <c r="N73" s="149"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="137"/>
+      <c r="L73" s="137"/>
+      <c r="M73" s="137"/>
+      <c r="N73" s="146"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="148"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="140"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="149"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="137"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="137"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="137"/>
+      <c r="K74" s="137"/>
+      <c r="L74" s="137"/>
+      <c r="M74" s="137"/>
+      <c r="N74" s="146"/>
     </row>
     <row r="75" spans="2:14">
-      <c r="B75" s="148"/>
-      <c r="C75" s="140"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140"/>
-      <c r="N75" s="149"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="137"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="137"/>
+      <c r="K75" s="137"/>
+      <c r="L75" s="137"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="146"/>
     </row>
     <row r="76" spans="2:14">
-      <c r="B76" s="148"/>
-      <c r="C76" s="140"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="140"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="140"/>
-      <c r="H76" s="140"/>
-      <c r="I76" s="140"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="149"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="137"/>
+      <c r="K76" s="137"/>
+      <c r="L76" s="137"/>
+      <c r="M76" s="137"/>
+      <c r="N76" s="146"/>
     </row>
     <row r="77" spans="2:14">
-      <c r="B77" s="148"/>
-      <c r="C77" s="140"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="140"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="140"/>
-      <c r="H77" s="140"/>
-      <c r="I77" s="140"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140"/>
-      <c r="L77" s="140"/>
-      <c r="M77" s="140"/>
-      <c r="N77" s="149"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="137"/>
+      <c r="F77" s="137"/>
+      <c r="G77" s="137"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="137"/>
+      <c r="J77" s="137"/>
+      <c r="K77" s="137"/>
+      <c r="L77" s="137"/>
+      <c r="M77" s="137"/>
+      <c r="N77" s="146"/>
     </row>
     <row r="78" spans="2:14">
-      <c r="B78" s="148"/>
-      <c r="C78" s="140"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="140"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="140"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="149"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="137"/>
+      <c r="M78" s="137"/>
+      <c r="N78" s="146"/>
     </row>
     <row r="79" spans="2:14">
-      <c r="B79" s="148"/>
-      <c r="C79" s="140"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="140"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="140"/>
-      <c r="H79" s="140"/>
-      <c r="I79" s="140"/>
-      <c r="J79" s="140"/>
-      <c r="K79" s="140"/>
-      <c r="L79" s="140"/>
-      <c r="M79" s="140"/>
-      <c r="N79" s="149"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="137"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="137"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="137"/>
+      <c r="H79" s="137"/>
+      <c r="I79" s="137"/>
+      <c r="J79" s="137"/>
+      <c r="K79" s="137"/>
+      <c r="L79" s="137"/>
+      <c r="M79" s="137"/>
+      <c r="N79" s="146"/>
     </row>
     <row r="80" spans="2:14">
-      <c r="B80" s="148"/>
-      <c r="C80" s="140"/>
-      <c r="D80" s="140"/>
-      <c r="E80" s="140"/>
-      <c r="F80" s="140"/>
-      <c r="G80" s="140"/>
-      <c r="H80" s="140"/>
-      <c r="I80" s="140"/>
-      <c r="J80" s="140"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="149"/>
+      <c r="B80" s="145"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="137"/>
+      <c r="E80" s="137"/>
+      <c r="F80" s="137"/>
+      <c r="G80" s="137"/>
+      <c r="H80" s="137"/>
+      <c r="I80" s="137"/>
+      <c r="J80" s="137"/>
+      <c r="K80" s="137"/>
+      <c r="L80" s="137"/>
+      <c r="M80" s="137"/>
+      <c r="N80" s="146"/>
     </row>
     <row r="81" spans="2:14">
-      <c r="B81" s="148"/>
-      <c r="C81" s="140"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="140"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="140"/>
-      <c r="H81" s="140"/>
-      <c r="I81" s="140"/>
-      <c r="J81" s="140"/>
-      <c r="K81" s="140"/>
-      <c r="L81" s="140"/>
-      <c r="M81" s="140"/>
-      <c r="N81" s="149"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="137"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="137"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="137"/>
+      <c r="K81" s="137"/>
+      <c r="L81" s="137"/>
+      <c r="M81" s="137"/>
+      <c r="N81" s="146"/>
     </row>
     <row r="82" spans="2:14">
-      <c r="B82" s="148"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="140"/>
-      <c r="H82" s="140"/>
-      <c r="I82" s="140"/>
-      <c r="J82" s="140"/>
-      <c r="K82" s="140"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="140"/>
-      <c r="N82" s="149"/>
+      <c r="B82" s="145"/>
+      <c r="C82" s="137"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="137"/>
+      <c r="F82" s="137"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="137"/>
+      <c r="J82" s="137"/>
+      <c r="K82" s="137"/>
+      <c r="L82" s="137"/>
+      <c r="M82" s="137"/>
+      <c r="N82" s="146"/>
     </row>
     <row r="83" spans="2:14">
-      <c r="B83" s="148"/>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
-      <c r="E83" s="140"/>
-      <c r="F83" s="140"/>
-      <c r="G83" s="140"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="140"/>
-      <c r="J83" s="140"/>
-      <c r="K83" s="140"/>
-      <c r="L83" s="140"/>
-      <c r="M83" s="140"/>
-      <c r="N83" s="149"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="137"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="137"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="137"/>
+      <c r="J83" s="137"/>
+      <c r="K83" s="137"/>
+      <c r="L83" s="137"/>
+      <c r="M83" s="137"/>
+      <c r="N83" s="146"/>
     </row>
     <row r="84" spans="2:14">
-      <c r="B84" s="148"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="140"/>
-      <c r="G84" s="140"/>
-      <c r="H84" s="140"/>
-      <c r="I84" s="140"/>
-      <c r="J84" s="140"/>
-      <c r="K84" s="140"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="140"/>
-      <c r="N84" s="149"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="137"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="137"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="137"/>
+      <c r="K84" s="137"/>
+      <c r="L84" s="137"/>
+      <c r="M84" s="137"/>
+      <c r="N84" s="146"/>
     </row>
     <row r="85" spans="2:14">
-      <c r="B85" s="148"/>
-      <c r="C85" s="140"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="140"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="140"/>
-      <c r="I85" s="140"/>
-      <c r="J85" s="140"/>
-      <c r="K85" s="140"/>
-      <c r="L85" s="140"/>
-      <c r="M85" s="140"/>
-      <c r="N85" s="149"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="137"/>
+      <c r="K85" s="137"/>
+      <c r="L85" s="137"/>
+      <c r="M85" s="137"/>
+      <c r="N85" s="146"/>
     </row>
     <row r="86" spans="2:14">
-      <c r="B86" s="148"/>
-      <c r="C86" s="140"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="140"/>
-      <c r="G86" s="140"/>
-      <c r="H86" s="140"/>
-      <c r="I86" s="140"/>
-      <c r="J86" s="140"/>
-      <c r="K86" s="140"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="140"/>
-      <c r="N86" s="149"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="137"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="137"/>
+      <c r="K86" s="137"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="146"/>
     </row>
     <row r="87" spans="2:14">
-      <c r="B87" s="148"/>
-      <c r="C87" s="140"/>
-      <c r="D87" s="140"/>
-      <c r="E87" s="140"/>
-      <c r="F87" s="140"/>
-      <c r="G87" s="140"/>
-      <c r="H87" s="140"/>
-      <c r="I87" s="140"/>
-      <c r="J87" s="140"/>
-      <c r="K87" s="140"/>
-      <c r="L87" s="140"/>
-      <c r="M87" s="140"/>
-      <c r="N87" s="149"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="137"/>
+      <c r="D87" s="137"/>
+      <c r="E87" s="137"/>
+      <c r="F87" s="137"/>
+      <c r="G87" s="137"/>
+      <c r="H87" s="137"/>
+      <c r="I87" s="137"/>
+      <c r="J87" s="137"/>
+      <c r="K87" s="137"/>
+      <c r="L87" s="137"/>
+      <c r="M87" s="137"/>
+      <c r="N87" s="146"/>
     </row>
     <row r="88" spans="2:14">
-      <c r="B88" s="148"/>
-      <c r="C88" s="140"/>
-      <c r="D88" s="140"/>
-      <c r="E88" s="140"/>
-      <c r="F88" s="140"/>
-      <c r="G88" s="140"/>
-      <c r="H88" s="140"/>
-      <c r="I88" s="140"/>
-      <c r="J88" s="140"/>
-      <c r="K88" s="140"/>
-      <c r="L88" s="140"/>
-      <c r="M88" s="140"/>
-      <c r="N88" s="149"/>
+      <c r="B88" s="145"/>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="137"/>
+      <c r="F88" s="137"/>
+      <c r="G88" s="137"/>
+      <c r="H88" s="137"/>
+      <c r="I88" s="137"/>
+      <c r="J88" s="137"/>
+      <c r="K88" s="137"/>
+      <c r="L88" s="137"/>
+      <c r="M88" s="137"/>
+      <c r="N88" s="146"/>
     </row>
     <row r="89" spans="2:14">
-      <c r="B89" s="148"/>
-      <c r="C89" s="140"/>
-      <c r="D89" s="140"/>
-      <c r="E89" s="140"/>
-      <c r="F89" s="140"/>
-      <c r="G89" s="140"/>
-      <c r="H89" s="140"/>
-      <c r="I89" s="140"/>
-      <c r="J89" s="140"/>
-      <c r="K89" s="140"/>
-      <c r="L89" s="140"/>
-      <c r="M89" s="140"/>
-      <c r="N89" s="149"/>
+      <c r="B89" s="145"/>
+      <c r="C89" s="137"/>
+      <c r="D89" s="137"/>
+      <c r="E89" s="137"/>
+      <c r="F89" s="137"/>
+      <c r="G89" s="137"/>
+      <c r="H89" s="137"/>
+      <c r="I89" s="137"/>
+      <c r="J89" s="137"/>
+      <c r="K89" s="137"/>
+      <c r="L89" s="137"/>
+      <c r="M89" s="137"/>
+      <c r="N89" s="146"/>
     </row>
     <row r="90" spans="2:14">
-      <c r="B90" s="148"/>
-      <c r="C90" s="140"/>
-      <c r="D90" s="140"/>
-      <c r="E90" s="140"/>
-      <c r="F90" s="140"/>
-      <c r="G90" s="140"/>
-      <c r="H90" s="140"/>
-      <c r="I90" s="140"/>
-      <c r="J90" s="140"/>
-      <c r="K90" s="140"/>
-      <c r="L90" s="140"/>
-      <c r="M90" s="140"/>
-      <c r="N90" s="149"/>
+      <c r="B90" s="145"/>
+      <c r="C90" s="137"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="137"/>
+      <c r="F90" s="137"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="137"/>
+      <c r="J90" s="137"/>
+      <c r="K90" s="137"/>
+      <c r="L90" s="137"/>
+      <c r="M90" s="137"/>
+      <c r="N90" s="146"/>
     </row>
     <row r="91" spans="2:14">
-      <c r="B91" s="148"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="140"/>
-      <c r="F91" s="140"/>
-      <c r="G91" s="140"/>
-      <c r="H91" s="140"/>
-      <c r="I91" s="140"/>
-      <c r="J91" s="140"/>
-      <c r="K91" s="140"/>
-      <c r="L91" s="140"/>
-      <c r="M91" s="140"/>
-      <c r="N91" s="149"/>
+      <c r="B91" s="145"/>
+      <c r="C91" s="137"/>
+      <c r="D91" s="137"/>
+      <c r="E91" s="137"/>
+      <c r="F91" s="137"/>
+      <c r="G91" s="137"/>
+      <c r="H91" s="137"/>
+      <c r="I91" s="137"/>
+      <c r="J91" s="137"/>
+      <c r="K91" s="137"/>
+      <c r="L91" s="137"/>
+      <c r="M91" s="137"/>
+      <c r="N91" s="146"/>
     </row>
     <row r="92" spans="2:14">
-      <c r="B92" s="148"/>
-      <c r="C92" s="140"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="140"/>
-      <c r="F92" s="140"/>
-      <c r="G92" s="140"/>
-      <c r="H92" s="140"/>
-      <c r="I92" s="140"/>
-      <c r="J92" s="140"/>
-      <c r="K92" s="140"/>
-      <c r="L92" s="140"/>
-      <c r="M92" s="140"/>
-      <c r="N92" s="149"/>
+      <c r="B92" s="145"/>
+      <c r="C92" s="137"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="137"/>
+      <c r="F92" s="137"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="137"/>
+      <c r="I92" s="137"/>
+      <c r="J92" s="137"/>
+      <c r="K92" s="137"/>
+      <c r="L92" s="137"/>
+      <c r="M92" s="137"/>
+      <c r="N92" s="146"/>
     </row>
     <row r="93" spans="2:14">
-      <c r="B93" s="148"/>
-      <c r="C93" s="140"/>
-      <c r="D93" s="140"/>
-      <c r="E93" s="140"/>
-      <c r="F93" s="140"/>
-      <c r="G93" s="140"/>
-      <c r="H93" s="140"/>
-      <c r="I93" s="140"/>
-      <c r="J93" s="140"/>
-      <c r="K93" s="140"/>
-      <c r="L93" s="140"/>
-      <c r="M93" s="140"/>
-      <c r="N93" s="149"/>
+      <c r="B93" s="145"/>
+      <c r="C93" s="137"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="137"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="137"/>
+      <c r="K93" s="137"/>
+      <c r="L93" s="137"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="146"/>
     </row>
     <row r="94" spans="2:14">
-      <c r="B94" s="148"/>
-      <c r="C94" s="140"/>
-      <c r="D94" s="140"/>
-      <c r="E94" s="140"/>
-      <c r="F94" s="140"/>
-      <c r="G94" s="140"/>
-      <c r="H94" s="140"/>
-      <c r="I94" s="140"/>
-      <c r="J94" s="140"/>
-      <c r="K94" s="140"/>
-      <c r="L94" s="140"/>
-      <c r="M94" s="140"/>
-      <c r="N94" s="149"/>
+      <c r="B94" s="145"/>
+      <c r="C94" s="137"/>
+      <c r="D94" s="137"/>
+      <c r="E94" s="137"/>
+      <c r="F94" s="137"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="137"/>
+      <c r="I94" s="137"/>
+      <c r="J94" s="137"/>
+      <c r="K94" s="137"/>
+      <c r="L94" s="137"/>
+      <c r="M94" s="137"/>
+      <c r="N94" s="146"/>
     </row>
     <row r="95" spans="2:14">
-      <c r="B95" s="148"/>
-      <c r="C95" s="140"/>
-      <c r="D95" s="140"/>
-      <c r="E95" s="140"/>
-      <c r="F95" s="140"/>
-      <c r="G95" s="140"/>
-      <c r="H95" s="140"/>
-      <c r="I95" s="140"/>
-      <c r="J95" s="140"/>
-      <c r="K95" s="140"/>
-      <c r="L95" s="140"/>
-      <c r="M95" s="140"/>
-      <c r="N95" s="149"/>
+      <c r="B95" s="145"/>
+      <c r="C95" s="137"/>
+      <c r="D95" s="137"/>
+      <c r="E95" s="137"/>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="137"/>
+      <c r="I95" s="137"/>
+      <c r="J95" s="137"/>
+      <c r="K95" s="137"/>
+      <c r="L95" s="137"/>
+      <c r="M95" s="137"/>
+      <c r="N95" s="146"/>
     </row>
     <row r="96" spans="2:14">
-      <c r="B96" s="148"/>
-      <c r="C96" s="140"/>
-      <c r="D96" s="140"/>
-      <c r="E96" s="140"/>
-      <c r="F96" s="140"/>
-      <c r="G96" s="140"/>
-      <c r="H96" s="140"/>
-      <c r="I96" s="140"/>
-      <c r="J96" s="140"/>
-      <c r="K96" s="140"/>
-      <c r="L96" s="140"/>
-      <c r="M96" s="140"/>
-      <c r="N96" s="149"/>
+      <c r="B96" s="145"/>
+      <c r="C96" s="137"/>
+      <c r="D96" s="137"/>
+      <c r="E96" s="137"/>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="137"/>
+      <c r="J96" s="137"/>
+      <c r="K96" s="137"/>
+      <c r="L96" s="137"/>
+      <c r="M96" s="137"/>
+      <c r="N96" s="146"/>
     </row>
     <row r="97" spans="2:14">
-      <c r="B97" s="148"/>
-      <c r="C97" s="140"/>
-      <c r="D97" s="140"/>
-      <c r="E97" s="140"/>
-      <c r="F97" s="140"/>
-      <c r="G97" s="140"/>
-      <c r="H97" s="140"/>
-      <c r="I97" s="140"/>
-      <c r="J97" s="140"/>
-      <c r="K97" s="140"/>
-      <c r="L97" s="140"/>
-      <c r="M97" s="140"/>
-      <c r="N97" s="149"/>
+      <c r="B97" s="145"/>
+      <c r="C97" s="137"/>
+      <c r="D97" s="137"/>
+      <c r="E97" s="137"/>
+      <c r="F97" s="137"/>
+      <c r="G97" s="137"/>
+      <c r="H97" s="137"/>
+      <c r="I97" s="137"/>
+      <c r="J97" s="137"/>
+      <c r="K97" s="137"/>
+      <c r="L97" s="137"/>
+      <c r="M97" s="137"/>
+      <c r="N97" s="146"/>
     </row>
     <row r="98" spans="2:14">
-      <c r="B98" s="148"/>
-      <c r="C98" s="140"/>
-      <c r="D98" s="140"/>
-      <c r="E98" s="140"/>
-      <c r="F98" s="140"/>
-      <c r="G98" s="140"/>
-      <c r="H98" s="140"/>
-      <c r="I98" s="140"/>
-      <c r="J98" s="140"/>
-      <c r="K98" s="140"/>
-      <c r="L98" s="140"/>
-      <c r="M98" s="140"/>
-      <c r="N98" s="149"/>
+      <c r="B98" s="145"/>
+      <c r="C98" s="137"/>
+      <c r="D98" s="137"/>
+      <c r="E98" s="137"/>
+      <c r="F98" s="137"/>
+      <c r="G98" s="137"/>
+      <c r="H98" s="137"/>
+      <c r="I98" s="137"/>
+      <c r="J98" s="137"/>
+      <c r="K98" s="137"/>
+      <c r="L98" s="137"/>
+      <c r="M98" s="137"/>
+      <c r="N98" s="146"/>
     </row>
     <row r="99" spans="2:14">
-      <c r="B99" s="148"/>
-      <c r="C99" s="140"/>
-      <c r="D99" s="140"/>
-      <c r="E99" s="140"/>
-      <c r="F99" s="140"/>
-      <c r="G99" s="140"/>
-      <c r="H99" s="140"/>
-      <c r="I99" s="140"/>
-      <c r="J99" s="140"/>
-      <c r="K99" s="140"/>
-      <c r="L99" s="140"/>
-      <c r="M99" s="140"/>
-      <c r="N99" s="149"/>
+      <c r="B99" s="145"/>
+      <c r="C99" s="137"/>
+      <c r="D99" s="137"/>
+      <c r="E99" s="137"/>
+      <c r="F99" s="137"/>
+      <c r="G99" s="137"/>
+      <c r="H99" s="137"/>
+      <c r="I99" s="137"/>
+      <c r="J99" s="137"/>
+      <c r="K99" s="137"/>
+      <c r="L99" s="137"/>
+      <c r="M99" s="137"/>
+      <c r="N99" s="146"/>
     </row>
     <row r="100" spans="2:14">
-      <c r="B100" s="148"/>
-      <c r="C100" s="140"/>
-      <c r="D100" s="140"/>
-      <c r="E100" s="140"/>
-      <c r="F100" s="140"/>
-      <c r="G100" s="140"/>
-      <c r="H100" s="140"/>
-      <c r="I100" s="140"/>
-      <c r="J100" s="140"/>
-      <c r="K100" s="140"/>
-      <c r="L100" s="140"/>
-      <c r="M100" s="140"/>
-      <c r="N100" s="149"/>
+      <c r="B100" s="145"/>
+      <c r="C100" s="137"/>
+      <c r="D100" s="137"/>
+      <c r="E100" s="137"/>
+      <c r="F100" s="137"/>
+      <c r="G100" s="137"/>
+      <c r="H100" s="137"/>
+      <c r="I100" s="137"/>
+      <c r="J100" s="137"/>
+      <c r="K100" s="137"/>
+      <c r="L100" s="137"/>
+      <c r="M100" s="137"/>
+      <c r="N100" s="146"/>
     </row>
     <row r="101" spans="2:14">
-      <c r="B101" s="148"/>
-      <c r="C101" s="140"/>
-      <c r="D101" s="140"/>
-      <c r="E101" s="140"/>
-      <c r="F101" s="140"/>
-      <c r="G101" s="140"/>
-      <c r="H101" s="140"/>
-      <c r="I101" s="140"/>
-      <c r="J101" s="140"/>
-      <c r="K101" s="140"/>
-      <c r="L101" s="140"/>
-      <c r="M101" s="140"/>
-      <c r="N101" s="149"/>
+      <c r="B101" s="145"/>
+      <c r="C101" s="137"/>
+      <c r="D101" s="137"/>
+      <c r="E101" s="137"/>
+      <c r="F101" s="137"/>
+      <c r="G101" s="137"/>
+      <c r="H101" s="137"/>
+      <c r="I101" s="137"/>
+      <c r="J101" s="137"/>
+      <c r="K101" s="137"/>
+      <c r="L101" s="137"/>
+      <c r="M101" s="137"/>
+      <c r="N101" s="146"/>
     </row>
     <row r="102" spans="2:14">
-      <c r="B102" s="148"/>
-      <c r="C102" s="140"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="140"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="140"/>
-      <c r="H102" s="140"/>
-      <c r="I102" s="140"/>
-      <c r="J102" s="140"/>
-      <c r="K102" s="140"/>
-      <c r="L102" s="140"/>
-      <c r="M102" s="140"/>
-      <c r="N102" s="149"/>
-    </row>
-    <row r="103" spans="2:14" s="192" customFormat="1">
-      <c r="B103" s="197"/>
-      <c r="D103" s="198"/>
-      <c r="E103" s="198"/>
-      <c r="F103" s="198"/>
-      <c r="G103" s="198"/>
-      <c r="I103" s="198" t="s">
-        <v>159</v>
-      </c>
-      <c r="N103" s="199"/>
-    </row>
-    <row r="104" spans="2:14" s="192" customFormat="1">
-      <c r="B104" s="197"/>
+      <c r="B102" s="145"/>
+      <c r="C102" s="137"/>
+      <c r="D102" s="137"/>
+      <c r="E102" s="137"/>
+      <c r="F102" s="137"/>
+      <c r="G102" s="137"/>
+      <c r="H102" s="137"/>
+      <c r="I102" s="137"/>
+      <c r="J102" s="137"/>
+      <c r="K102" s="137"/>
+      <c r="L102" s="137"/>
+      <c r="M102" s="137"/>
+      <c r="N102" s="146"/>
+    </row>
+    <row r="103" spans="2:14" s="180" customFormat="1">
+      <c r="B103" s="185"/>
+      <c r="D103" s="186"/>
+      <c r="E103" s="186"/>
+      <c r="F103" s="186"/>
+      <c r="G103" s="186"/>
+      <c r="I103" s="186" t="s">
+        <v>149</v>
+      </c>
+      <c r="N103" s="187"/>
+    </row>
+    <row r="104" spans="2:14" s="180" customFormat="1">
+      <c r="B104" s="185"/>
       <c r="C104" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D104" s="198"/>
-      <c r="E104" s="198"/>
-      <c r="F104" s="198"/>
-      <c r="G104" s="198"/>
-      <c r="N104" s="199"/>
-    </row>
-    <row r="105" spans="2:14" s="192" customFormat="1">
-      <c r="B105" s="197"/>
-      <c r="D105" s="198"/>
-      <c r="E105" s="198"/>
-      <c r="F105" s="198"/>
-      <c r="G105" s="198"/>
-      <c r="K105" s="211" t="s">
-        <v>161</v>
-      </c>
-      <c r="L105" s="212">
+        <v>150</v>
+      </c>
+      <c r="D104" s="186"/>
+      <c r="E104" s="186"/>
+      <c r="F104" s="186"/>
+      <c r="G104" s="186"/>
+      <c r="N104" s="187"/>
+    </row>
+    <row r="105" spans="2:14" s="180" customFormat="1">
+      <c r="B105" s="185"/>
+      <c r="D105" s="186"/>
+      <c r="E105" s="186"/>
+      <c r="F105" s="186"/>
+      <c r="G105" s="186"/>
+      <c r="K105" s="199" t="s">
+        <v>151</v>
+      </c>
+      <c r="L105" s="200">
         <f>0.83611</f>
         <v>0.83611000000000002</v>
       </c>
-      <c r="M105" s="211" t="s">
-        <v>162</v>
-      </c>
-      <c r="N105" s="199"/>
-    </row>
-    <row r="106" spans="2:14" s="192" customFormat="1">
-      <c r="B106" s="197"/>
+      <c r="M105" s="199" t="s">
+        <v>152</v>
+      </c>
+      <c r="N105" s="187"/>
+    </row>
+    <row r="106" spans="2:14" s="180" customFormat="1">
+      <c r="B106" s="185"/>
       <c r="C106" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="186"/>
+      <c r="E106" s="186"/>
+      <c r="F106" s="186"/>
+      <c r="G106" s="186"/>
+      <c r="K106" s="199"/>
+      <c r="L106" s="201" t="s">
+        <v>154</v>
+      </c>
+      <c r="M106" s="199"/>
+      <c r="N106" s="187"/>
+    </row>
+    <row r="107" spans="2:14" s="180" customFormat="1">
+      <c r="B107" s="185"/>
+      <c r="D107" s="186"/>
+      <c r="E107" s="186"/>
+      <c r="F107" s="186"/>
+      <c r="G107" s="186"/>
+      <c r="K107" s="199"/>
+      <c r="L107" s="202">
+        <v>42987</v>
+      </c>
+      <c r="M107" s="199"/>
+      <c r="N107" s="187"/>
+    </row>
+    <row r="108" spans="2:14" s="180" customFormat="1">
+      <c r="B108" s="185"/>
+      <c r="D108" s="186"/>
+      <c r="E108" s="186"/>
+      <c r="F108" s="186"/>
+      <c r="G108" s="186"/>
+      <c r="N108" s="187"/>
+    </row>
+    <row r="109" spans="2:14" s="180" customFormat="1">
+      <c r="B109" s="185"/>
+      <c r="D109" s="186"/>
+      <c r="E109" s="186"/>
+      <c r="F109" s="186"/>
+      <c r="G109" s="186"/>
+      <c r="N109" s="187"/>
+    </row>
+    <row r="110" spans="2:14" s="180" customFormat="1">
+      <c r="B110" s="185"/>
+      <c r="D110" s="186"/>
+      <c r="E110" s="186"/>
+      <c r="F110" s="186"/>
+      <c r="G110" s="186"/>
+      <c r="N110" s="187"/>
+    </row>
+    <row r="111" spans="2:14" s="180" customFormat="1">
+      <c r="B111" s="185"/>
+      <c r="D111" s="186"/>
+      <c r="E111" s="186"/>
+      <c r="F111" s="186"/>
+      <c r="G111" s="186"/>
+      <c r="N111" s="187"/>
+    </row>
+    <row r="112" spans="2:14" s="180" customFormat="1">
+      <c r="B112" s="185"/>
+      <c r="D112" s="186"/>
+      <c r="E112" s="186"/>
+      <c r="F112" s="186"/>
+      <c r="G112" s="186"/>
+      <c r="N112" s="187"/>
+    </row>
+    <row r="113" spans="2:14" s="180" customFormat="1">
+      <c r="B113" s="185"/>
+      <c r="D113" s="186"/>
+      <c r="E113" s="186"/>
+      <c r="F113" s="186"/>
+      <c r="G113" s="186"/>
+      <c r="N113" s="187"/>
+    </row>
+    <row r="114" spans="2:14" s="180" customFormat="1">
+      <c r="B114" s="185"/>
+      <c r="C114" s="186" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" s="186" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="186"/>
+      <c r="F114" s="186"/>
+      <c r="G114" s="186"/>
+      <c r="N114" s="187"/>
+    </row>
+    <row r="115" spans="2:14" s="180" customFormat="1">
+      <c r="B115" s="185"/>
+      <c r="C115" s="183"/>
+      <c r="D115" s="186"/>
+      <c r="E115" s="186" t="s">
         <v>163</v>
       </c>
-      <c r="D106" s="198"/>
-      <c r="E106" s="198"/>
-      <c r="F106" s="198"/>
-      <c r="G106" s="198"/>
-      <c r="K106" s="211"/>
-      <c r="L106" s="213" t="s">
+      <c r="F115" s="186">
+        <v>871</v>
+      </c>
+      <c r="G115" s="186" t="s">
+        <v>156</v>
+      </c>
+      <c r="N115" s="187"/>
+    </row>
+    <row r="116" spans="2:14" s="180" customFormat="1">
+      <c r="B116" s="185"/>
+      <c r="C116" s="183"/>
+      <c r="D116" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="M106" s="211"/>
-      <c r="N106" s="199"/>
-    </row>
-    <row r="107" spans="2:14" s="192" customFormat="1">
-      <c r="B107" s="197"/>
-      <c r="D107" s="198"/>
-      <c r="E107" s="198"/>
-      <c r="F107" s="198"/>
-      <c r="G107" s="198"/>
-      <c r="K107" s="211"/>
-      <c r="L107" s="214">
-        <v>42987</v>
-      </c>
-      <c r="M107" s="211"/>
-      <c r="N107" s="199"/>
-    </row>
-    <row r="108" spans="2:14" s="192" customFormat="1">
-      <c r="B108" s="197"/>
-      <c r="D108" s="198"/>
-      <c r="E108" s="198"/>
-      <c r="F108" s="198"/>
-      <c r="G108" s="198"/>
-      <c r="N108" s="199"/>
-    </row>
-    <row r="109" spans="2:14" s="192" customFormat="1">
-      <c r="B109" s="197"/>
-      <c r="D109" s="198"/>
-      <c r="E109" s="198"/>
-      <c r="F109" s="198"/>
-      <c r="G109" s="198"/>
-      <c r="N109" s="199"/>
-    </row>
-    <row r="110" spans="2:14" s="192" customFormat="1">
-      <c r="B110" s="197"/>
-      <c r="D110" s="198"/>
-      <c r="E110" s="198"/>
-      <c r="F110" s="198"/>
-      <c r="G110" s="198"/>
-      <c r="N110" s="199"/>
-    </row>
-    <row r="111" spans="2:14" s="192" customFormat="1">
-      <c r="B111" s="197"/>
-      <c r="D111" s="198"/>
-      <c r="E111" s="198"/>
-      <c r="F111" s="198"/>
-      <c r="G111" s="198"/>
-      <c r="N111" s="199"/>
-    </row>
-    <row r="112" spans="2:14" s="192" customFormat="1">
-      <c r="B112" s="197"/>
-      <c r="D112" s="198"/>
-      <c r="E112" s="198"/>
-      <c r="F112" s="198"/>
-      <c r="G112" s="198"/>
-      <c r="N112" s="199"/>
-    </row>
-    <row r="113" spans="2:14" s="192" customFormat="1">
-      <c r="B113" s="197"/>
-      <c r="D113" s="198"/>
-      <c r="E113" s="198"/>
-      <c r="F113" s="198"/>
-      <c r="G113" s="198"/>
-      <c r="N113" s="199"/>
-    </row>
-    <row r="114" spans="2:14" s="192" customFormat="1">
-      <c r="B114" s="197"/>
-      <c r="C114" s="198" t="s">
-        <v>167</v>
-      </c>
-      <c r="D114" s="198" t="s">
-        <v>169</v>
-      </c>
-      <c r="E114" s="198"/>
-      <c r="F114" s="198"/>
-      <c r="G114" s="198"/>
-      <c r="N114" s="199"/>
-    </row>
-    <row r="115" spans="2:14" s="192" customFormat="1">
-      <c r="B115" s="197"/>
-      <c r="C115" s="195"/>
-      <c r="D115" s="198"/>
-      <c r="E115" s="198" t="s">
-        <v>173</v>
-      </c>
-      <c r="F115" s="198">
-        <v>871</v>
-      </c>
-      <c r="G115" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="N115" s="199"/>
-    </row>
-    <row r="116" spans="2:14" s="192" customFormat="1">
-      <c r="B116" s="197"/>
-      <c r="C116" s="195"/>
-      <c r="D116" s="198" t="s">
-        <v>174</v>
-      </c>
-      <c r="E116" s="198"/>
-      <c r="F116" s="198"/>
-      <c r="G116" s="198"/>
-      <c r="N116" s="199"/>
-    </row>
-    <row r="117" spans="2:14" s="192" customFormat="1">
-      <c r="B117" s="197"/>
-      <c r="C117" s="195"/>
-      <c r="D117" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="198"/>
-      <c r="F117" s="198">
+      <c r="E116" s="186"/>
+      <c r="F116" s="186"/>
+      <c r="G116" s="186"/>
+      <c r="N116" s="187"/>
+    </row>
+    <row r="117" spans="2:14" s="180" customFormat="1">
+      <c r="B117" s="185"/>
+      <c r="C117" s="183"/>
+      <c r="D117" s="186" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="186"/>
+      <c r="F117" s="186">
         <v>440</v>
       </c>
-      <c r="G117" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="N117" s="199"/>
-    </row>
-    <row r="118" spans="2:14" s="192" customFormat="1">
-      <c r="B118" s="197"/>
-      <c r="C118" s="195"/>
-      <c r="D118" s="198" t="s">
-        <v>168</v>
-      </c>
-      <c r="E118" s="198"/>
-      <c r="F118" s="198">
+      <c r="G117" s="186" t="s">
+        <v>156</v>
+      </c>
+      <c r="N117" s="187"/>
+    </row>
+    <row r="118" spans="2:14" s="180" customFormat="1">
+      <c r="B118" s="185"/>
+      <c r="C118" s="183"/>
+      <c r="D118" s="186" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" s="186"/>
+      <c r="F118" s="186">
         <v>84</v>
       </c>
-      <c r="G118" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="N118" s="199"/>
-    </row>
-    <row r="119" spans="2:14" s="192" customFormat="1">
-      <c r="B119" s="197"/>
-      <c r="D119" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="E119" s="198"/>
-      <c r="F119" s="198">
+      <c r="G118" s="186" t="s">
+        <v>156</v>
+      </c>
+      <c r="N118" s="187"/>
+    </row>
+    <row r="119" spans="2:14" s="180" customFormat="1">
+      <c r="B119" s="185"/>
+      <c r="D119" s="186" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" s="186"/>
+      <c r="F119" s="186">
         <f>F115-F117-F118-F120</f>
         <v>297</v>
       </c>
-      <c r="G119" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="N119" s="199"/>
-    </row>
-    <row r="120" spans="2:14" s="192" customFormat="1">
-      <c r="B120" s="197"/>
-      <c r="D120" s="198" t="s">
-        <v>176</v>
-      </c>
-      <c r="E120" s="218"/>
-      <c r="F120" s="192">
+      <c r="G119" s="186" t="s">
+        <v>169</v>
+      </c>
+      <c r="N119" s="187"/>
+    </row>
+    <row r="120" spans="2:14" s="180" customFormat="1">
+      <c r="B120" s="185"/>
+      <c r="D120" s="186" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="206"/>
+      <c r="F120" s="180">
         <v>50</v>
       </c>
-      <c r="G120" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="N120" s="199"/>
-    </row>
-    <row r="121" spans="2:14" s="192" customFormat="1">
-      <c r="B121" s="197"/>
-      <c r="F121" s="192" t="s">
-        <v>187</v>
-      </c>
-      <c r="N121" s="199"/>
-    </row>
-    <row r="122" spans="2:14" s="192" customFormat="1">
-      <c r="B122" s="197"/>
-      <c r="D122" s="198"/>
-      <c r="E122" s="198"/>
-      <c r="F122" s="198"/>
-      <c r="G122" s="198"/>
-      <c r="N122" s="199"/>
-    </row>
-    <row r="123" spans="2:14" s="192" customFormat="1">
-      <c r="B123" s="197"/>
-      <c r="D123" s="198"/>
-      <c r="E123" s="198"/>
-      <c r="F123" s="198"/>
-      <c r="G123" s="198"/>
-      <c r="N123" s="199"/>
-    </row>
-    <row r="124" spans="2:14" s="192" customFormat="1">
-      <c r="B124" s="197"/>
-      <c r="D124" s="198" t="s">
-        <v>170</v>
-      </c>
-      <c r="E124" s="198">
+      <c r="G120" s="186" t="s">
+        <v>169</v>
+      </c>
+      <c r="N120" s="187"/>
+    </row>
+    <row r="121" spans="2:14" s="180" customFormat="1">
+      <c r="B121" s="185"/>
+      <c r="F121" s="180" t="s">
+        <v>177</v>
+      </c>
+      <c r="N121" s="187"/>
+    </row>
+    <row r="122" spans="2:14" s="180" customFormat="1">
+      <c r="B122" s="185"/>
+      <c r="D122" s="186"/>
+      <c r="E122" s="186"/>
+      <c r="F122" s="186"/>
+      <c r="G122" s="186"/>
+      <c r="N122" s="187"/>
+    </row>
+    <row r="123" spans="2:14" s="180" customFormat="1">
+      <c r="B123" s="185"/>
+      <c r="D123" s="186"/>
+      <c r="E123" s="186"/>
+      <c r="F123" s="186"/>
+      <c r="G123" s="186"/>
+      <c r="N123" s="187"/>
+    </row>
+    <row r="124" spans="2:14" s="180" customFormat="1">
+      <c r="B124" s="185"/>
+      <c r="D124" s="186" t="s">
+        <v>160</v>
+      </c>
+      <c r="E124" s="186">
         <v>14.7</v>
       </c>
-      <c r="F124" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="G124" s="198"/>
-      <c r="N124" s="199"/>
-    </row>
-    <row r="125" spans="2:14" s="192" customFormat="1">
-      <c r="B125" s="197"/>
-      <c r="D125" s="198"/>
-      <c r="E125" s="198"/>
-      <c r="F125" s="198" t="s">
-        <v>171</v>
-      </c>
-      <c r="G125" s="198"/>
-      <c r="N125" s="199"/>
-    </row>
-    <row r="126" spans="2:14" s="192" customFormat="1">
-      <c r="B126" s="197"/>
-      <c r="D126" s="198" t="s">
-        <v>177</v>
-      </c>
-      <c r="E126" s="198">
+      <c r="F124" s="186" t="s">
+        <v>162</v>
+      </c>
+      <c r="G124" s="186"/>
+      <c r="N124" s="187"/>
+    </row>
+    <row r="125" spans="2:14" s="180" customFormat="1">
+      <c r="B125" s="185"/>
+      <c r="D125" s="186"/>
+      <c r="E125" s="186"/>
+      <c r="F125" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="G125" s="186"/>
+      <c r="N125" s="187"/>
+    </row>
+    <row r="126" spans="2:14" s="180" customFormat="1">
+      <c r="B126" s="185"/>
+      <c r="D126" s="186" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126" s="186">
         <v>30</v>
       </c>
-      <c r="G126" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="N126" s="199"/>
-    </row>
-    <row r="127" spans="2:14" s="192" customFormat="1">
-      <c r="B127" s="197"/>
-      <c r="D127" s="198"/>
-      <c r="E127" s="198"/>
-      <c r="F127" s="198"/>
-      <c r="G127" s="198"/>
-      <c r="N127" s="199"/>
-    </row>
-    <row r="128" spans="2:14" s="192" customFormat="1">
-      <c r="B128" s="197"/>
-      <c r="D128" s="198" t="s">
-        <v>178</v>
-      </c>
-      <c r="E128" s="198">
+      <c r="G126" s="186" t="s">
+        <v>156</v>
+      </c>
+      <c r="N126" s="187"/>
+    </row>
+    <row r="127" spans="2:14" s="180" customFormat="1">
+      <c r="B127" s="185"/>
+      <c r="D127" s="186"/>
+      <c r="E127" s="186"/>
+      <c r="F127" s="186"/>
+      <c r="G127" s="186"/>
+      <c r="N127" s="187"/>
+    </row>
+    <row r="128" spans="2:14" s="180" customFormat="1">
+      <c r="B128" s="185"/>
+      <c r="D128" s="186" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="186">
         <f>E124+(E126/E60)</f>
         <v>15.899999999999999</v>
       </c>
-      <c r="F128" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="G128" s="198"/>
-      <c r="N128" s="199"/>
-    </row>
-    <row r="129" spans="2:14" s="192" customFormat="1">
-      <c r="B129" s="197"/>
-      <c r="D129" s="198"/>
-      <c r="E129" s="198"/>
-      <c r="F129" s="198"/>
-      <c r="G129" s="198"/>
-      <c r="N129" s="199"/>
-    </row>
-    <row r="130" spans="2:14" s="192" customFormat="1">
-      <c r="B130" s="197"/>
-      <c r="D130" s="198"/>
-      <c r="E130" s="198"/>
-      <c r="F130" s="198"/>
-      <c r="G130" s="198"/>
-      <c r="N130" s="199"/>
-    </row>
-    <row r="131" spans="2:14" s="192" customFormat="1">
-      <c r="B131" s="197"/>
-      <c r="D131" s="198"/>
-      <c r="E131" s="198"/>
-      <c r="F131" s="198"/>
-      <c r="G131" s="198"/>
-      <c r="N131" s="199"/>
-    </row>
-    <row r="132" spans="2:14" s="192" customFormat="1">
-      <c r="B132" s="197"/>
-      <c r="D132" s="198"/>
-      <c r="E132" s="198"/>
-      <c r="F132" s="198"/>
-      <c r="G132" s="198"/>
-      <c r="N132" s="199"/>
-    </row>
-    <row r="133" spans="2:14" s="192" customFormat="1">
-      <c r="B133" s="197"/>
-      <c r="D133" s="198"/>
-      <c r="E133" s="198"/>
-      <c r="F133" s="198"/>
-      <c r="G133" s="198"/>
-      <c r="N133" s="199"/>
-    </row>
-    <row r="134" spans="2:14" s="192" customFormat="1">
-      <c r="B134" s="197"/>
-      <c r="D134" s="198"/>
-      <c r="E134" s="198"/>
-      <c r="F134" s="198"/>
-      <c r="G134" s="198"/>
-      <c r="N134" s="199"/>
-    </row>
-    <row r="135" spans="2:14" s="192" customFormat="1">
-      <c r="B135" s="197"/>
-      <c r="D135" s="198"/>
-      <c r="E135" s="198"/>
-      <c r="F135" s="198"/>
-      <c r="G135" s="198"/>
-      <c r="N135" s="199"/>
+      <c r="F128" s="186" t="s">
+        <v>162</v>
+      </c>
+      <c r="G128" s="186"/>
+      <c r="N128" s="187"/>
+    </row>
+    <row r="129" spans="2:14" s="180" customFormat="1">
+      <c r="B129" s="185"/>
+      <c r="D129" s="186"/>
+      <c r="E129" s="186"/>
+      <c r="F129" s="186"/>
+      <c r="G129" s="186"/>
+      <c r="N129" s="187"/>
+    </row>
+    <row r="130" spans="2:14" s="180" customFormat="1">
+      <c r="B130" s="185"/>
+      <c r="D130" s="186"/>
+      <c r="E130" s="186"/>
+      <c r="F130" s="186"/>
+      <c r="G130" s="186"/>
+      <c r="N130" s="187"/>
+    </row>
+    <row r="131" spans="2:14" s="180" customFormat="1">
+      <c r="B131" s="185"/>
+      <c r="D131" s="186"/>
+      <c r="E131" s="186"/>
+      <c r="F131" s="186"/>
+      <c r="G131" s="186"/>
+      <c r="N131" s="187"/>
+    </row>
+    <row r="132" spans="2:14" s="180" customFormat="1">
+      <c r="B132" s="185"/>
+      <c r="D132" s="186"/>
+      <c r="E132" s="186"/>
+      <c r="F132" s="186"/>
+      <c r="G132" s="186"/>
+      <c r="N132" s="187"/>
+    </row>
+    <row r="133" spans="2:14" s="180" customFormat="1">
+      <c r="B133" s="185"/>
+      <c r="D133" s="186"/>
+      <c r="E133" s="186"/>
+      <c r="F133" s="186"/>
+      <c r="G133" s="186"/>
+      <c r="N133" s="187"/>
+    </row>
+    <row r="134" spans="2:14" s="180" customFormat="1">
+      <c r="B134" s="185"/>
+      <c r="D134" s="186"/>
+      <c r="E134" s="186"/>
+      <c r="F134" s="186"/>
+      <c r="G134" s="186"/>
+      <c r="N134" s="187"/>
+    </row>
+    <row r="135" spans="2:14" s="180" customFormat="1">
+      <c r="B135" s="185"/>
+      <c r="D135" s="186"/>
+      <c r="E135" s="186"/>
+      <c r="F135" s="186"/>
+      <c r="G135" s="186"/>
+      <c r="N135" s="187"/>
     </row>
     <row r="136" spans="2:14">
-      <c r="B136" s="148"/>
-      <c r="C136" s="140"/>
-      <c r="D136" s="140"/>
-      <c r="E136" s="140"/>
-      <c r="F136" s="140"/>
-      <c r="G136" s="140"/>
-      <c r="H136" s="140"/>
-      <c r="I136" s="140"/>
-      <c r="J136" s="140"/>
-      <c r="K136" s="140"/>
-      <c r="L136" s="140"/>
-      <c r="M136" s="140"/>
-      <c r="N136" s="149"/>
+      <c r="B136" s="145"/>
+      <c r="C136" s="137"/>
+      <c r="D136" s="137"/>
+      <c r="E136" s="137"/>
+      <c r="F136" s="137"/>
+      <c r="G136" s="137"/>
+      <c r="H136" s="137"/>
+      <c r="I136" s="137"/>
+      <c r="J136" s="137"/>
+      <c r="K136" s="137"/>
+      <c r="L136" s="137"/>
+      <c r="M136" s="137"/>
+      <c r="N136" s="146"/>
     </row>
     <row r="137" spans="2:14">
-      <c r="B137" s="148"/>
-      <c r="G137" s="140"/>
-      <c r="H137" s="140"/>
-      <c r="I137" s="140"/>
-      <c r="J137" s="140"/>
-      <c r="K137" s="140"/>
-      <c r="L137" s="140"/>
-      <c r="M137" s="140"/>
-      <c r="N137" s="149"/>
+      <c r="B137" s="145"/>
+      <c r="G137" s="137"/>
+      <c r="H137" s="137"/>
+      <c r="I137" s="137"/>
+      <c r="J137" s="137"/>
+      <c r="K137" s="137"/>
+      <c r="L137" s="137"/>
+      <c r="M137" s="137"/>
+      <c r="N137" s="146"/>
     </row>
     <row r="138" spans="2:14">
-      <c r="B138" s="148"/>
-      <c r="G138" s="140"/>
-      <c r="H138" s="140"/>
-      <c r="I138" s="140"/>
-      <c r="J138" s="140"/>
-      <c r="K138" s="140"/>
-      <c r="L138" s="140"/>
-      <c r="M138" s="140"/>
-      <c r="N138" s="149"/>
+      <c r="B138" s="145"/>
+      <c r="G138" s="137"/>
+      <c r="H138" s="137"/>
+      <c r="I138" s="137"/>
+      <c r="J138" s="137"/>
+      <c r="K138" s="137"/>
+      <c r="L138" s="137"/>
+      <c r="M138" s="137"/>
+      <c r="N138" s="146"/>
     </row>
     <row r="139" spans="2:14">
-      <c r="B139" s="148"/>
-      <c r="N139" s="149"/>
+      <c r="B139" s="145"/>
+      <c r="N139" s="146"/>
     </row>
     <row r="140" spans="2:14">
-      <c r="B140" s="148"/>
-      <c r="N140" s="149"/>
+      <c r="B140" s="145"/>
+      <c r="N140" s="146"/>
     </row>
     <row r="141" spans="2:14">
-      <c r="B141" s="148"/>
-      <c r="D141" s="192" t="s">
-        <v>188</v>
-      </c>
-      <c r="N141" s="149"/>
+      <c r="B141" s="145"/>
+      <c r="D141" s="180" t="s">
+        <v>178</v>
+      </c>
+      <c r="N141" s="146"/>
     </row>
     <row r="142" spans="2:14">
-      <c r="B142" s="148"/>
-      <c r="C142" s="140"/>
-      <c r="D142" s="140"/>
-      <c r="E142" s="140"/>
-      <c r="F142" s="107"/>
-      <c r="G142" s="107"/>
-      <c r="H142" s="107"/>
-      <c r="I142" s="107"/>
-      <c r="J142" s="107"/>
-      <c r="K142" s="140"/>
-      <c r="L142" s="140"/>
-      <c r="M142" s="140"/>
-      <c r="N142" s="149"/>
+      <c r="B142" s="145"/>
+      <c r="C142" s="137"/>
+      <c r="D142" s="137"/>
+      <c r="E142" s="137"/>
+      <c r="F142" s="104"/>
+      <c r="G142" s="104"/>
+      <c r="H142" s="104"/>
+      <c r="I142" s="104"/>
+      <c r="J142" s="104"/>
+      <c r="K142" s="137"/>
+      <c r="L142" s="137"/>
+      <c r="M142" s="137"/>
+      <c r="N142" s="146"/>
     </row>
     <row r="143" spans="2:14">
-      <c r="B143" s="148"/>
-      <c r="C143" s="140"/>
-      <c r="D143" s="140"/>
-      <c r="E143" s="140"/>
-      <c r="F143" s="140"/>
-      <c r="G143" s="140"/>
-      <c r="H143" s="140"/>
-      <c r="I143" s="140"/>
-      <c r="J143" s="140"/>
-      <c r="K143" s="140"/>
-      <c r="L143" s="140"/>
-      <c r="M143" s="140"/>
-      <c r="N143" s="149"/>
+      <c r="B143" s="145"/>
+      <c r="C143" s="137"/>
+      <c r="D143" s="137"/>
+      <c r="E143" s="137"/>
+      <c r="F143" s="137"/>
+      <c r="G143" s="137"/>
+      <c r="H143" s="137"/>
+      <c r="I143" s="137"/>
+      <c r="J143" s="137"/>
+      <c r="K143" s="137"/>
+      <c r="L143" s="137"/>
+      <c r="M143" s="137"/>
+      <c r="N143" s="146"/>
     </row>
     <row r="144" spans="2:14">
-      <c r="B144" s="148"/>
-      <c r="N144" s="149"/>
+      <c r="B144" s="145"/>
+      <c r="N144" s="146"/>
     </row>
     <row r="145" spans="2:14">
-      <c r="B145" s="148"/>
-      <c r="D145" s="192"/>
-      <c r="N145" s="149"/>
+      <c r="B145" s="145"/>
+      <c r="D145" s="180"/>
+      <c r="N145" s="146"/>
     </row>
     <row r="146" spans="2:14">
-      <c r="B146" s="148"/>
-      <c r="D146" s="192"/>
-      <c r="N146" s="149"/>
+      <c r="B146" s="145"/>
+      <c r="D146" s="180"/>
+      <c r="N146" s="146"/>
     </row>
     <row r="147" spans="2:14">
-      <c r="B147" s="148"/>
-      <c r="D147" s="192"/>
-      <c r="N147" s="149"/>
+      <c r="B147" s="145"/>
+      <c r="D147" s="180"/>
+      <c r="N147" s="146"/>
     </row>
     <row r="148" spans="2:14">
-      <c r="B148" s="148"/>
-      <c r="N148" s="149"/>
+      <c r="B148" s="145"/>
+      <c r="N148" s="146"/>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="148"/>
-      <c r="N149" s="149"/>
+      <c r="B149" s="145"/>
+      <c r="N149" s="146"/>
     </row>
     <row r="150" spans="2:14">
-      <c r="B150" s="148"/>
-      <c r="N150" s="149"/>
+      <c r="B150" s="145"/>
+      <c r="N150" s="146"/>
     </row>
     <row r="151" spans="2:14">
-      <c r="B151" s="148"/>
-      <c r="N151" s="149"/>
+      <c r="B151" s="145"/>
+      <c r="N151" s="146"/>
     </row>
     <row r="152" spans="2:14">
-      <c r="B152" s="148"/>
-      <c r="N152" s="149"/>
+      <c r="B152" s="145"/>
+      <c r="N152" s="146"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED0DB33-4B67-944F-BA07-7CD5F0406445}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD130D8D-3904-6245-A705-6D8B15A60EEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18340" yWindow="460" windowWidth="32860" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
   <si>
     <t>Source</t>
   </si>
@@ -761,6 +761,12 @@
   <si>
     <t>Fraunhofer 2015 p.40</t>
   </si>
+  <si>
+    <t>moved cost of installing to initial investment costs</t>
+  </si>
+  <si>
+    <t>Installation costs set to 0, they are added to initial investment</t>
+  </si>
 </sst>
 </file>
 
@@ -776,12 +782,19 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1382,691 +1395,693 @@
   </borders>
   <cellStyleXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="310">
     <cellStyle name="Comma" xfId="308" builtinId="3"/>
@@ -3447,7 +3462,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3476,42 +3491,42 @@
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="209" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="211"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="214"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="211"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="214"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -3766,7 +3781,7 @@
       </c>
       <c r="E20" s="36">
         <f>'Research data'!H15</f>
-        <v>16420000</v>
+        <v>17420000</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30" t="s">
@@ -3809,15 +3824,15 @@
       </c>
       <c r="E22" s="78">
         <f>'Research data'!H20</f>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="30"/>
-      <c r="I22" s="158" t="s">
-        <v>107</v>
+      <c r="I22" s="218" t="s">
+        <v>180</v>
       </c>
       <c r="J22" s="129"/>
     </row>
@@ -4310,7 +4325,7 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="G15" s="122"/>
       <c r="H15" s="165">
-        <f>H16*H7*1000</f>
-        <v>16420000</v>
+        <f>K15</f>
+        <v>17420000</v>
       </c>
       <c r="I15" s="166"/>
       <c r="J15" s="50"/>
       <c r="K15" s="167">
-        <f>K16*H7*1000</f>
-        <v>16420000</v>
+        <f>K16*H7*1000+K20</f>
+        <v>17420000</v>
       </c>
       <c r="L15" s="61"/>
       <c r="M15" s="32"/>
@@ -4749,8 +4764,7 @@
       </c>
       <c r="G20" s="121"/>
       <c r="H20" s="55">
-        <f>K20</f>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
@@ -4761,7 +4775,9 @@
       <c r="L20" s="50"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-      <c r="O20" s="139"/>
+      <c r="O20" s="208" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="17" thickBot="1">
       <c r="B21" s="34"/>
@@ -5294,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:V152"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>

--- a/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD130D8D-3904-6245-A705-6D8B15A60EEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32718115-5CEA-AE41-B3AC-125AD188398E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18340" yWindow="460" windowWidth="32860" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
   <si>
     <t>Source</t>
   </si>
@@ -766,6 +772,9 @@
   </si>
   <si>
     <t>Installation costs set to 0, they are added to initial investment</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -2054,6 +2063,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2081,7 +2091,6 @@
     <xf numFmtId="0" fontId="38" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="310">
     <cellStyle name="Comma" xfId="308" builtinId="3"/>
@@ -2393,7 +2402,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="309" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="309" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3281,12 +3290,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="68" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="68" customWidth="1"/>
     <col min="2" max="2" width="12" style="32" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="32"/>
+    <col min="3" max="3" width="38.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="66" customFormat="1">
@@ -3462,22 +3471,22 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3491,42 +3500,42 @@
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="212"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="212"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="214"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="212"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="215"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="217"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="218"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -3831,7 +3840,7 @@
         <v>26</v>
       </c>
       <c r="H22" s="30"/>
-      <c r="I22" s="218" t="s">
+      <c r="I22" s="209" t="s">
         <v>180</v>
       </c>
       <c r="J22" s="129"/>
@@ -3931,8 +3940,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="100">
-        <f>'Research data'!H25</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
@@ -3940,7 +3948,7 @@
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="160" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="J27" s="129"/>
     </row>
@@ -4328,24 +4336,24 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="1.83203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="39" customWidth="1"/>
     <col min="11" max="11" width="13" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="39" customWidth="1"/>
     <col min="13" max="13" width="13" style="39" customWidth="1"/>
-    <col min="14" max="14" width="2.1640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="39" customWidth="1"/>
     <col min="15" max="15" width="55" style="39" customWidth="1"/>
-    <col min="16" max="16384" width="10.6640625" style="39"/>
+    <col min="16" max="16384" width="10.7109375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
@@ -4929,18 +4937,18 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="87" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="87" customWidth="1"/>
     <col min="2" max="2" width="3" style="87" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="87" customWidth="1"/>
     <col min="5" max="5" width="14" style="87" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="87" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="88" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="88" customWidth="1"/>
-    <col min="10" max="10" width="76.5" style="87" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="87"/>
+    <col min="6" max="6" width="13.28515625" style="87" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="88" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="88" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" style="87" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -5314,14 +5322,14 @@
       <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="138" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="138" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="138" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="138" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="138" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="138" customWidth="1"/>
     <col min="4" max="4" width="34" style="138" customWidth="1"/>
     <col min="5" max="5" width="23" style="138" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="138"/>
+    <col min="6" max="16384" width="10.7109375" style="138"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
